--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2318,7 +2318,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2328,17 +2328,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>VALDENEGRO /ALT/ 4037</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2366,55 +2366,55 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.493679</v>
+        <v>-58.391153</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.557149</v>
+        <v>-34.624022</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2451,14 +2451,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.391153</v>
+        <v>-58.423405</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.624022</v>
+        <v>-34.588075</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2470,17 +2470,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SOLER /ALT/ 4517</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803651203</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>columna de 114 con nodo y redes nuestra.</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2518,19 +2518,19 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.423405</v>
+        <v>-58.42486</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.588075</v>
+        <v>-34.577318</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2546,27 +2546,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>-316</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>4/3/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>ALBERTI /ALT/ 621</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>804468365</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2599,18 +2599,18 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.42486</v>
+        <v>-58.401202</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.577318</v>
+        <v>-34.61683</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2622,27 +2622,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-316</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/3/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ALBERTI /ALT/ 621</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804468365</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2679,26 +2679,26 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.401202</v>
+        <v>-58.491074</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.61683</v>
+        <v>-34.575623</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2708,17 +2708,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GARCIA DEL RIO /ALT/ 3354</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804634199</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2751,18 +2751,18 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.478106</v>
+        <v>-58.525125</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.551523</v>
+        <v>-34.604668</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2774,27 +2774,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>-336</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>BAUNESS /ALT/ 1419</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804838856</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.491074</v>
+        <v>-58.479168</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.575623</v>
+        <v>-34.584482</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2850,27 +2850,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2907,26 +2907,26 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.525125</v>
+        <v>-58.421964</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.604668</v>
+        <v>-34.586342</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-336</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2936,17 +2936,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1419</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804838856</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2983,10 +2983,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.479168</v>
+        <v>-58.498493</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.584482</v>
+        <v>-34.581262</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3012,17 +3012,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3059,36 +3059,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.421964</v>
+        <v>-58.460666</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.586342</v>
+        <v>-34.573823</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3113,15 +3113,15 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.498493</v>
+        <v>-58.502447</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.581262</v>
+        <v>-34.561008</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3154,27 +3154,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3189,15 +3189,15 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3211,14 +3211,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.460666</v>
+        <v>-58.483947</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.573823</v>
+        <v>-34.583207</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3230,27 +3230,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-341</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 4835</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804838980</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3265,15 +3265,15 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3287,14 +3287,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.469157</v>
+        <v>-58.503673</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.536783</v>
+        <v>-34.586925</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3306,7 +3306,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-347</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3316,17 +3316,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>AVALOS /ALT/ 1610</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839214</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Cambiar columna de 168 - VIRARDI</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.502447</v>
+        <v>-58.480099</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.561008</v>
+        <v>-34.582085</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3392,17 +3392,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3439,14 +3439,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.483947</v>
+        <v>-58.511462</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.583207</v>
+        <v>-34.640542</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3458,7 +3458,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3511,14 +3511,14 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.503673</v>
+        <v>-58.504455</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.586925</v>
+        <v>-34.579941</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-347</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3544,17 +3544,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AVALOS /ALT/ 1610</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804839214</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3591,10 +3591,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.480099</v>
+        <v>-58.504568</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.582085</v>
+        <v>-34.590534</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3620,17 +3620,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3667,14 +3667,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.511462</v>
+        <v>-58.503195</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.640542</v>
+        <v>-34.581735</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3686,7 +3686,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-363</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3696,17 +3696,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>OSLO /ALT/ 1255</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839962</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3743,10 +3743,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.504455</v>
+        <v>-58.481767</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.579941</v>
+        <v>-34.589507</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3819,14 +3819,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.504568</v>
+        <v>-58.493164</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.590534</v>
+        <v>-34.55732</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3838,7 +3838,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.503195</v>
+        <v>-58.491934</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.581735</v>
+        <v>-34.569348</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-363</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3924,17 +3924,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>OSLO /ALT/ 1255</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804839962</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3971,10 +3971,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.481767</v>
+        <v>-58.501418</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.589507</v>
+        <v>-34.574363</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4047,10 +4047,10 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.493164</v>
+        <v>-58.494584</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.55732</v>
+        <v>-34.554981</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4066,27 +4066,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4101,15 +4101,15 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4119,18 +4119,18 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.491934</v>
+        <v>-58.465608</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.569348</v>
+        <v>-34.538489</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4142,27 +4142,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4177,15 +4177,15 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4199,10 +4199,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.501418</v>
+        <v>-58.436788</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.574363</v>
+        <v>-34.604014</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4218,27 +4218,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4253,11 +4253,11 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4275,46 +4275,46 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.494584</v>
+        <v>-58.439461</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.554981</v>
+        <v>-34.605744</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4347,30 +4347,30 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.465608</v>
+        <v>-58.412418</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.538489</v>
+        <v>-34.629288</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4380,17 +4380,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4427,26 +4427,26 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.436788</v>
+        <v>-58.418424</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.604014</v>
+        <v>-34.604463</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-377</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4456,17 +4456,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>HUMAHUACA /ALT/ 3918</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4503,10 +4503,10 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.439461</v>
+        <v>-58.419694</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.605744</v>
+        <v>-34.602062</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -4522,27 +4522,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4579,46 +4579,46 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.412418</v>
+        <v>-58.481834</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.629288</v>
+        <v>-34.560796</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4655,46 +4655,46 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.418424</v>
+        <v>-58.473936</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.604463</v>
+        <v>-34.577346</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-377</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HUMAHUACA /ALT/ 3918</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4731,26 +4731,26 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.419694</v>
+        <v>-58.45789</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.602062</v>
+        <v>-34.565423</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4760,17 +4760,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4807,14 +4807,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.481834</v>
+        <v>-58.458217</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.560796</v>
+        <v>-34.565043</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4826,27 +4826,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4883,14 +4883,14 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.473936</v>
+        <v>-58.49045</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.577346</v>
+        <v>-34.566894</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4902,27 +4902,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-392</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>GARCIA TEODORO /ALT/ 1775</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805676615</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4959,10 +4959,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.45789</v>
+        <v>-58.440367</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.565423</v>
+        <v>-34.563551</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4978,27 +4978,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-393</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805676618</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5021,12 +5021,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5035,10 +5035,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.458217</v>
+        <v>-58.445186</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.565043</v>
+        <v>-34.567417</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5054,27 +5054,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5111,46 +5111,46 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.49045</v>
+        <v>-58.387847</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.566894</v>
+        <v>-34.587043</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 1775</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>805676615</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5187,14 +5187,14 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.440367</v>
+        <v>-58.46579</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.563551</v>
+        <v>-34.555012</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5206,27 +5206,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5263,10 +5263,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.445186</v>
+        <v>-58.451835</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.567417</v>
+        <v>-34.562646</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5282,27 +5282,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-406</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Olof palme 4144</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805791925</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Tensar 2 riendas a pique columna 168</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5335,50 +5335,50 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.387847</v>
+        <v>-58.488252</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.587043</v>
+        <v>-34.553391</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-403</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>805722878</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5411,18 +5411,18 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.466241</v>
+        <v>-58.470837</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.57047</v>
+        <v>-34.545751</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5434,7 +5434,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5444,17 +5444,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.46579</v>
+        <v>-58.472267</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.555012</v>
+        <v>-34.551163</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5510,17 +5510,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5567,14 +5567,14 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.451835</v>
+        <v>-58.464144</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.562646</v>
+        <v>-34.541832</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5586,27 +5586,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5639,50 +5639,50 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.488252</v>
+        <v>-58.434761</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.553391</v>
+        <v>-34.598381</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5715,14 +5715,14 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.470837</v>
+        <v>-58.464177</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.545751</v>
+        <v>-34.558239</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5738,27 +5738,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5781,12 +5781,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5795,46 +5795,46 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.472267</v>
+        <v>-58.412302</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.551163</v>
+        <v>-34.59301</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5849,11 +5849,11 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.464144</v>
+        <v>-58.485056</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.541832</v>
+        <v>-34.555059</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5890,27 +5890,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-425</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7437</t>
+          <t>Moldes 2325</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>806926621</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar columna de 114</t>
+          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5947,14 +5947,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.501029</v>
+        <v>-58.461167</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.673558</v>
+        <v>-34.561613</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -5966,27 +5966,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7471</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>806926647</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 con rienda</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6019,18 +6019,18 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.501565</v>
+        <v>-58.49147</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.673845</v>
+        <v>-34.55031</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6042,27 +6042,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6075,11 +6075,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
-        </is>
-      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
         <v>1</v>
       </c>
@@ -6099,14 +6095,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.434761</v>
+        <v>-58.405761</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.598381</v>
+        <v>-34.582476</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6118,27 +6114,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-432</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN 618</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>806926759</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6153,7 +6149,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6175,10 +6171,10 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.433867</v>
+        <v>-58.432241</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.599149</v>
+        <v>-34.56642</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -6194,27 +6190,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6229,7 +6225,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6247,50 +6243,50 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.464177</v>
+        <v>-58.417348</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.558239</v>
+        <v>-34.595467</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6305,7 +6301,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6323,18 +6319,18 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.412302</v>
+        <v>-58.472311</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.59301</v>
+        <v>-34.654867</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6346,27 +6342,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6381,11 +6377,11 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6403,14 +6399,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.485056</v>
+        <v>-58.450113</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.555059</v>
+        <v>-34.574534</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6422,27 +6418,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Moldes 2325</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6457,7 +6453,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6475,18 +6471,18 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.461167</v>
+        <v>-58.484729</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.561613</v>
+        <v>-34.574614</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6498,27 +6494,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6533,7 +6529,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6555,10 +6551,10 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.49147</v>
+        <v>-58.452636</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.55031</v>
+        <v>-34.558607</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -6574,27 +6570,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6607,13 +6603,17 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Poste inclinado</t>
+        </is>
+      </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6623,50 +6623,50 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.405761</v>
+        <v>-58.510247</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.582476</v>
+        <v>-34.645038</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>BEAUCHEF 421</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>808373658</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6703,14 +6703,14 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.432241</v>
+        <v>-58.433724</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.56642</v>
+        <v>-34.621643</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6722,27 +6722,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>-518</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6779,46 +6779,46 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.417348</v>
+        <v>-58.483145</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.595467</v>
+        <v>-34.557043</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6454</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/18/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>HABANA 3382</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>808413466</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6851,50 +6851,50 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.472311</v>
+        <v>-58.505747</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.654867</v>
+        <v>-34.593173</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>6457</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/18/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>BATLLE Y ORDOÑEZ, JOSE P.T. 4659</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>808413477</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6931,551 +6931,19 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.450113</v>
+        <v>-58.464657</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.574534</v>
+        <v>-34.670556</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>-488</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Blanco Encalada 4896</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>807763099</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>-58.484729</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-34.574614</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>-491</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>3 de Febrero 2171</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>807789702</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Columna 114 propia picada en base con NAP</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>-58.452636</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-34.558607</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>6399</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>7/14/2025</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>ESCALADA AV. 966</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>808258198</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>-58.493069</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-34.646557</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>-515</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>7/15/2025</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Rivadavia 7470</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>808263485</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>-58.470715</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-34.631107</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
           <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>6398</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>7/15/2025</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>LARRAZABAL AV. 579</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>808373655</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>-58.510247</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-34.645038</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>6410</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>7/15/2025</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>BEAUCHEF 421</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>808373658</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>-58.433724</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-34.621643</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>-518</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>7/16/2025</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Crisologo Larralde 4073</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>808373627</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Cambiar columna corroída en base</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>-58.483145</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-34.557043</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6947,6 +6947,78 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>-521</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>7/21/2025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Gregario Laferrere 6572</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>808430950</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>No clasificado, consultar con mantenimiento</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,27 +518,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>801645051</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1/5/2024</t>
+          <t>12/13/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FIGUEROA ALCORTA PTE ,AV. /ALT/ 5600</t>
+          <t>Estomba 907</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>777580740</t>
+          <t>801645051</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Es F. ALCORTA 5600 (pasando Av de los ombues 100mts aprox.) Para cambiar es un poste con muchas rajaduras, en Figueroa Alcorta esq. Av de los Ombues</t>
+          <t>Aplomar uno de los postes y desmontar el que esta en desuso</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -561,7 +561,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -575,46 +575,46 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.425911</v>
+        <v>-58.464756</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.56033</v>
+        <v>-34.582693</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>801645141</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1/13/2024</t>
+          <t>12/13/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SANTA FE ,AV. /ALT/ 5154</t>
+          <t>Fraga 1501</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>777843837</t>
+          <t>801645141</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>cambio de columna la misma NO presenta riesgo de caída</t>
+          <t>Aplomar poste de 14 mts</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -637,7 +637,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -647,50 +647,50 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.432658</v>
+        <v>-58.464984</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.576446</v>
+        <v>-34.582783</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1/15/2024</t>
+          <t>1/5/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DARWIN /ALT/ 651</t>
+          <t>FIGUEROA ALCORTA PTE ,AV. /ALT/ 5600</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>777863458</t>
+          <t>777580740</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -703,7 +703,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Es F. ALCORTA 5600 (pasando Av de los ombues 100mts aprox.) Para cambiar es un poste con muchas rajaduras, en Figueroa Alcorta esq. Av de los Ombues</t>
+        </is>
+      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
@@ -719,40 +723,40 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.44467</v>
+        <v>-58.425911</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.593784</v>
+        <v>-34.56033</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1/25/2024</t>
+          <t>1/13/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GUATEMALA /ALT/ 5933</t>
+          <t>SANTA FE ,AV. /ALT/ 5154</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -762,7 +766,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>778787388</t>
+          <t>777843837</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -777,7 +781,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada en su base para remplazar ubicada en GUATEMALA 5933 </t>
+          <t>cambio de columna la misma NO presenta riesgo de caída</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -799,10 +803,10 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.435356</v>
+        <v>-58.432658</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.577571</v>
+        <v>-34.576446</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -818,27 +822,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2/21/2024</t>
+          <t>1/15/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>VEGA CNEL NICETO /ALT/ 4984</t>
+          <t>DARWIN /ALT/ 651</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>780352873</t>
+          <t>777863458</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -851,11 +855,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Recambio de columna</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>0</v>
       </c>
@@ -875,36 +875,36 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.433253</v>
+        <v>-58.44467</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.591026</v>
+        <v>-34.593784</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2/26/2024</t>
+          <t>1/25/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DORREGO ,AV. /ALT/ 2622</t>
+          <t>GUATEMALA /ALT/ 5933</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>780713073</t>
+          <t>778787388</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -929,11 +929,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Recambio de columna</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada en su base para remplazar ubicada en GUATEMALA 5933 </t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.434217</v>
+        <v>-58.435356</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.574247</v>
+        <v>-34.577571</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -970,17 +970,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-103</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6/12/2024</t>
+          <t>2/21/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SALGUERO JERONIMO /ALT/ 2533</t>
+          <t>VEGA CNEL NICETO /ALT/ 4984</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>788206681</t>
+          <t>780352873</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Altura correcta 2549</t>
+          <t>Recambio de columna</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.409971</v>
+        <v>-58.433253</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.58175</v>
+        <v>-34.591026</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1046,27 +1046,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-118</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/15/2024</t>
+          <t>2/26/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
+          <t>DORREGO ,AV. /ALT/ 2622</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>793333193</t>
+          <t>780713073</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1081,11 +1081,11 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Retirar columna vieja, nodo ya traspasado</t>
+          <t>Recambio de columna</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1103,46 +1103,46 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.445523</v>
+        <v>-58.434217</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.558237</v>
+        <v>-34.574247</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-143</t>
+          <t>-103</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/7/2024</t>
+          <t>6/12/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
+          <t>SALGUERO JERONIMO /ALT/ 2533</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>797752816</t>
+          <t>788206681</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1155,7 +1155,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Altura correcta 2549</t>
+        </is>
+      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
@@ -1166,7 +1170,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1175,46 +1179,46 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.458864</v>
+        <v>-58.409971</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.561167</v>
+        <v>-34.58175</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-152</t>
+          <t>-118</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>8/15/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>798984311</t>
+          <t>793333193</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1229,7 +1233,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>El poste esta pegado al arbol ver la foto adjunta</t>
+          <t>Retirar columna vieja, nodo ya traspasado</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1242,23 +1246,23 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.513363</v>
+        <v>-58.445523</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.605473</v>
+        <v>-34.558237</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1270,27 +1274,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-160</t>
+          <t>-143</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>10/7/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MORAN PEDRO /ALT/ 3100</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>798984905</t>
+          <t>797752816</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1314,23 +1318,23 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.498724</v>
+        <v>-58.458864</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.594329</v>
+        <v>-34.561167</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1342,27 +1346,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-193</t>
+          <t>-152</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WASHINGTON /ALT/ 3251</t>
+          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>799539971</t>
+          <t>798984311</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1377,7 +1381,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
+          <t>El poste esta pegado al arbol ver la foto adjunta</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1395,18 +1399,18 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.478272</v>
+        <v>-58.513363</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.558899</v>
+        <v>-34.605473</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1418,27 +1422,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-201</t>
+          <t>-160</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1007</t>
+          <t>MORAN PEDRO /ALT/ 3100</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>799540497</t>
+          <t>798984905</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1451,11 +1455,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
         <v>0</v>
       </c>
@@ -1471,30 +1471,30 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.436377</v>
+        <v>-58.498724</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.565075</v>
+        <v>-34.594329</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-202</t>
+          <t>-193</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1504,17 +1504,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1030</t>
+          <t>WASHINGTON /ALT/ 3251</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>799540503</t>
+          <t>799539971</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Recambio de columna - alt correcta 1010</t>
+          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1547,30 +1547,30 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.436601</v>
+        <v>-58.478272</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.565035</v>
+        <v>-34.558899</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-203</t>
+          <t>-201</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NEWBERY JORGE /ALT/ 2644</t>
+          <t>MIGUELETES /ALT/ 1007</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>799540511</t>
+          <t>799540497</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Recambio de columna</t>
+          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1623,14 +1623,14 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.442706</v>
+        <v>-58.436377</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.574158</v>
+        <v>-34.565075</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1646,17 +1646,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-213</t>
+          <t>-202</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2452</t>
+          <t>MIGUELETES /ALT/ 1030</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>799451003</t>
+          <t>799540503</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1679,7 +1679,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Recambio de columna - alt correcta 1010</t>
+        </is>
+      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
@@ -1695,14 +1699,14 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.416896</v>
+        <v>-58.436601</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.585625</v>
+        <v>-34.565035</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1718,17 +1722,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-214</t>
+          <t>-203</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2394</t>
+          <t>NEWBERY JORGE /ALT/ 2644</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1738,7 +1742,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799450985</t>
+          <t>799540511</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1751,7 +1755,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Recambio de columna</t>
+        </is>
+      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
@@ -1771,10 +1779,10 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.417746</v>
+        <v>-58.442706</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.586158</v>
+        <v>-34.574158</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1790,17 +1798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-216</t>
+          <t>-213</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5/2/2024</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2452</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1810,7 +1818,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>784655947</t>
+          <t>799451003</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1823,11 +1831,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>0</v>
       </c>
@@ -1847,14 +1851,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.404652</v>
+        <v>-58.416896</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.58263</v>
+        <v>-34.585625</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1866,27 +1870,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-219</t>
+          <t>-214</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LA PAMPA /ALT/ 2836</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2394</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>798953875</t>
+          <t>799450985</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1899,11 +1903,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -1923,46 +1923,46 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.458282</v>
+        <v>-58.417746</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.56718</v>
+        <v>-34.586158</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-226</t>
+          <t>-216</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>5/2/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUBA /ALT/ 2308</t>
+          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>800502281</t>
+          <t>784655947</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1999,46 +1999,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.456674</v>
+        <v>-58.404652</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.558757</v>
+        <v>-34.58263</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-228</t>
+          <t>-219</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11/22/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN /ALT/ 1272</t>
+          <t>LA PAMPA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>800645527</t>
+          <t>798953875</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2075,46 +2075,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.426725</v>
+        <v>-58.458282</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.5945</v>
+        <v>-34.56718</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-254</t>
+          <t>-226</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/7/2025</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
+          <t>CUBA /ALT/ 2308</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>802367713</t>
+          <t>800502281</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2127,9 +2127,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2138,7 +2142,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2147,14 +2151,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.457158</v>
+        <v>-58.456674</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.605839</v>
+        <v>-34.558757</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2166,27 +2170,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-263</t>
+          <t>-228</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fraga 93</t>
+          <t>ALVAREZ JULIAN /ALT/ 1272</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802848838</t>
+          <t>800645527</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2201,11 +2205,11 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2219,50 +2223,50 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.446721</v>
+        <v>-58.426725</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.587175</v>
+        <v>-34.5945</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DEL PINO VIRREY /ALT/ 2646</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2275,13 +2279,9 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Columna 114 quebrada en base dar prioridad.</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2299,14 +2299,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.45524</v>
+        <v>-58.457158</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.567858</v>
+        <v>-34.605839</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2318,27 +2318,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-263</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>Fraga 93</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>802848838</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2353,11 +2353,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2366,55 +2366,55 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.391153</v>
+        <v>-58.446721</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.624022</v>
+        <v>-34.587175</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SOLER /ALT/ 4517</t>
+          <t>DEL PINO VIRREY /ALT/ 2646</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803651203</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>columna de 114 con nodo y redes nuestra.</t>
+          <t>Columna 114 quebrada en base dar prioridad.</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2451,46 +2451,46 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.423405</v>
+        <v>-58.45524</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.588075</v>
+        <v>-34.567858</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2518,23 +2518,23 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.42486</v>
+        <v>-58.391153</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.577318</v>
+        <v>-34.624022</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2546,27 +2546,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-316</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/3/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ALBERTI /ALT/ 621</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804468365</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2581,11 +2581,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2603,14 +2603,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.401202</v>
+        <v>-58.423405</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.61683</v>
+        <v>-34.588075</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2622,27 +2622,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2670,55 +2670,55 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.491074</v>
+        <v>-58.42486</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.575623</v>
+        <v>-34.577318</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-316</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/3/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>ALBERTI /ALT/ 621</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804468365</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2755,46 +2755,46 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.525125</v>
+        <v>-58.401202</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.604668</v>
+        <v>-34.61683</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-336</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1419</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804838856</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.479168</v>
+        <v>-58.491074</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.584482</v>
+        <v>-34.575623</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2850,27 +2850,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2907,26 +2907,26 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.421964</v>
+        <v>-58.525125</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.586342</v>
+        <v>-34.604668</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-336</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2936,17 +2936,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>BAUNESS /ALT/ 1419</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804838856</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2983,10 +2983,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.498493</v>
+        <v>-58.479168</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.581262</v>
+        <v>-34.584482</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3012,17 +3012,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3059,36 +3059,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.460666</v>
+        <v>-58.421964</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.573823</v>
+        <v>-34.586342</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3113,15 +3113,15 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.502447</v>
+        <v>-58.498493</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.561008</v>
+        <v>-34.581262</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3154,27 +3154,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3189,15 +3189,15 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3211,14 +3211,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.483947</v>
+        <v>-58.460666</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.583207</v>
+        <v>-34.573823</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3230,7 +3230,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3283,14 +3283,14 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.503673</v>
+        <v>-58.502447</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.586925</v>
+        <v>-34.561008</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-347</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AVALOS /ALT/ 1610</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804839214</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3349,12 +3349,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.480099</v>
+        <v>-58.483947</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.582085</v>
+        <v>-34.583207</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3392,17 +3392,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3435,18 +3435,18 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.511462</v>
+        <v>-58.503673</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.640542</v>
+        <v>-34.586925</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3458,7 +3458,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-347</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3468,17 +3468,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>AVALOS /ALT/ 1610</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839214</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Cambiar columna de 168 - VIRARDI</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3515,10 +3515,10 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.504455</v>
+        <v>-58.480099</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.579941</v>
+        <v>-34.582085</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3544,17 +3544,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3577,12 +3577,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3591,14 +3591,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.504568</v>
+        <v>-58.511462</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.590534</v>
+        <v>-34.640542</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3610,7 +3610,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3667,10 +3667,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.503195</v>
+        <v>-58.504455</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.581735</v>
+        <v>-34.579941</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-363</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3696,17 +3696,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>OSLO /ALT/ 1255</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804839962</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3729,12 +3729,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3743,10 +3743,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.481767</v>
+        <v>-58.504568</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.589507</v>
+        <v>-34.590534</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3819,14 +3819,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.493164</v>
+        <v>-58.503195</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.55732</v>
+        <v>-34.581735</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3838,7 +3838,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-363</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3848,17 +3848,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>OSLO /ALT/ 1255</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804839962</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.491934</v>
+        <v>-58.481767</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.569348</v>
+        <v>-34.589507</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3971,14 +3971,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.501418</v>
+        <v>-58.493164</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.574363</v>
+        <v>-34.55732</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3990,7 +3990,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4047,14 +4047,14 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.494584</v>
+        <v>-58.491934</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.554981</v>
+        <v>-34.569348</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4066,27 +4066,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4101,11 +4101,11 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4119,18 +4119,18 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.465608</v>
+        <v>-58.501418</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.538489</v>
+        <v>-34.574363</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4142,27 +4142,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4177,15 +4177,15 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4199,14 +4199,14 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.436788</v>
+        <v>-58.494584</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.604014</v>
+        <v>-34.554981</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4218,27 +4218,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4271,30 +4271,30 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.439461</v>
+        <v>-58.465608</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.605744</v>
+        <v>-34.538489</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4304,17 +4304,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4351,26 +4351,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.412418</v>
+        <v>-58.436788</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.629288</v>
+        <v>-34.604014</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4380,17 +4380,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4427,10 +4427,10 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.418424</v>
+        <v>-58.439461</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.604463</v>
+        <v>-34.605744</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-377</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>HUMAHUACA /ALT/ 3918</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4503,14 +4503,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.419694</v>
+        <v>-58.412418</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.602062</v>
+        <v>-34.629288</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4522,27 +4522,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4579,46 +4579,46 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.481834</v>
+        <v>-58.418424</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.560796</v>
+        <v>-34.604463</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-377</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>HUMAHUACA /ALT/ 3918</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4655,26 +4655,26 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.473936</v>
+        <v>-58.419694</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.577346</v>
+        <v>-34.602062</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4684,17 +4684,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4731,14 +4731,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.45789</v>
+        <v>-58.481834</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.565423</v>
+        <v>-34.560796</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4750,7 +4750,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4760,17 +4760,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4807,10 +4807,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.458217</v>
+        <v>-58.473936</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.565043</v>
+        <v>-34.577346</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4826,27 +4826,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4883,14 +4883,14 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.49045</v>
+        <v>-58.45789</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.566894</v>
+        <v>-34.565423</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4902,27 +4902,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 1775</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>805676615</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4945,12 +4945,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4959,10 +4959,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.440367</v>
+        <v>-58.458217</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.563551</v>
+        <v>-34.565043</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4988,17 +4988,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5035,14 +5035,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.445186</v>
+        <v>-58.49045</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.567417</v>
+        <v>-34.566894</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5054,27 +5054,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-392</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>GARCIA TEODORO /ALT/ 1775</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805676615</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5111,46 +5111,46 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.387847</v>
+        <v>-58.440367</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.587043</v>
+        <v>-34.563551</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-393</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>805676618</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5187,14 +5187,14 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.46579</v>
+        <v>-58.445186</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.555012</v>
+        <v>-34.567417</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5206,27 +5206,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5263,26 +5263,26 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.451835</v>
+        <v>-58.387847</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.562646</v>
+        <v>-34.587043</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5292,17 +5292,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5335,14 +5335,14 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.488252</v>
+        <v>-58.46579</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.553391</v>
+        <v>-34.555012</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5368,17 +5368,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5411,18 +5411,18 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.470837</v>
+        <v>-58.451835</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.545751</v>
+        <v>-34.562646</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5434,7 +5434,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-406</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Olof palme 4144</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>805791925</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5469,7 +5469,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Tensar 2 riendas a pique columna 168</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5477,24 +5477,24 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.472267</v>
+        <v>-58.488252</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.551163</v>
+        <v>-34.553391</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5510,27 +5510,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5563,14 +5563,14 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.464144</v>
+        <v>-58.470837</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.541832</v>
+        <v>-34.545751</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5586,27 +5586,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5643,26 +5643,26 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.434761</v>
+        <v>-58.472267</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.598381</v>
+        <v>-34.551163</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5715,14 +5715,14 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.464177</v>
+        <v>-58.464144</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.558239</v>
+        <v>-34.541832</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5748,17 +5748,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5795,14 +5795,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.412302</v>
+        <v>-58.434761</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.59301</v>
+        <v>-34.598381</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5814,27 +5814,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5849,11 +5849,11 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5867,14 +5867,14 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.485056</v>
+        <v>-58.464177</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.555059</v>
+        <v>-34.558239</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5890,27 +5890,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Moldes 2325</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5947,36 +5947,36 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.461167</v>
+        <v>-58.412302</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.561613</v>
+        <v>-34.59301</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6023,10 +6023,10 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.49147</v>
+        <v>-58.485056</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.55031</v>
+        <v>-34.555059</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -6042,17 +6042,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Moldes 2325</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6075,7 +6075,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+        </is>
+      </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
@@ -6095,46 +6099,46 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.405761</v>
+        <v>-58.461167</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.582476</v>
+        <v>-34.561613</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6149,7 +6153,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6171,36 +6175,36 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.432241</v>
+        <v>-58.49147</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.56642</v>
+        <v>-34.55031</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6210,7 +6214,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6223,11 +6227,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
-        </is>
-      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
         <v>1</v>
       </c>
@@ -6247,14 +6247,14 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.417348</v>
+        <v>-58.405761</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.595467</v>
+        <v>-34.582476</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6266,27 +6266,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6319,18 +6319,18 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.472311</v>
+        <v>-58.432241</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.654867</v>
+        <v>-34.56642</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6342,27 +6342,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6377,7 +6377,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6399,26 +6399,26 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.450113</v>
+        <v>-58.417348</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.574534</v>
+        <v>-34.595467</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6428,17 +6428,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6471,40 +6471,40 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.484729</v>
+        <v>-58.472311</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.574614</v>
+        <v>-34.654867</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6551,14 +6551,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.452636</v>
+        <v>-58.450113</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.558607</v>
+        <v>-34.574534</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6570,27 +6570,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6627,14 +6627,14 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.510247</v>
+        <v>-58.484729</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.645038</v>
+        <v>-34.574614</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6646,27 +6646,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BEAUCHEF 421</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808373658</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6703,46 +6703,46 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.433724</v>
+        <v>-58.452636</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.621643</v>
+        <v>-34.558607</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-518</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6775,18 +6775,18 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.483145</v>
+        <v>-58.510247</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.557043</v>
+        <v>-34.645038</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6798,27 +6798,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6454</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/18/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HABANA 3382</t>
+          <t>BEAUCHEF 421</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808413466</t>
+          <t>808373658</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6855,46 +6855,46 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.505747</v>
+        <v>-58.433724</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.593173</v>
+        <v>-34.621643</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6457</t>
+          <t>-518</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/18/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>BATLLE Y ORDOÑEZ, JOSE P.T. 4659</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808413477</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6931,46 +6931,46 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.464657</v>
+        <v>-58.483145</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.670556</v>
+        <v>-34.557043</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>6454</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/18/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Gregario Laferrere 6572</t>
+          <t>HABANA 3382</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808413466</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7006,14 +7006,166 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>-58.505747</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-34.593173</v>
+      </c>
       <c r="O87" t="inlineStr">
         <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>6457</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>7/18/2025</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>BATLLE Y ORDOÑEZ, JOSE P.T. 4659</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>808413477</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Inclinada</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>-58.464657</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-34.670556</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>-521</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>7/21/2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Gregario Laferrere 6572</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>808430950</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
+        <is>
           <t>No ubicado</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr">
+      <c r="P89" t="inlineStr">
         <is>
           <t>No clasificado, consultar con mantenimiento</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -3458,7 +3458,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-347</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3468,17 +3468,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AVALOS /ALT/ 1610</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804839214</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 - VIRARDI</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3515,14 +3515,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.480099</v>
+        <v>-58.511462</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.582085</v>
+        <v>-34.640542</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3534,7 +3534,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3544,17 +3544,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3591,14 +3591,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.511462</v>
+        <v>-58.504455</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.640542</v>
+        <v>-34.579941</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3610,7 +3610,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3667,10 +3667,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.504455</v>
+        <v>-58.504568</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.579941</v>
+        <v>-34.590534</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3743,10 +3743,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.504568</v>
+        <v>-58.503195</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.590534</v>
+        <v>-34.581735</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-363</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3772,17 +3772,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>OSLO /ALT/ 1255</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839962</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.503195</v>
+        <v>-58.481767</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.581735</v>
+        <v>-34.589507</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-363</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3848,17 +3848,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>OSLO /ALT/ 1255</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804839962</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3895,14 +3895,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.481767</v>
+        <v>-58.493164</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.589507</v>
+        <v>-34.55732</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3914,7 +3914,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3971,14 +3971,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.493164</v>
+        <v>-58.491934</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.55732</v>
+        <v>-34.569348</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3990,7 +3990,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4047,10 +4047,10 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.491934</v>
+        <v>-58.501418</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.569348</v>
+        <v>-34.574363</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4123,14 +4123,14 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.501418</v>
+        <v>-58.494584</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.574363</v>
+        <v>-34.554981</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4142,27 +4142,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4177,11 +4177,11 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4195,14 +4195,14 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.494584</v>
+        <v>-58.465608</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.554981</v>
+        <v>-34.538489</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4218,27 +4218,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4271,18 +4271,18 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.465608</v>
+        <v>-58.436788</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.538489</v>
+        <v>-34.604014</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4294,7 +4294,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4304,17 +4304,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4351,26 +4351,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.436788</v>
+        <v>-58.439461</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.604014</v>
+        <v>-34.605744</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4380,17 +4380,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4427,14 +4427,14 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.439461</v>
+        <v>-58.412418</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.605744</v>
+        <v>-34.629288</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4446,7 +4446,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4503,14 +4503,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.412418</v>
+        <v>-58.418424</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.629288</v>
+        <v>-34.604463</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4522,7 +4522,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-377</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>HUMAHUACA /ALT/ 3918</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4579,10 +4579,10 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.418424</v>
+        <v>-58.419694</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.604463</v>
+        <v>-34.602062</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4598,27 +4598,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-377</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HUMAHUACA /ALT/ 3918</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4655,26 +4655,26 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.419694</v>
+        <v>-58.481834</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.602062</v>
+        <v>-34.560796</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4684,17 +4684,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4731,14 +4731,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.481834</v>
+        <v>-58.473936</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.560796</v>
+        <v>-34.577346</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4750,7 +4750,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4760,17 +4760,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4807,10 +4807,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.473936</v>
+        <v>-58.45789</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.577346</v>
+        <v>-34.565423</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.45789</v>
+        <v>-58.458217</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.565423</v>
+        <v>-34.565043</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4902,27 +4902,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4945,12 +4945,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4959,14 +4959,14 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.458217</v>
+        <v>-58.49045</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.565043</v>
+        <v>-34.566894</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4978,7 +4978,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-392</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4988,17 +4988,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>GARCIA TEODORO /ALT/ 1775</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>805676615</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5035,14 +5035,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.49045</v>
+        <v>-58.440367</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.566894</v>
+        <v>-34.563551</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5054,7 +5054,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-393</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 1775</t>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>805676615</t>
+          <t>805676618</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5111,10 +5111,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.440367</v>
+        <v>-58.445186</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.563551</v>
+        <v>-34.567417</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5130,27 +5130,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5187,46 +5187,46 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.445186</v>
+        <v>-58.387847</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.567417</v>
+        <v>-34.587043</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5263,26 +5263,26 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.387847</v>
+        <v>-58.46579</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.587043</v>
+        <v>-34.555012</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5339,14 +5339,14 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.46579</v>
+        <v>-58.451835</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.555012</v>
+        <v>-34.562646</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5358,7 +5358,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-406</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5368,17 +5368,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Olof palme 4144</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805791925</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Tensar 2 riendas a pique columna 168</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5411,18 +5411,18 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.451835</v>
+        <v>-58.488252</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.562646</v>
+        <v>-34.553391</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5434,7 +5434,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5469,7 +5469,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.488252</v>
+        <v>-58.470837</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.553391</v>
+        <v>-34.545751</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5558,19 +5558,19 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.470837</v>
+        <v>-58.472267</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.545751</v>
+        <v>-34.551163</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5586,27 +5586,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5643,10 +5643,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.472267</v>
+        <v>-58.464144</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.551163</v>
+        <v>-34.541832</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5672,17 +5672,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5719,26 +5719,26 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.464144</v>
+        <v>-58.434761</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.541832</v>
+        <v>-34.598381</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5748,17 +5748,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5791,30 +5791,30 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.434761</v>
+        <v>-58.464177</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.598381</v>
+        <v>-34.558239</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5824,17 +5824,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5867,50 +5867,50 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.464177</v>
+        <v>-58.412302</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.558239</v>
+        <v>-34.59301</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5925,11 +5925,11 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5947,46 +5947,46 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.412302</v>
+        <v>-58.485056</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.59301</v>
+        <v>-34.555059</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Moldes 2325</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6023,10 +6023,10 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.485056</v>
+        <v>-58.461167</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.555059</v>
+        <v>-34.561613</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -6042,27 +6042,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Moldes 2325</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6099,10 +6099,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.461167</v>
+        <v>-58.49147</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.561613</v>
+        <v>-34.55031</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -6118,27 +6118,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6151,11 +6151,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
         <v>1</v>
       </c>
@@ -6175,36 +6171,36 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.49147</v>
+        <v>-58.405761</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.55031</v>
+        <v>-34.582476</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6214,7 +6210,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6227,7 +6223,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
@@ -6247,14 +6247,14 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.405761</v>
+        <v>-58.432241</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.582476</v>
+        <v>-34.56642</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6266,7 +6266,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6323,10 +6323,10 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.432241</v>
+        <v>-58.417348</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.56642</v>
+        <v>-34.595467</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -6342,27 +6342,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6377,7 +6377,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6395,18 +6395,18 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.417348</v>
+        <v>-58.472311</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.595467</v>
+        <v>-34.654867</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6418,7 +6418,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6428,17 +6428,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6471,30 +6471,30 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.472311</v>
+        <v>-58.450113</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.654867</v>
+        <v>-34.574534</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6504,17 +6504,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6547,18 +6547,18 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.450113</v>
+        <v>-58.484729</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.574534</v>
+        <v>-34.574614</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6570,27 +6570,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6623,18 +6623,18 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.484729</v>
+        <v>-58.452636</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.574614</v>
+        <v>-34.558607</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6646,27 +6646,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6699,18 +6699,18 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.452636</v>
+        <v>-58.510247</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.558607</v>
+        <v>-34.645038</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6722,7 +6722,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6732,17 +6732,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>BEAUCHEF 421</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>808373658</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6775,50 +6775,50 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.510247</v>
+        <v>-58.433724</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.645038</v>
+        <v>-34.621643</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>-518</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BEAUCHEF 421</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808373658</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6855,46 +6855,46 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.433724</v>
+        <v>-58.483145</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.621643</v>
+        <v>-34.557043</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-518</t>
+          <t>6454</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/18/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>HABANA 3382</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808413466</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6931,14 +6931,14 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.483145</v>
+        <v>-58.505747</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.557043</v>
+        <v>-34.593173</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6950,7 +6950,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6454</t>
+          <t>6457</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6960,17 +6960,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HABANA 3382</t>
+          <t>BATLLE Y ORDOÑEZ, JOSE P.T. 4659</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808413466</t>
+          <t>808413477</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7007,46 +7007,46 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.505747</v>
+        <v>-58.464657</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.593173</v>
+        <v>-34.670556</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6457</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/18/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BATLLE Y ORDOÑEZ, JOSE P.T. 4659</t>
+          <t>Gregario Laferrere 6572</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808413477</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7082,47 +7082,43 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>-58.464657</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-34.670556</v>
-      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>No ubicado</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>No clasificado, consultar con mantenimiento</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>6472</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/24/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Gregario Laferrere 6572</t>
+          <t>DUMONT, SANTOS 3744</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808509381</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7137,7 +7133,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -7155,19 +7151,23 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>-58.448576</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-34.585794</v>
+      </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>No ubicado</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>No clasificado, consultar con mantenimiento</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5130,7 +5130,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>805707158</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5140,17 +5140,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Cañada de Gómez 4433</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805707158</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5187,14 +5187,14 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.387847</v>
+        <v>-58.479486</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.587043</v>
+        <v>-34.681953</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5206,27 +5206,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5263,26 +5263,26 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.46579</v>
+        <v>-58.387847</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.555012</v>
+        <v>-34.587043</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5339,14 +5339,14 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.451835</v>
+        <v>-58.46579</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.562646</v>
+        <v>-34.555012</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5358,7 +5358,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5368,17 +5368,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5411,18 +5411,18 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.488252</v>
+        <v>-58.451835</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.553391</v>
+        <v>-34.562646</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5434,7 +5434,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-406</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Olof palme 4144</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791925</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5469,7 +5469,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Tensar 2 riendas a pique columna 168</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.470837</v>
+        <v>-58.488252</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.545751</v>
+        <v>-34.553391</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5558,19 +5558,19 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.472267</v>
+        <v>-58.470837</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.551163</v>
+        <v>-34.545751</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5586,27 +5586,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5643,10 +5643,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.464144</v>
+        <v>-58.472267</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.541832</v>
+        <v>-34.551163</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5672,17 +5672,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5719,26 +5719,26 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.434761</v>
+        <v>-58.464144</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.598381</v>
+        <v>-34.541832</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5748,17 +5748,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5791,30 +5791,30 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.464177</v>
+        <v>-58.434761</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.558239</v>
+        <v>-34.598381</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5824,17 +5824,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5867,50 +5867,50 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.412302</v>
+        <v>-58.464177</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.59301</v>
+        <v>-34.558239</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5925,11 +5925,11 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5947,46 +5947,46 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.485056</v>
+        <v>-58.412302</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.555059</v>
+        <v>-34.59301</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Moldes 2325</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6023,10 +6023,10 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.461167</v>
+        <v>-58.485056</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.561613</v>
+        <v>-34.555059</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -6042,27 +6042,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6099,46 +6099,46 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.49147</v>
+        <v>-58.487144</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.55031</v>
+        <v>-34.669078</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>807044286</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Echeandía 5779</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807044286</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6151,7 +6151,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
@@ -6171,14 +6175,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.405761</v>
+        <v>-58.487136</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.582476</v>
+        <v>-34.667828</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6190,17 +6194,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>6496</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Moldes 2327</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6210,7 +6214,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6247,46 +6251,46 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.432241</v>
+        <v>-58.461172</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.56642</v>
+        <v>-34.561608</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6301,7 +6305,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6323,46 +6327,46 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.417348</v>
+        <v>-58.49147</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.595467</v>
+        <v>-34.55031</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6375,11 +6379,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Columna inclinada con base  corroida</t>
-        </is>
-      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
         <v>1</v>
       </c>
@@ -6395,18 +6395,18 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.472311</v>
+        <v>-58.405761</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.654867</v>
+        <v>-34.582476</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6418,27 +6418,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6475,46 +6475,46 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.450113</v>
+        <v>-58.432241</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.574534</v>
+        <v>-34.56642</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6547,50 +6547,50 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.484729</v>
+        <v>-58.417348</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.574614</v>
+        <v>-34.595467</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6623,50 +6623,50 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.452636</v>
+        <v>-58.472311</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.558607</v>
+        <v>-34.654867</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6699,18 +6699,18 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.510247</v>
+        <v>-58.450113</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.645038</v>
+        <v>-34.574534</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6722,27 +6722,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BEAUCHEF 421</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808373658</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6775,50 +6775,50 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.433724</v>
+        <v>-58.484729</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.621643</v>
+        <v>-34.574614</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-518</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6855,10 +6855,10 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.483145</v>
+        <v>-58.452636</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.557043</v>
+        <v>-34.558607</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -6874,27 +6874,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6454</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/18/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>HABANA 3382</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808413466</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6927,18 +6927,18 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.505747</v>
+        <v>-58.510247</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.593173</v>
+        <v>-34.645038</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6950,27 +6950,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6457</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/18/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>BATLLE Y ORDOÑEZ, JOSE P.T. 4659</t>
+          <t>BEAUCHEF 421</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808413477</t>
+          <t>808373658</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.464657</v>
+        <v>-58.433724</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.670556</v>
+        <v>-34.621643</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -7026,27 +7026,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>-518</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Gregario Laferrere 6572</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7082,43 +7082,47 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>-58.483145</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-34.557043</v>
+      </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>No ubicado</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>No clasificado, consultar con mantenimiento</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6472</t>
+          <t>6454</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7/24/2025</t>
+          <t>7/18/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DUMONT, SANTOS 3744</t>
+          <t>HABANA 3382</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>808509381</t>
+          <t>808413466</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7133,7 +7137,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -7151,21 +7155,245 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>-58.505747</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-34.593173</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>6457</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>7/18/2025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>BATLLE Y ORDOÑEZ, JOSE P.T. 4659</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>808413477</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Inclinada</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>-58.464657</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-34.670556</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>-521</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>7/21/2025</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Gregario Laferrere 6572</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>808430950</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>No clasificado, consultar con mantenimiento</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>6472</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>7/24/2025</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>DUMONT, SANTOS 3744</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>808509381</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Columna inclinada</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
           <t>Poste</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="M92" t="n">
         <v>-58.448576</v>
       </c>
-      <c r="N89" t="n">
+      <c r="N92" t="n">
         <v>-34.585794</v>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>Colegiales</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
+      <c r="P92" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6042,27 +6042,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6099,26 +6099,26 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.487144</v>
+        <v>-58.469783</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.669078</v>
+        <v>-34.599214</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>807044286</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Echeandía 5779</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807044286</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6175,10 +6175,10 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.487136</v>
+        <v>-58.487144</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.667828</v>
+        <v>-34.669078</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6496</t>
+          <t>807044286</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6204,17 +6204,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Moldes 2327</t>
+          <t>Echeandía 5779</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807044286</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6251,46 +6251,46 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.461172</v>
+        <v>-58.487136</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.561608</v>
+        <v>-34.667828</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>6496</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Moldes 2327</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6327,10 +6327,10 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.49147</v>
+        <v>-58.461172</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.55031</v>
+        <v>-34.561608</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -6346,27 +6346,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6379,7 +6379,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Inclinada</t>
+        </is>
+      </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
@@ -6399,36 +6403,36 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.405761</v>
+        <v>-58.49147</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.582476</v>
+        <v>-34.55031</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6438,7 +6442,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6451,11 +6455,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
         <v>1</v>
       </c>
@@ -6475,14 +6475,14 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.432241</v>
+        <v>-58.405761</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.56642</v>
+        <v>-34.582476</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6494,7 +6494,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6551,10 +6551,10 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.417348</v>
+        <v>-58.432241</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.595467</v>
+        <v>-34.56642</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -6570,27 +6570,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6623,18 +6623,18 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.472311</v>
+        <v>-58.417348</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.654867</v>
+        <v>-34.595467</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6646,7 +6646,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6656,17 +6656,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6699,30 +6699,30 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.450113</v>
+        <v>-58.472311</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.574534</v>
+        <v>-34.654867</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6732,17 +6732,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6775,18 +6775,18 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.484729</v>
+        <v>-58.450113</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.574614</v>
+        <v>-34.574534</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6798,27 +6798,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6851,18 +6851,18 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.452636</v>
+        <v>-58.484729</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.558607</v>
+        <v>-34.574614</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6874,27 +6874,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6927,18 +6927,18 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.510247</v>
+        <v>-58.452636</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.645038</v>
+        <v>-34.558607</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6950,7 +6950,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6960,17 +6960,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>BEAUCHEF 421</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808373658</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7003,50 +7003,50 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.433724</v>
+        <v>-58.510247</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.621643</v>
+        <v>-34.645038</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-518</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>BEAUCHEF 421</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808373658</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7083,46 +7083,46 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.483145</v>
+        <v>-58.433724</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.557043</v>
+        <v>-34.621643</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6454</t>
+          <t>-518</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7/18/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HABANA 3382</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>808413466</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -7159,14 +7159,14 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.505747</v>
+        <v>-58.483145</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.593173</v>
+        <v>-34.557043</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -7178,7 +7178,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>6457</t>
+          <t>6454</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -7188,17 +7188,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>BATLLE Y ORDOÑEZ, JOSE P.T. 4659</t>
+          <t>HABANA 3382</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>808413477</t>
+          <t>808413466</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7235,46 +7235,46 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.464657</v>
+        <v>-58.505747</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.670556</v>
+        <v>-34.593173</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>6457</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/18/2025</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Gregario Laferrere 6572</t>
+          <t>BATLLE Y ORDOÑEZ, JOSE P.T. 4659</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808413477</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -7297,7 +7297,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7310,43 +7310,47 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>-58.464657</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-34.670556</v>
+      </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>No ubicado</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>No clasificado, consultar con mantenimiento</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>6472</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7/24/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DUMONT, SANTOS 3744</t>
+          <t>Gregario Laferrere 6572</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>808509381</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -7361,7 +7365,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -7379,21 +7383,93 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>No clasificado, consultar con mantenimiento</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>6472</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>7/24/2025</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>DUMONT, SANTOS 3744</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>808509381</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Columna inclinada</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
           <t>Poste</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="M93" t="n">
         <v>-58.448576</v>
       </c>
-      <c r="N92" t="n">
+      <c r="N93" t="n">
         <v>-34.585794</v>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>Colegiales</t>
         </is>
       </c>
-      <c r="P92" t="inlineStr">
+      <c r="P93" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7475,6 +7475,82 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>6497</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>7/25/2025</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>808533127</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Inclinada</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>-58.422229</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-34.573148</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7551,6 +7551,78 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>-536</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>7/29/2025</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Olof palme 4142</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Aplomar o desmontar poste</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>-58.488239</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-34.55341</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1798,17 +1798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-213</t>
+          <t>-216</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>5/2/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2452</t>
+          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799451003</t>
+          <t>784655947</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1831,7 +1831,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
@@ -1851,14 +1855,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.416896</v>
+        <v>-58.404652</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.585625</v>
+        <v>-34.58263</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1870,27 +1874,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-214</t>
+          <t>-219</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2394</t>
+          <t>LA PAMPA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>799450985</t>
+          <t>798953875</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1903,7 +1907,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
+        </is>
+      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -1923,46 +1931,46 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.417746</v>
+        <v>-58.458282</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.586158</v>
+        <v>-34.56718</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-216</t>
+          <t>-226</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5/2/2024</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
+          <t>CUBA /ALT/ 2308</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>784655947</t>
+          <t>800502281</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1999,46 +2007,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.404652</v>
+        <v>-58.456674</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.58263</v>
+        <v>-34.558757</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-219</t>
+          <t>-228</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LA PAMPA /ALT/ 2836</t>
+          <t>ALVAREZ JULIAN /ALT/ 1272</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>798953875</t>
+          <t>800645527</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2053,7 +2061,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2075,46 +2083,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.458282</v>
+        <v>-58.426725</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.56718</v>
+        <v>-34.5945</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-226</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUBA /ALT/ 2308</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>800502281</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2127,13 +2135,9 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2142,7 +2146,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2151,14 +2155,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.456674</v>
+        <v>-58.457158</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.558757</v>
+        <v>-34.605839</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2170,27 +2174,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-228</t>
+          <t>-263</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>11/22/2024</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN /ALT/ 1272</t>
+          <t>Fraga 93</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>800645527</t>
+          <t>802848838</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2205,11 +2209,11 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2223,50 +2227,50 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.426725</v>
+        <v>-58.446721</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.5945</v>
+        <v>-34.587175</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-254</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1/7/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
+          <t>DEL PINO VIRREY /ALT/ 2646</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>802367713</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2279,9 +2283,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Columna 114 quebrada en base dar prioridad.</t>
+        </is>
+      </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2290,7 +2298,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2299,14 +2307,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.457158</v>
+        <v>-58.45524</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.605839</v>
+        <v>-34.567858</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2318,27 +2326,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-263</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fraga 93</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>802848838</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2353,11 +2361,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2366,55 +2374,55 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.446721</v>
+        <v>-58.391153</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.587175</v>
+        <v>-34.624022</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DEL PINO VIRREY /ALT/ 2646</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2429,7 +2437,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Columna 114 quebrada en base dar prioridad.</t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2442,7 +2450,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2451,46 +2459,46 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.45524</v>
+        <v>-58.423405</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.567858</v>
+        <v>-34.588075</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2505,11 +2513,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2518,23 +2526,23 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.391153</v>
+        <v>-58.42486</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.624022</v>
+        <v>-34.577318</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2546,27 +2554,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SOLER /ALT/ 4517</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>803651203</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2581,11 +2589,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>columna de 114 con nodo y redes nuestra.</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2594,7 +2602,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2603,46 +2611,46 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.423405</v>
+        <v>-58.491074</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.588075</v>
+        <v>-34.575623</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2657,7 +2665,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2665,7 +2673,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2675,50 +2683,50 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.42486</v>
+        <v>-58.525125</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.577318</v>
+        <v>-34.604668</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-316</t>
+          <t>-336</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/3/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ALBERTI /ALT/ 621</t>
+          <t>BAUNESS /ALT/ 1419</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804468365</t>
+          <t>804838856</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2733,7 +2741,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2755,46 +2763,46 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.401202</v>
+        <v>-58.479168</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.61683</v>
+        <v>-34.584482</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2809,7 +2817,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2822,7 +2830,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2831,46 +2839,46 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.491074</v>
+        <v>-58.421964</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.575623</v>
+        <v>-34.586342</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2885,7 +2893,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2907,14 +2915,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.525125</v>
+        <v>-58.498493</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.604668</v>
+        <v>-34.581262</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2926,7 +2934,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-336</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2936,17 +2944,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1419</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804838856</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2961,7 +2969,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2983,14 +2991,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.479168</v>
+        <v>-58.460666</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.584482</v>
+        <v>-34.573823</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3002,27 +3010,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3037,11 +3045,11 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3059,46 +3067,46 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.421964</v>
+        <v>-58.502447</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.586342</v>
+        <v>-34.561008</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3113,11 +3121,11 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3135,10 +3143,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.498493</v>
+        <v>-58.483947</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.581262</v>
+        <v>-34.583207</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3154,27 +3162,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3189,11 +3197,11 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3207,18 +3215,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.460666</v>
+        <v>-58.503673</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.573823</v>
+        <v>-34.586925</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3230,7 +3238,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3240,17 +3248,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3265,7 +3273,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3287,14 +3295,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.502447</v>
+        <v>-58.511462</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.561008</v>
+        <v>-34.640542</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3306,7 +3314,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3316,17 +3324,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3341,7 +3349,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3363,10 +3371,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.483947</v>
+        <v>-58.504455</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.583207</v>
+        <v>-34.579941</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3382,7 +3390,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3392,7 +3400,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3402,7 +3410,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3417,7 +3425,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3425,24 +3433,24 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.503673</v>
+        <v>-58.504568</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.586925</v>
+        <v>-34.590534</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3458,7 +3466,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3468,17 +3476,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3493,7 +3501,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3501,7 +3509,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3515,14 +3523,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.511462</v>
+        <v>-58.503195</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.640542</v>
+        <v>-34.581735</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3534,7 +3542,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-363</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3544,17 +3552,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>OSLO /ALT/ 1255</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839962</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3569,7 +3577,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3577,7 +3585,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3591,10 +3599,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.504455</v>
+        <v>-58.481767</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.579941</v>
+        <v>-34.589507</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3610,7 +3618,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3620,7 +3628,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3630,7 +3638,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3645,7 +3653,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3658,7 +3666,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3667,14 +3675,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.504568</v>
+        <v>-58.493164</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.590534</v>
+        <v>-34.55732</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3686,7 +3694,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3696,7 +3704,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3706,7 +3714,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3721,7 +3729,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3729,7 +3737,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3743,10 +3751,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.503195</v>
+        <v>-58.491934</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.581735</v>
+        <v>-34.569348</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3762,7 +3770,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-363</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3772,17 +3780,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>OSLO /ALT/ 1255</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804839962</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3797,7 +3805,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3805,7 +3813,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3819,10 +3827,10 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.481767</v>
+        <v>-58.501418</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.589507</v>
+        <v>-34.574363</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3838,7 +3846,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3848,7 +3856,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3858,7 +3866,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3873,7 +3881,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3895,10 +3903,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.493164</v>
+        <v>-58.494584</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.55732</v>
+        <v>-34.554981</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3914,27 +3922,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3949,15 +3957,15 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3967,18 +3975,18 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.491934</v>
+        <v>-58.465608</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.569348</v>
+        <v>-34.538489</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3990,27 +3998,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4025,15 +4033,15 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4047,10 +4055,10 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.501418</v>
+        <v>-58.436788</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.574363</v>
+        <v>-34.604014</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4066,27 +4074,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4101,11 +4109,11 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4123,46 +4131,46 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.494584</v>
+        <v>-58.439461</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.554981</v>
+        <v>-34.605744</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4177,7 +4185,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4185,7 +4193,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4195,30 +4203,30 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.465608</v>
+        <v>-58.418424</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.538489</v>
+        <v>-34.604463</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-377</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4228,17 +4236,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>HUMAHUACA /ALT/ 3918</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4253,7 +4261,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4275,46 +4283,46 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.436788</v>
+        <v>-58.419694</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.604014</v>
+        <v>-34.602062</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4329,7 +4337,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4351,46 +4359,46 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.439461</v>
+        <v>-58.481834</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.605744</v>
+        <v>-34.560796</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4405,7 +4413,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4413,7 +4421,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4427,46 +4435,46 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.412418</v>
+        <v>-58.473936</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.629288</v>
+        <v>-34.577346</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4481,7 +4489,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4489,7 +4497,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4503,46 +4511,46 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.418424</v>
+        <v>-58.45789</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.604463</v>
+        <v>-34.565423</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-377</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HUMAHUACA /ALT/ 3918</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4557,7 +4565,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4565,12 +4573,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4579,36 +4587,36 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.419694</v>
+        <v>-58.458217</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.602062</v>
+        <v>-34.565043</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4618,7 +4626,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4633,7 +4641,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4641,7 +4649,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4655,14 +4663,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.481834</v>
+        <v>-58.49045</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.560796</v>
+        <v>-34.566894</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4674,27 +4682,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-392</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>GARCIA TEODORO /ALT/ 1775</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805676615</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4709,7 +4717,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4717,7 +4725,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4731,10 +4739,10 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.473936</v>
+        <v>-58.440367</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.577346</v>
+        <v>-34.563551</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -4750,27 +4758,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-393</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805676618</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4785,7 +4793,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4793,7 +4801,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4807,10 +4815,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.45789</v>
+        <v>-58.445186</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.565423</v>
+        <v>-34.567417</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4826,27 +4834,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4861,7 +4869,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4869,12 +4877,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4883,46 +4891,46 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.458217</v>
+        <v>-58.387847</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.565043</v>
+        <v>-34.587043</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4937,7 +4945,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4945,7 +4953,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4959,14 +4967,14 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.49045</v>
+        <v>-58.46579</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.566894</v>
+        <v>-34.555012</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4978,27 +4986,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 1775</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>805676615</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5013,7 +5021,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5035,10 +5043,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.440367</v>
+        <v>-58.451835</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.563551</v>
+        <v>-34.562646</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5054,27 +5062,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-406</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>Olof palme 4144</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>805791925</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5089,7 +5097,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Tensar 2 riendas a pique columna 168</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5097,7 +5105,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5107,18 +5115,18 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.445186</v>
+        <v>-58.488252</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.567417</v>
+        <v>-34.553391</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5130,27 +5138,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>805707158</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Cañada de Gómez 4433</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>805707158</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5165,7 +5173,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5173,7 +5181,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5183,50 +5191,50 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.479486</v>
+        <v>-58.470837</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.681953</v>
+        <v>-34.545751</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5241,7 +5249,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5249,12 +5257,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5263,36 +5271,36 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.387847</v>
+        <v>-58.472267</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.587043</v>
+        <v>-34.551163</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5302,7 +5310,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5317,7 +5325,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5325,7 +5333,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5339,10 +5347,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.46579</v>
+        <v>-58.464144</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.555012</v>
+        <v>-34.541832</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5358,27 +5366,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5393,7 +5401,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5415,46 +5423,46 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.451835</v>
+        <v>-58.434761</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.562646</v>
+        <v>-34.598381</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5469,7 +5477,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5477,7 +5485,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5487,14 +5495,14 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.488252</v>
+        <v>-58.464177</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.553391</v>
+        <v>-34.558239</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5510,27 +5518,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5545,7 +5553,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5553,7 +5561,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5563,40 +5571,40 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.470837</v>
+        <v>-58.412302</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.545751</v>
+        <v>-34.59301</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5606,7 +5614,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5621,20 +5629,20 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5643,10 +5651,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.472267</v>
+        <v>-58.485056</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.551163</v>
+        <v>-34.555059</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5662,27 +5670,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5697,7 +5705,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5705,7 +5713,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5719,14 +5727,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.464144</v>
+        <v>-58.469783</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.541832</v>
+        <v>-34.599214</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5738,27 +5746,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5773,7 +5781,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5781,7 +5789,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5791,18 +5799,18 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.434761</v>
+        <v>-58.487144</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.598381</v>
+        <v>-34.669078</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5814,27 +5822,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>6496</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Moldes 2327</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5849,7 +5857,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5867,14 +5875,14 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.464177</v>
+        <v>-58.461172</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.558239</v>
+        <v>-34.561608</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5890,27 +5898,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5925,7 +5933,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5947,46 +5955,46 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.412302</v>
+        <v>-58.49147</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.59301</v>
+        <v>-34.55031</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5999,13 +6007,9 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Columna de retención (columna más ancha</t>
-        </is>
-      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6023,46 +6027,46 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.485056</v>
+        <v>-58.405761</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.555059</v>
+        <v>-34.582476</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6077,7 +6081,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6085,7 +6089,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6099,46 +6103,46 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.469783</v>
+        <v>-58.432241</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.599214</v>
+        <v>-34.56642</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6153,7 +6157,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6175,14 +6179,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.487144</v>
+        <v>-58.417348</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.669078</v>
+        <v>-34.595467</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6194,27 +6198,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>807044286</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Echeandía 5779</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807044286</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6229,7 +6233,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6247,14 +6251,14 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.487136</v>
+        <v>-58.472311</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.667828</v>
+        <v>-34.654867</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -6270,27 +6274,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6496</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Moldes 2327</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6327,14 +6331,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.461172</v>
+        <v>-58.450113</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.561608</v>
+        <v>-34.574534</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6346,17 +6350,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -6366,7 +6370,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6381,7 +6385,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6399,18 +6403,18 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.49147</v>
+        <v>-58.484729</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.55031</v>
+        <v>-34.574614</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6422,27 +6426,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6455,7 +6459,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Columna 114 propia picada en base con NAP</t>
+        </is>
+      </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
@@ -6475,46 +6483,46 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.405761</v>
+        <v>-58.452636</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.582476</v>
+        <v>-34.558607</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6529,7 +6537,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6537,7 +6545,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6547,50 +6555,50 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.432241</v>
+        <v>-58.510247</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.56642</v>
+        <v>-34.645038</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>BEAUCHEF 421</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>808373658</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6605,7 +6613,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6627,14 +6635,14 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.417348</v>
+        <v>-58.433724</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.595467</v>
+        <v>-34.621643</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6646,27 +6654,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-518</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6681,7 +6689,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6699,50 +6707,50 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.472311</v>
+        <v>-58.483145</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.654867</v>
+        <v>-34.557043</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>6454</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/18/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>HABANA 3382</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>808413466</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6779,14 +6787,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.450113</v>
+        <v>-58.505747</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.574534</v>
+        <v>-34.593173</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6798,27 +6806,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6833,7 +6841,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6851,18 +6859,18 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.484729</v>
+        <v>-58.496608</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.574614</v>
+        <v>-34.666371</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6874,27 +6882,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>6472</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/24/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>DUMONT, SANTOS 3744</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>808509381</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6909,7 +6917,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6927,18 +6935,18 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.452636</v>
+        <v>-58.448576</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.558607</v>
+        <v>-34.585794</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6950,27 +6958,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6985,7 +6993,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7003,50 +7011,50 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.510247</v>
+        <v>-58.422229</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.645038</v>
+        <v>-34.573148</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>-536</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/29/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BEAUCHEF 421</t>
+          <t>Olof palme 4142</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808373658</t>
+          <t xml:space="preserve">ICD30249764 </t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7061,7 +7069,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o desmontar poste</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7069,7 +7077,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7079,545 +7087,21 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.433724</v>
+        <v>-58.488239</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.621643</v>
+        <v>-34.55341</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>-518</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>7/16/2025</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Crisologo Larralde 4073</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>808373627</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Cambiar columna corroída en base</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>-58.483145</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-34.557043</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>6454</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>7/18/2025</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>HABANA 3382</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>808413466</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>-58.505747</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-34.593173</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>6457</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>7/18/2025</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>BATLLE Y ORDOÑEZ, JOSE P.T. 4659</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>808413477</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>-58.464657</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-34.670556</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>-521</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>7/21/2025</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Gregario Laferrere 6572</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>808430950</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>No ubicado</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>No clasificado, consultar con mantenimiento</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>6472</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>7/24/2025</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>DUMONT, SANTOS 3744</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>808509381</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Columna inclinada</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>-58.448576</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-34.585794</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Colegiales</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>6497</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>7/25/2025</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>808533127</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>-58.422229</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-34.573148</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>-536</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>7/29/2025</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Olof palme 4142</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Aplomar o desmontar poste</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>-58.488239</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-34.55341</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -5764,11 +5764,7 @@
           <t>8</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>807044233</t>
-        </is>
-      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
           <t>AYKO</t>
@@ -5781,7 +5777,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
         </is>
       </c>
       <c r="I71" t="n">

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -5764,7 +5764,11 @@
           <t>8</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ICD30261461 </t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>AYKO</t>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5062,7 +5062,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5119,10 +5119,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.488252</v>
+        <v>-58.470837</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.553391</v>
+        <v>-34.545751</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5186,19 +5186,19 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.470837</v>
+        <v>-58.472267</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.545751</v>
+        <v>-34.551163</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5214,27 +5214,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5257,12 +5257,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5271,10 +5271,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.472267</v>
+        <v>-58.464144</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.551163</v>
+        <v>-34.541832</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5300,17 +5300,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5347,26 +5347,26 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.464144</v>
+        <v>-58.434761</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.541832</v>
+        <v>-34.598381</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5376,17 +5376,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5419,30 +5419,30 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.434761</v>
+        <v>-58.464177</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.598381</v>
+        <v>-34.558239</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5452,17 +5452,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5495,50 +5495,50 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.464177</v>
+        <v>-58.412302</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.558239</v>
+        <v>-34.59301</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5553,11 +5553,11 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5575,46 +5575,46 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.412302</v>
+        <v>-58.485056</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.59301</v>
+        <v>-34.555059</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5629,15 +5629,15 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5651,14 +5651,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.485056</v>
+        <v>-58.469783</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.555059</v>
+        <v>-34.599214</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5670,27 +5670,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t xml:space="preserve">ICD30261461 </t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5723,30 +5723,30 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.469783</v>
+        <v>-58.487144</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.599214</v>
+        <v>-34.669078</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>6496</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5756,17 +5756,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Moldes 2327</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30261461 </t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5799,50 +5799,50 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.487144</v>
+        <v>-58.461172</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.669078</v>
+        <v>-34.561608</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6496</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Moldes 2327</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5879,10 +5879,10 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.461172</v>
+        <v>-58.49147</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.561608</v>
+        <v>-34.55031</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5898,27 +5898,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5931,11 +5931,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
         <v>1</v>
       </c>
@@ -5955,36 +5951,36 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.49147</v>
+        <v>-58.405761</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.55031</v>
+        <v>-34.582476</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5994,7 +5990,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6007,7 +6003,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
@@ -6027,14 +6027,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.405761</v>
+        <v>-58.432241</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.582476</v>
+        <v>-34.56642</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6046,7 +6046,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.432241</v>
+        <v>-58.417348</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.56642</v>
+        <v>-34.595467</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -6122,27 +6122,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6175,18 +6175,18 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.417348</v>
+        <v>-58.472311</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.595467</v>
+        <v>-34.654867</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6198,7 +6198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6208,17 +6208,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6251,30 +6251,30 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.472311</v>
+        <v>-58.450113</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.654867</v>
+        <v>-34.574534</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6284,17 +6284,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6327,18 +6327,18 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.450113</v>
+        <v>-58.484729</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.574534</v>
+        <v>-34.574614</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6350,27 +6350,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6403,18 +6403,18 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.484729</v>
+        <v>-58.452636</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.574614</v>
+        <v>-34.558607</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6426,27 +6426,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6479,18 +6479,18 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.452636</v>
+        <v>-58.510247</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.558607</v>
+        <v>-34.645038</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6502,7 +6502,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6512,17 +6512,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>BEAUCHEF 421</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>808373658</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6555,50 +6555,50 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.510247</v>
+        <v>-58.433724</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.645038</v>
+        <v>-34.621643</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>-518</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BEAUCHEF 421</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808373658</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6635,46 +6635,46 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.433724</v>
+        <v>-58.483145</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.621643</v>
+        <v>-34.557043</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-518</t>
+          <t>6454</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/18/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>HABANA 3382</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808413466</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6711,14 +6711,14 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.483145</v>
+        <v>-58.505747</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.557043</v>
+        <v>-34.593173</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6730,27 +6730,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6454</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/18/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HABANA 3382</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808413466</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6787,14 +6787,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.505747</v>
+        <v>-58.496608</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.593173</v>
+        <v>-34.666371</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6806,27 +6806,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>6472</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/24/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>DUMONT, SANTOS 3744</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808509381</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6859,18 +6859,18 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.496608</v>
+        <v>-58.448576</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.666371</v>
+        <v>-34.585794</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6882,27 +6882,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6472</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/24/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DUMONT, SANTOS 3744</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808509381</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6935,175 +6935,23 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.448576</v>
+        <v>-58.422229</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.585794</v>
+        <v>-34.573148</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>6497</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>7/25/2025</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>808533127</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>-58.422229</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-34.573148</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
           <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>-536</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>7/29/2025</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Olof palme 4142</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ICD30249764 </t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Aplomar o desmontar poste</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>-58.488239</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-34.55341</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,17 +894,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1/25/2024</t>
+          <t>2/21/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GUATEMALA /ALT/ 5933</t>
+          <t>VEGA CNEL NICETO /ALT/ 4984</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>778787388</t>
+          <t>780352873</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada en su base para remplazar ubicada en GUATEMALA 5933 </t>
+          <t>Recambio de columna</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.435356</v>
+        <v>-58.433253</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.577571</v>
+        <v>-34.591026</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -970,17 +970,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-103</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2/21/2024</t>
+          <t>6/12/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>VEGA CNEL NICETO /ALT/ 4984</t>
+          <t>SALGUERO JERONIMO /ALT/ 2533</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>780352873</t>
+          <t>788206681</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Recambio de columna</t>
+          <t>Altura correcta 2549</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.433253</v>
+        <v>-58.409971</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.591026</v>
+        <v>-34.58175</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1046,27 +1046,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-118</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2/26/2024</t>
+          <t>8/15/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DORREGO ,AV. /ALT/ 2622</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>780713073</t>
+          <t>793333193</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1081,11 +1081,11 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Recambio de columna</t>
+          <t>Retirar columna vieja, nodo ya traspasado</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1103,46 +1103,46 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.434217</v>
+        <v>-58.445523</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.574247</v>
+        <v>-34.558237</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-103</t>
+          <t>-143</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6/12/2024</t>
+          <t>10/7/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SALGUERO JERONIMO /ALT/ 2533</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>788206681</t>
+          <t>797752816</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1155,11 +1155,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Altura correcta 2549</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>0</v>
       </c>
@@ -1170,7 +1166,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1179,46 +1175,46 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.409971</v>
+        <v>-58.458864</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.58175</v>
+        <v>-34.561167</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-118</t>
+          <t>-152</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8/15/2024</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
+          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>793333193</t>
+          <t>798984311</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1233,7 +1229,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Retirar columna vieja, nodo ya traspasado</t>
+          <t>El poste esta pegado al arbol ver la foto adjunta</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1246,23 +1242,23 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.445523</v>
+        <v>-58.513363</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.558237</v>
+        <v>-34.605473</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1274,27 +1270,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-143</t>
+          <t>-160</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10/7/2024</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
+          <t>MORAN PEDRO /ALT/ 3100</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>797752816</t>
+          <t>798984905</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1318,23 +1314,23 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.458864</v>
+        <v>-58.498724</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.561167</v>
+        <v>-34.594329</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1346,27 +1342,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-152</t>
+          <t>-193</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
+          <t>WASHINGTON /ALT/ 3251</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>798984311</t>
+          <t>799539971</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1381,7 +1377,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>El poste esta pegado al arbol ver la foto adjunta</t>
+          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1399,18 +1395,18 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.513363</v>
+        <v>-58.478272</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.605473</v>
+        <v>-34.558899</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1422,27 +1418,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-160</t>
+          <t>-201</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MORAN PEDRO /ALT/ 3100</t>
+          <t>MIGUELETES /ALT/ 1007</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>798984905</t>
+          <t>799540497</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1455,7 +1451,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
+        </is>
+      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
@@ -1471,30 +1471,30 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.498724</v>
+        <v>-58.436377</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.594329</v>
+        <v>-34.565075</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-193</t>
+          <t>-202</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1504,17 +1504,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>WASHINGTON /ALT/ 3251</t>
+          <t>MIGUELETES /ALT/ 1030</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>799539971</t>
+          <t>799540503</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
+          <t>Recambio de columna - alt correcta 1010</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1547,40 +1547,40 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.478272</v>
+        <v>-58.436601</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.558899</v>
+        <v>-34.565035</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-201</t>
+          <t>-216</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>5/2/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1007</t>
+          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>799540497</t>
+          <t>784655947</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1623,18 +1623,18 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.436377</v>
+        <v>-58.404652</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.565075</v>
+        <v>-34.58263</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1646,27 +1646,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-202</t>
+          <t>-219</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1030</t>
+          <t>LA PAMPA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>799540503</t>
+          <t>798953875</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Recambio de columna - alt correcta 1010</t>
+          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1699,50 +1699,50 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.436601</v>
+        <v>-58.458282</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.565035</v>
+        <v>-34.56718</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-203</t>
+          <t>-226</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NEWBERY JORGE /ALT/ 2644</t>
+          <t>CUBA /ALT/ 2308</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799540511</t>
+          <t>800502281</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Recambio de columna</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1779,36 +1779,36 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.442706</v>
+        <v>-58.456674</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.574158</v>
+        <v>-34.558757</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-216</t>
+          <t>-228</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5/2/2024</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
+          <t>ALVAREZ JULIAN /ALT/ 1272</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>784655947</t>
+          <t>800645527</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.404652</v>
+        <v>-58.426725</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.58263</v>
+        <v>-34.5945</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1874,27 +1874,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-219</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LA PAMPA /ALT/ 2836</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>798953875</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1907,13 +1907,9 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1922,7 +1918,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1931,14 +1927,14 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.458282</v>
+        <v>-58.457158</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.56718</v>
+        <v>-34.605839</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1950,27 +1946,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-226</t>
+          <t>-263</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUBA /ALT/ 2308</t>
+          <t>Fraga 93</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>800502281</t>
+          <t>802848838</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1985,11 +1981,11 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2003,18 +1999,18 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.456674</v>
+        <v>-58.446721</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.558757</v>
+        <v>-34.587175</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2026,27 +2022,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-228</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11/22/2024</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN /ALT/ 1272</t>
+          <t>DEL PINO VIRREY /ALT/ 2646</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>800645527</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2061,7 +2057,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna 114 quebrada en base dar prioridad.</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2083,46 +2079,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.426725</v>
+        <v>-58.45524</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.5945</v>
+        <v>-34.567858</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-254</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/7/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>802367713</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2135,9 +2131,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>SIN RIEGO</t>
+        </is>
+      </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2155,46 +2155,46 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.457158</v>
+        <v>-58.391153</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.605839</v>
+        <v>-34.624022</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-263</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fraga 93</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802848838</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2209,11 +2209,11 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2222,55 +2222,55 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.446721</v>
+        <v>-58.423405</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.587175</v>
+        <v>-34.588075</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DEL PINO VIRREY /ALT/ 2646</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Columna 114 quebrada en base dar prioridad.</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2303,50 +2303,50 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.45524</v>
+        <v>-58.42486</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.567858</v>
+        <v>-34.577318</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2361,11 +2361,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2383,46 +2383,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.391153</v>
+        <v>-58.491074</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.624022</v>
+        <v>-34.575623</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SOLER /ALT/ 4517</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803651203</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2437,20 +2437,20 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>columna de 114 con nodo y redes nuestra.</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2459,36 +2459,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.423405</v>
+        <v>-58.525125</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.588075</v>
+        <v>-34.604668</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2531,14 +2531,14 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.42486</v>
+        <v>-58.421964</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.577318</v>
+        <v>-34.586342</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2554,17 +2554,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.491074</v>
+        <v>-58.498493</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.575623</v>
+        <v>-34.581262</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2630,27 +2630,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2687,14 +2687,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.525125</v>
+        <v>-58.460666</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.604668</v>
+        <v>-34.573823</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2706,27 +2706,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-336</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1419</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804838856</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2741,11 +2741,11 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2763,10 +2763,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.479168</v>
+        <v>-58.502447</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.584482</v>
+        <v>-34.561008</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2782,27 +2782,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2817,15 +2817,15 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2839,36 +2839,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.421964</v>
+        <v>-58.483947</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.586342</v>
+        <v>-34.583207</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2893,15 +2893,15 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2911,14 +2911,14 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.498493</v>
+        <v>-58.503673</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.581262</v>
+        <v>-34.586925</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2934,27 +2934,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2969,15 +2969,15 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2991,14 +2991,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.460666</v>
+        <v>-58.504455</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.573823</v>
+        <v>-34.579941</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3010,7 +3010,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.502447</v>
+        <v>-58.504568</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.561008</v>
+        <v>-34.590534</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3096,17 +3096,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.483947</v>
+        <v>-58.503195</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.583207</v>
+        <v>-34.581735</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3215,18 +3215,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.503673</v>
+        <v>-58.493164</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.586925</v>
+        <v>-34.55732</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3238,7 +3238,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3248,17 +3248,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3295,14 +3295,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.511462</v>
+        <v>-58.491934</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.640542</v>
+        <v>-34.569348</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3314,7 +3314,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.504455</v>
+        <v>-58.501418</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.579941</v>
+        <v>-34.574363</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3447,14 +3447,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.504568</v>
+        <v>-58.494584</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.590534</v>
+        <v>-34.554981</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3466,27 +3466,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3501,11 +3501,11 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3519,18 +3519,18 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.503195</v>
+        <v>-58.465608</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.581735</v>
+        <v>-34.538489</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3542,17 +3542,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-363</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>OSLO /ALT/ 1255</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804839962</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3577,11 +3577,11 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.481767</v>
+        <v>-58.436788</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.589507</v>
+        <v>-34.604014</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3618,27 +3618,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3653,11 +3653,11 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3675,46 +3675,46 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.493164</v>
+        <v>-58.439461</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.55732</v>
+        <v>-34.605744</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3729,11 +3729,11 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3751,46 +3751,46 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.491934</v>
+        <v>-58.418424</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.569348</v>
+        <v>-34.604463</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-377</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>HUMAHUACA /ALT/ 3918</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3805,15 +3805,15 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3827,36 +3827,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.501418</v>
+        <v>-58.419694</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.574363</v>
+        <v>-34.602062</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3881,11 +3881,11 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.494584</v>
+        <v>-58.481834</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.554981</v>
+        <v>-34.560796</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3922,27 +3922,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3975,18 +3975,18 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.465608</v>
+        <v>-58.473936</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.538489</v>
+        <v>-34.577346</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3998,27 +3998,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4055,14 +4055,14 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.436788</v>
+        <v>-58.45789</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.604014</v>
+        <v>-34.565423</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4074,27 +4074,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4131,46 +4131,46 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.439461</v>
+        <v>-58.458217</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.605744</v>
+        <v>-34.565043</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-392</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>GARCIA TEODORO /ALT/ 1775</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>805676615</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4207,46 +4207,46 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.418424</v>
+        <v>-58.440367</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.604463</v>
+        <v>-34.563551</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-377</t>
+          <t>-393</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HUMAHUACA /ALT/ 3918</t>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805676618</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4283,46 +4283,46 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.419694</v>
+        <v>-58.445186</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.602062</v>
+        <v>-34.567417</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4359,46 +4359,46 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.481834</v>
+        <v>-58.387847</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.560796</v>
+        <v>-34.587043</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4435,14 +4435,14 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.473936</v>
+        <v>-58.46579</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.577346</v>
+        <v>-34.555012</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4454,17 +4454,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4511,10 +4511,10 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.45789</v>
+        <v>-58.451835</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.565423</v>
+        <v>-34.562646</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -4530,27 +4530,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4578,23 +4578,23 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.458217</v>
+        <v>-58.470837</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.565043</v>
+        <v>-34.545751</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4606,17 +4606,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4663,14 +4663,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.49045</v>
+        <v>-58.472267</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.566894</v>
+        <v>-34.551163</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4682,27 +4682,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 1775</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>805676615</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4739,14 +4739,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.440367</v>
+        <v>-58.464144</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.563551</v>
+        <v>-34.541832</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4758,27 +4758,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4815,46 +4815,46 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.445186</v>
+        <v>-58.434761</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.567417</v>
+        <v>-34.598381</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4887,50 +4887,50 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.387847</v>
+        <v>-58.464177</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.587043</v>
+        <v>-34.558239</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4967,46 +4967,46 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.46579</v>
+        <v>-58.412302</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.555012</v>
+        <v>-34.59301</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5021,11 +5021,11 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5043,14 +5043,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.451835</v>
+        <v>-58.485056</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.562646</v>
+        <v>-34.555059</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5062,27 +5062,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5115,18 +5115,18 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.470837</v>
+        <v>-58.469783</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.545751</v>
+        <v>-34.599214</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5138,27 +5138,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t xml:space="preserve">ICD30261461 </t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5181,60 +5181,60 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.472267</v>
+        <v>-58.487144</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.551163</v>
+        <v>-34.669078</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>6496</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Moldes 2327</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5271,10 +5271,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.464144</v>
+        <v>-58.461172</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.541832</v>
+        <v>-34.561608</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5290,27 +5290,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5347,46 +5347,46 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.434761</v>
+        <v>-58.49147</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.598381</v>
+        <v>-34.55031</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5399,11 +5399,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
-        </is>
-      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
         <v>1</v>
       </c>
@@ -5419,50 +5415,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.464177</v>
+        <v>-58.405761</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.558239</v>
+        <v>-34.582476</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5477,7 +5473,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5499,14 +5495,14 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.412302</v>
+        <v>-58.432241</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.59301</v>
+        <v>-34.56642</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5518,27 +5514,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5553,11 +5549,11 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5575,46 +5571,46 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.485056</v>
+        <v>-58.417348</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.555059</v>
+        <v>-34.595467</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5629,7 +5625,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5637,7 +5633,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5647,50 +5643,50 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.469783</v>
+        <v>-58.472311</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.599214</v>
+        <v>-34.654867</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30261461 </t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5705,7 +5701,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5713,7 +5709,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5723,50 +5719,50 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.487144</v>
+        <v>-58.450113</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.669078</v>
+        <v>-34.574534</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6496</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Moldes 2327</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5781,7 +5777,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5799,18 +5795,18 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.461172</v>
+        <v>-58.484729</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.561608</v>
+        <v>-34.574614</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5822,27 +5818,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5857,7 +5853,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5879,10 +5875,10 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.49147</v>
+        <v>-58.452636</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.55031</v>
+        <v>-34.558607</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5898,27 +5894,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5931,13 +5927,17 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Poste inclinado</t>
+        </is>
+      </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5947,50 +5947,50 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.405761</v>
+        <v>-58.510247</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.582476</v>
+        <v>-34.645038</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>BEAUCHEF 421</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>808373658</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6027,14 +6027,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.432241</v>
+        <v>-58.433724</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.56642</v>
+        <v>-34.621643</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6046,27 +6046,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>-518</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6103,36 +6103,36 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.417348</v>
+        <v>-58.483145</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.595467</v>
+        <v>-34.557043</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6175,50 +6175,50 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.472311</v>
+        <v>-58.496608</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.654867</v>
+        <v>-34.666371</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>6472</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/24/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>DUMONT, SANTOS 3744</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>808509381</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6251,14 +6251,14 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.450113</v>
+        <v>-58.448576</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.574534</v>
+        <v>-34.585794</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -6274,27 +6274,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6327,629 +6327,21 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.484729</v>
+        <v>-58.422229</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.574614</v>
+        <v>-34.573148</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>-491</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>3 de Febrero 2171</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>807789702</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Columna 114 propia picada en base con NAP</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>-58.452636</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-34.558607</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>6398</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>7/15/2025</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>LARRAZABAL AV. 579</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>808373655</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>-58.510247</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-34.645038</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>6410</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>7/15/2025</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>BEAUCHEF 421</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>808373658</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>-58.433724</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-34.621643</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>-518</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>7/16/2025</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Crisologo Larralde 4073</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>808373627</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Cambiar columna corroída en base</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>-58.483145</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-34.557043</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>6454</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>7/18/2025</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>HABANA 3382</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>808413466</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>-58.505747</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-34.593173</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>-521</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>7/21/2025</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Laferrere 6572</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>808430950</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>-58.496608</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-34.666371</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>6472</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>7/24/2025</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>DUMONT, SANTOS 3744</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>808509381</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Columna inclinada</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>-58.448576</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-34.585794</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Colegiales</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>6497</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>7/25/2025</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>808533127</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>-58.422229</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-34.573148</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6347,6 +6347,154 @@
         </is>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>6481</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>8/4/2025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DIAZ, CESAR, GRAL. 3520</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>808703875</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>-58.486002</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-34.61821</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>6556</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>8/4/2025</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2 DE ABRIL DE 1982 6982</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>-58.494864</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-34.678826</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6495,6 +6495,234 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>6193</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>8/5/2025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>POLA 591</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>808720861</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>-58.507385</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-34.644479</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>6277</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>8/5/2025</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SENILLOSA 323</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>808720859</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>-58.429726</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-34.619969</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>6274</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>8/5/2025</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>808720858</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>chocada</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>-58.473089</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-34.625478</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6444,7 +6444,11 @@
           <t>8</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>AYKO</t>
@@ -6720,6 +6724,234 @@
       <c r="P83" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>6469</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>8/6/2025</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>USPALLATA 3626</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>808733910</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Aplomar</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>-58.414389</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-34.641308</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>6561</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>8/6/2025</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>808733912</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>-58.468841</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-34.686635</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>6567</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>8/6/2025</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SAN ANTONIO 1221</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>808733914</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Aplomar</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>-58.375684</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-34.656092</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6046,7 +6046,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-518</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6952,6 +6952,82 @@
       <c r="P86" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>-549</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>8/7/2025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>14 de Julio 65</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>808749189</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>picada</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>-58.468496</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-34.591282</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -6446,7 +6446,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6502,7 +6502,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6193</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6512,17 +6512,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>POLA 591</t>
+          <t>SENILLOSA 323</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808720861</t>
+          <t>808720859</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6541,7 +6541,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6559,26 +6559,26 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.507385</v>
+        <v>-58.429726</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.644479</v>
+        <v>-34.619969</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6588,17 +6588,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SENILLOSA 323</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808720859</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6635,46 +6635,46 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.429726</v>
+        <v>-58.473089</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.619969</v>
+        <v>-34.625478</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>6469</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t>USPALLATA 3626</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>808733910</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6711,26 +6711,26 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.473089</v>
+        <v>-58.414389</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.625478</v>
+        <v>-34.641308</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6469</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6740,17 +6740,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>USPALLATA 3626</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808733910</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.414389</v>
+        <v>-58.468841</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.641308</v>
+        <v>-34.686635</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6816,17 +6816,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6863,14 +6863,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.468841</v>
+        <v>-58.375684</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.686635</v>
+        <v>-34.656092</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6882,27 +6882,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>-549</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>14 de Julio 65</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>808749189</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6939,93 +6939,17 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.375684</v>
+        <v>-58.468496</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.656092</v>
+        <v>-34.591282</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>-549</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>8/7/2025</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>14 de Julio 65</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>808749189</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>picada</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>-58.468496</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-34.591282</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2022,29 +2022,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>6901</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2/24/2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PINO, Virrey del 2644</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>803608215</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2/24/2025</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>DEL PINO VIRREY /ALT/ 2646</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>803608215</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>AYKO</t>
@@ -2057,11 +2057,11 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Columna 114 quebrada en base dar prioridad.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2079,10 +2079,10 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.45524</v>
+        <v>-58.455073</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.567858</v>
+        <v>-34.56776</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -6350,27 +6350,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6481</t>
+          <t>6411</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>7/31/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DIAZ, CESAR, GRAL. 3520</t>
+          <t>CRAIG 720</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>808703875</t>
+          <t>808609241</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6407,26 +6407,26 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.486002</v>
+        <v>-58.434949</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.61821</v>
+        <v>-34.627171</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>6481</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6436,17 +6436,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t>DIAZ, CESAR, GRAL. 3520</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>808703875</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6479,50 +6479,50 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.494864</v>
+        <v>-58.486002</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.678826</v>
+        <v>-34.61821</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SENILLOSA 323</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808720859</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6555,14 +6555,14 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.429726</v>
+        <v>-58.494864</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.619969</v>
+        <v>-34.678826</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6588,17 +6588,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t>SENILLOSA 323</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>808720859</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6635,46 +6635,46 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.473089</v>
+        <v>-58.429726</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.625478</v>
+        <v>-34.619969</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6469</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>USPALLATA 3626</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808733910</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6711,26 +6711,26 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.414389</v>
+        <v>-58.473089</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.641308</v>
+        <v>-34.625478</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>6469</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6740,17 +6740,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>USPALLATA 3626</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>808733910</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.468841</v>
+        <v>-58.414389</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.686635</v>
+        <v>-34.641308</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6816,17 +6816,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6863,14 +6863,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.375684</v>
+        <v>-58.468841</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.656092</v>
+        <v>-34.686635</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6882,27 +6882,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-549</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>14 de Julio 65</t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808749189</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6925,31 +6925,107 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>-58.375684</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-34.656092</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>-549</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>8/7/2025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>14 de Julio 65</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>808749189</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>picada</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="M87" t="n">
         <v>-58.468496</v>
       </c>
-      <c r="N86" t="n">
+      <c r="N87" t="n">
         <v>-34.591282</v>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="O87" t="inlineStr">
         <is>
           <t>Paternal</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr">
+      <c r="P87" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,7 +746,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>6968</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SANTA FE ,AV. /ALT/ 5154</t>
+          <t>SANTA FE AV. 5154</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -781,11 +781,11 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>cambio de columna la misma NO presenta riesgo de caída</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -802,22 +802,10 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>-58.432658</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-34.576446</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5818,7 +5806,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>6942</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5828,7 +5816,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>3 DE FEBRERO 2169</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -5853,7 +5841,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5874,22 +5862,10 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>-58.452636</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-34.558607</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7030,6 +7006,198 @@
           <t>Capital Norte</t>
         </is>
       </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>6947</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>8/14/2025</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ALMAFUERTE AV. 682</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>808972978</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>6951</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>8/14/2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MEXICO 2751</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>808972984</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>6960</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>8/14/2025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>VALLESE, FELIPE 1940</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>808972988</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -802,10 +802,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>-58.432658</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-34.576446</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5862,10 +5874,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>-58.452583</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-34.558668</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7066,10 +7090,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>-58.414185</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-34.64524</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7130,10 +7166,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>-58.404946</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-34.617251</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7194,10 +7242,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>-58.460818</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-34.618934</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1946,27 +1946,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-263</t>
+          <t>6901</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fraga 93</t>
+          <t>PINO, Virrey del 2644</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802848838</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1999,14 +1999,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.446721</v>
+        <v>-58.455073</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.587175</v>
+        <v>-34.56776</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6901</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2032,17 +2032,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PINO, Virrey del 2644</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2057,11 +2057,11 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2079,46 +2079,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.455073</v>
+        <v>-58.391153</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.56776</v>
+        <v>-34.624022</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2155,14 +2155,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.391153</v>
+        <v>-58.423405</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.624022</v>
+        <v>-34.588075</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2174,17 +2174,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SOLER /ALT/ 4517</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>803651203</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2209,11 +2209,11 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>columna de 114 con nodo y redes nuestra.</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2222,19 +2222,19 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.423405</v>
+        <v>-58.42486</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.588075</v>
+        <v>-34.577318</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2250,27 +2250,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2298,35 +2298,35 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.42486</v>
+        <v>-58.491074</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.577318</v>
+        <v>-34.575623</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2336,17 +2336,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2369,12 +2369,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2383,14 +2383,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.491074</v>
+        <v>-58.525125</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.575623</v>
+        <v>-34.604668</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2402,27 +2402,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2459,26 +2459,26 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.525125</v>
+        <v>-58.421964</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.604668</v>
+        <v>-34.586342</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2488,17 +2488,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2535,26 +2535,26 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.421964</v>
+        <v>-58.498493</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.586342</v>
+        <v>-34.581262</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2564,17 +2564,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2611,14 +2611,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.498493</v>
+        <v>-58.460666</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.581262</v>
+        <v>-34.573823</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2630,27 +2630,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2665,11 +2665,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2687,14 +2687,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.460666</v>
+        <v>-58.502447</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.573823</v>
+        <v>-34.561008</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2716,17 +2716,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2763,10 +2763,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.502447</v>
+        <v>-58.483947</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.561008</v>
+        <v>-34.583207</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2835,14 +2835,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.483947</v>
+        <v>-58.503673</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.583207</v>
+        <v>-34.586925</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2911,14 +2911,14 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.503673</v>
+        <v>-58.504455</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.586925</v>
+        <v>-34.579941</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2991,10 +2991,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.504455</v>
+        <v>-58.504568</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.579941</v>
+        <v>-34.590534</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.504568</v>
+        <v>-58.503195</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.590534</v>
+        <v>-34.581735</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3143,14 +3143,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.503195</v>
+        <v>-58.493164</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.581735</v>
+        <v>-34.55732</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3162,7 +3162,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3219,14 +3219,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.493164</v>
+        <v>-58.491934</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.55732</v>
+        <v>-34.569348</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3238,7 +3238,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.491934</v>
+        <v>-58.501418</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.569348</v>
+        <v>-34.574363</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3371,14 +3371,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.501418</v>
+        <v>-58.494584</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.574363</v>
+        <v>-34.554981</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3390,27 +3390,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3425,11 +3425,11 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3443,14 +3443,14 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.494584</v>
+        <v>-58.465608</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.554981</v>
+        <v>-34.538489</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3466,27 +3466,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3519,18 +3519,18 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.465608</v>
+        <v>-58.436788</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.538489</v>
+        <v>-34.604014</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3542,7 +3542,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3552,17 +3552,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3599,26 +3599,26 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.436788</v>
+        <v>-58.439461</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.604014</v>
+        <v>-34.605744</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3628,17 +3628,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3675,10 +3675,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.439461</v>
+        <v>-58.418424</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.605744</v>
+        <v>-34.604463</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-377</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>HUMAHUACA /ALT/ 3918</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.418424</v>
+        <v>-58.419694</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.604463</v>
+        <v>-34.602062</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3770,27 +3770,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-377</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HUMAHUACA /ALT/ 3918</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3827,26 +3827,26 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.419694</v>
+        <v>-58.481834</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.602062</v>
+        <v>-34.560796</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3856,17 +3856,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3903,14 +3903,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.481834</v>
+        <v>-58.473936</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.560796</v>
+        <v>-34.577346</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3922,7 +3922,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3932,17 +3932,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.473936</v>
+        <v>-58.45789</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.577346</v>
+        <v>-34.565423</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.45789</v>
+        <v>-58.458217</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.565423</v>
+        <v>-34.565043</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4074,27 +4074,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-392</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>GARCIA TEODORO /ALT/ 1775</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805676615</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4131,10 +4131,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.458217</v>
+        <v>-58.440367</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.565043</v>
+        <v>-34.563551</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-393</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 1775</t>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>805676615</t>
+          <t>805676618</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4207,10 +4207,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.440367</v>
+        <v>-58.445186</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.563551</v>
+        <v>-34.567417</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4226,27 +4226,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4283,46 +4283,46 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.445186</v>
+        <v>-58.387847</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.567417</v>
+        <v>-34.587043</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4359,26 +4359,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.387847</v>
+        <v>-58.46579</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.587043</v>
+        <v>-34.555012</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4435,14 +4435,14 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.46579</v>
+        <v>-58.451835</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.555012</v>
+        <v>-34.562646</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4454,7 +4454,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4464,17 +4464,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4507,18 +4507,18 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.451835</v>
+        <v>-58.470837</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.562646</v>
+        <v>-34.545751</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4530,7 +4530,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4578,19 +4578,19 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.470837</v>
+        <v>-58.472267</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.545751</v>
+        <v>-34.551163</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4606,27 +4606,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.472267</v>
+        <v>-58.464144</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.551163</v>
+        <v>-34.541832</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4692,17 +4692,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4739,26 +4739,26 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.464144</v>
+        <v>-58.434761</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.541832</v>
+        <v>-34.598381</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4768,17 +4768,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4811,30 +4811,30 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.434761</v>
+        <v>-58.464177</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.598381</v>
+        <v>-34.558239</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4844,17 +4844,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4887,50 +4887,50 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.464177</v>
+        <v>-58.412302</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.558239</v>
+        <v>-34.59301</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4945,11 +4945,11 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4967,46 +4967,46 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.412302</v>
+        <v>-58.485056</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.59301</v>
+        <v>-34.555059</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5021,15 +5021,15 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5043,14 +5043,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.485056</v>
+        <v>-58.469783</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.555059</v>
+        <v>-34.599214</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5062,27 +5062,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t xml:space="preserve">ICD30261461 </t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5115,30 +5115,30 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.469783</v>
+        <v>-58.487144</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.599214</v>
+        <v>-34.669078</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>6496</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5148,17 +5148,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Moldes 2327</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30261461 </t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5191,50 +5191,50 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.487144</v>
+        <v>-58.461172</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.669078</v>
+        <v>-34.561608</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6496</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Moldes 2327</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5271,10 +5271,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.461172</v>
+        <v>-58.49147</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.561608</v>
+        <v>-34.55031</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5290,27 +5290,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5323,11 +5323,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
         <v>1</v>
       </c>
@@ -5347,36 +5343,36 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.49147</v>
+        <v>-58.405761</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.55031</v>
+        <v>-34.582476</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5386,7 +5382,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5399,7 +5395,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
@@ -5419,14 +5419,14 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.405761</v>
+        <v>-58.432241</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.582476</v>
+        <v>-34.56642</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5438,7 +5438,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5458,7 +5458,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5495,10 +5495,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.432241</v>
+        <v>-58.417348</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.56642</v>
+        <v>-34.595467</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5514,27 +5514,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5567,18 +5567,18 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.417348</v>
+        <v>-58.472311</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.595467</v>
+        <v>-34.654867</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5590,7 +5590,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5600,17 +5600,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5643,30 +5643,30 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.472311</v>
+        <v>-58.450113</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.654867</v>
+        <v>-34.574534</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5676,17 +5676,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5719,18 +5719,18 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.450113</v>
+        <v>-58.484729</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.574534</v>
+        <v>-34.574614</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5742,27 +5742,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6942</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>3 DE FEBRERO 2169</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5795,18 +5795,18 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.484729</v>
+        <v>-58.452583</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.574614</v>
+        <v>-34.558668</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5818,27 +5818,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6942</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 2169</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5871,18 +5871,18 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.452583</v>
+        <v>-58.510247</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.558668</v>
+        <v>-34.645038</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -5894,7 +5894,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5904,17 +5904,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>BEAUCHEF 421</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>808373658</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5947,50 +5947,50 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.510247</v>
+        <v>-58.433724</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.645038</v>
+        <v>-34.621643</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BEAUCHEF 421</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>808373658</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6027,46 +6027,46 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.433724</v>
+        <v>-58.483145</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.621643</v>
+        <v>-34.557043</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6103,14 +6103,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.483145</v>
+        <v>-58.496608</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.557043</v>
+        <v>-34.666371</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6122,27 +6122,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6179,46 +6179,46 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.496608</v>
+        <v>-58.422229</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.666371</v>
+        <v>-34.573148</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6472</t>
+          <t>6411</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7/24/2025</t>
+          <t>7/31/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>DUMONT, SANTOS 3744</t>
+          <t>CRAIG 720</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>808509381</t>
+          <t>808609241</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6251,50 +6251,50 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.448576</v>
+        <v>-58.434949</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.585794</v>
+        <v>-34.627171</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>6481</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
+          <t>DIAZ, CESAR, GRAL. 3520</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>808533127</t>
+          <t>808703875</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6331,46 +6331,46 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.422229</v>
+        <v>-58.486002</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.573148</v>
+        <v>-34.61821</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6411</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/31/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CRAIG 720</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>808609241</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6403,14 +6403,14 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.434949</v>
+        <v>-58.494864</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.627171</v>
+        <v>-34.678826</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -6426,27 +6426,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6481</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DIAZ, CESAR, GRAL. 3520</t>
+          <t>SENILLOSA 323</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808703875</t>
+          <t>808720859</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6483,46 +6483,46 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.486002</v>
+        <v>-58.429726</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.61821</v>
+        <v>-34.619969</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6555,50 +6555,50 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.494864</v>
+        <v>-58.473089</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.678826</v>
+        <v>-34.625478</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>6469</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SENILLOSA 323</t>
+          <t>USPALLATA 3626</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808720859</t>
+          <t>808733910</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6635,10 +6635,10 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.429726</v>
+        <v>-58.414389</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.619969</v>
+        <v>-34.641308</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -6654,27 +6654,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6711,26 +6711,26 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.473089</v>
+        <v>-58.468841</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.625478</v>
+        <v>-34.686635</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6469</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>USPALLATA 3626</t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6750,7 +6750,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808733910</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6787,14 +6787,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.414389</v>
+        <v>-58.375684</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.641308</v>
+        <v>-34.656092</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6806,27 +6806,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>-549</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>14 de Julio 65</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>808749189</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6863,36 +6863,36 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.468841</v>
+        <v>-58.468496</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.686635</v>
+        <v>-34.591282</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>6947</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>ALMAFUERTE AV. 682</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>808972978</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6939,10 +6939,10 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.375684</v>
+        <v>-58.414185</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.656092</v>
+        <v>-34.64524</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -6958,27 +6958,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-549</t>
+          <t>6951</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>14 de Julio 65</t>
+          <t>MEXICO 2751</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808749189</t>
+          <t>808972984</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7015,26 +7015,26 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.468496</v>
+        <v>-58.404946</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.591282</v>
+        <v>-34.617251</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6947</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -7044,17 +7044,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ALMAFUERTE AV. 682</t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808972978</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7091,14 +7091,14 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.414185</v>
+        <v>-58.460818</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.64524</v>
+        <v>-34.618934</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -7110,27 +7110,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6951</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MEXICO 2751</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>808972984</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7167,93 +7167,17 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.404946</v>
+        <v>-58.460441</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.617251</v>
+        <v>-34.628243</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>6960</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>8/14/2025</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>VALLESE, FELIPE 1940</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>808972988</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>-58.460818</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-34.618934</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -5818,27 +5818,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>CASTAÑARES AV. 5656</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Faltan cargar las fotos del cierre</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5871,30 +5871,30 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.510247</v>
+        <v>-58.479921</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.645038</v>
+        <v>-34.673021</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5904,17 +5904,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BEAUCHEF 421</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>808373658</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5947,23 +5947,23 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.433724</v>
+        <v>-58.510247</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.621643</v>
+        <v>-34.645038</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7183,6 +7183,82 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>-557</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>8/21/2025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Av Castañares 4621</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Colocar columna para pedir traspaso de nodo telecom</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>-58.470977</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-34.665358</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6198,27 +6198,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6411</t>
+          <t>6481</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7/31/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CRAIG 720</t>
+          <t>DIAZ, CESAR, GRAL. 3520</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>808609241</t>
+          <t>808703875</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6255,26 +6255,26 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.434949</v>
+        <v>-58.486002</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.627171</v>
+        <v>-34.61821</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6481</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6284,17 +6284,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DIAZ, CESAR, GRAL. 3520</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>808703875</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6327,50 +6327,50 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.486002</v>
+        <v>-58.494864</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.61821</v>
+        <v>-34.678826</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6403,50 +6403,50 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.494864</v>
+        <v>-58.473089</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.678826</v>
+        <v>-34.625478</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>6469</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SENILLOSA 323</t>
+          <t>USPALLATA 3626</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808720859</t>
+          <t>808733910</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.429726</v>
+        <v>-58.414389</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.619969</v>
+        <v>-34.641308</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6502,27 +6502,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6559,26 +6559,26 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.473089</v>
+        <v>-58.468841</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.625478</v>
+        <v>-34.686635</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6469</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>USPALLATA 3626</t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808733910</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6635,14 +6635,14 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.414389</v>
+        <v>-58.375684</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.641308</v>
+        <v>-34.656092</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6654,27 +6654,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>-549</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>14 de Julio 65</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>808749189</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6711,36 +6711,36 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.468841</v>
+        <v>-58.468496</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.686635</v>
+        <v>-34.591282</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>6947</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>ALMAFUERTE AV. 682</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6750,7 +6750,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>808972978</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.375684</v>
+        <v>-58.414185</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.656092</v>
+        <v>-34.64524</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -6806,27 +6806,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-549</t>
+          <t>6951</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>14 de Julio 65</t>
+          <t>MEXICO 2751</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808749189</t>
+          <t>808972984</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6863,26 +6863,26 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.468496</v>
+        <v>-58.404946</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.591282</v>
+        <v>-34.617251</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6947</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6892,17 +6892,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ALMAFUERTE AV. 682</t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808972978</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6939,14 +6939,14 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.414185</v>
+        <v>-58.460818</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.64524</v>
+        <v>-34.618934</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6958,27 +6958,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6951</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MEXICO 2751</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808972984</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7015,14 +7015,14 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.404946</v>
+        <v>-58.460441</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.617251</v>
+        <v>-34.628243</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -7034,27 +7034,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>-557</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>Av Castañares 4621</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>ICD30462144</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir traspaso de nodo telecom</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7091,10 +7091,10 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.460818</v>
+        <v>-58.470977</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.618934</v>
+        <v>-34.665358</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -7102,158 +7102,6 @@
         </is>
       </c>
       <c r="P88" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>6979</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>8/18/2025</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>RIVADAVIA AV. 6740</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>809006419</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>-58.460441</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-34.628243</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>-557</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>8/21/2025</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Av Castañares 4621</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Colocar columna para pedir traspaso de nodo telecom</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>-58.470977</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-34.665358</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7107,6 +7107,82 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>-563</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Av Castañares 4520</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>809157022</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Cambiar pasante</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>-58.470249</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-34.664835</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -3694,7 +3694,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-377</t>
+          <t>7054</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HUMAHUACA /ALT/ 3918</t>
+          <t>HUMAHUACA 3918</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6806,7 +6806,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6951</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6816,17 +6816,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MEXICO 2751</t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808972984</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6863,14 +6863,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.404946</v>
+        <v>-58.460818</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.617251</v>
+        <v>-34.618934</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6882,17 +6882,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6939,10 +6939,10 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.460818</v>
+        <v>-58.460441</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.618934</v>
+        <v>-34.628243</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -6958,27 +6958,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>-557</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6740</t>
+          <t>Av Castañares 4621</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>809006419</t>
+          <t>ICD30462144</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
+          <t>Colocar columna para pedir traspaso de nodo telecom</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7001,12 +7001,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7015,10 +7015,10 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.460441</v>
+        <v>-58.470977</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.628243</v>
+        <v>-34.665358</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -7034,27 +7034,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-557</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Av Castañares 4621</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ICD30462144</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo telecom</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7082,19 +7082,19 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.470977</v>
+        <v>-58.435017</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.665358</v>
+        <v>-34.622044</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -7110,27 +7110,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-563</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Av Castañares 4520</t>
+          <t>PINZON 1578</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>809157022</t>
+          <t>809195671</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Cambiar pasante</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -7167,14 +7167,14 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.470249</v>
+        <v>-58.373428</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.664835</v>
+        <v>-34.63705</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6426,7 +6426,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6469</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6436,17 +6436,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>USPALLATA 3626</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808733910</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.414389</v>
+        <v>-58.468841</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.641308</v>
+        <v>-34.686635</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6512,17 +6512,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6559,14 +6559,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.468841</v>
+        <v>-58.375684</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.686635</v>
+        <v>-34.656092</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6578,27 +6578,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>-549</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>14 de Julio 65</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>808749189</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6635,46 +6635,46 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.375684</v>
+        <v>-58.468496</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.656092</v>
+        <v>-34.591282</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-549</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>14 de Julio 65</t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808749189</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6711,46 +6711,46 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.468496</v>
+        <v>-58.460818</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.591282</v>
+        <v>-34.618934</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6947</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ALMAFUERTE AV. 682</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808972978</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6787,14 +6787,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.414185</v>
+        <v>-58.460441</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.64524</v>
+        <v>-34.628243</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6806,27 +6806,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>-557</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>Av Castañares 4621</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>ICD30462144</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir traspaso de nodo telecom</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6854,7 +6854,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6863,10 +6863,10 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.460818</v>
+        <v>-58.470977</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.618934</v>
+        <v>-34.665358</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -6882,27 +6882,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6740</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>809006419</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6925,24 +6925,24 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.460441</v>
+        <v>-58.435017</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.628243</v>
+        <v>-34.622044</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -6958,27 +6958,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-557</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Av Castañares 4621</t>
+          <t>PINZON 1578</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ICD30462144</t>
+          <t>809195671</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo telecom</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7015,14 +7015,14 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.470977</v>
+        <v>-58.373428</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.665358</v>
+        <v>-34.63705</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -7034,7 +7034,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>-568</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -7044,17 +7044,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>Ameghino 523</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>809208239</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>Picada con pelgro de caida</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7082,104 +7082,28 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.435017</v>
+        <v>-58.488424</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.622044</v>
+        <v>-34.642002</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>7060</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>8/26/2025</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>PINZON 1578</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>809195671</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>-58.373428</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-34.63705</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -6806,7 +6806,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-557</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Av Castañares 4621</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ICD30462144</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo telecom</t>
+          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6857,16 +6857,12 @@
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>-58.470977</v>
+        <v>-58.470919</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.665358</v>
+        <v>-34.665309</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,27 +518,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>801645051</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12/13/2024</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Estomba 907</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>801645051</t>
+          <t xml:space="preserve">ICD30261461 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -553,15 +553,15 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aplomar uno de los postes y desmontar el que esta en desuso</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -575,46 +575,46 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.464756</v>
+        <v>-58.487144</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.582693</v>
+        <v>-34.669078</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>801645141</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12/13/2024</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fraga 1501</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>801645141</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -629,11 +629,11 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aplomar poste de 14 mts</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -647,18 +647,18 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.464984</v>
+        <v>-58.469783</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.582783</v>
+        <v>-34.599214</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -670,27 +670,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1/5/2024</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FIGUEROA ALCORTA PTE ,AV. /ALT/ 5600</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>777580740</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Es F. ALCORTA 5600 (pasando Av de los ombues 100mts aprox.) Para cambiar es un poste con muchas rajaduras, en Figueroa Alcorta esq. Av de los Ombues</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -718,23 +718,23 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.425911</v>
+        <v>-58.391153</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.56033</v>
+        <v>-34.624022</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -746,27 +746,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6968</t>
+          <t>801645141</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1/13/2024</t>
+          <t>12/13/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SANTA FE AV. 5154</t>
+          <t>Fraga 1501</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>777843837</t>
+          <t>801645141</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -781,15 +781,15 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar poste de 14 mts</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -799,40 +799,40 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.432658</v>
+        <v>-58.464984</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.576446</v>
+        <v>-34.582783</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>801645051</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1/15/2024</t>
+          <t>12/13/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DARWIN /ALT/ 651</t>
+          <t>Estomba 907</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>777863458</t>
+          <t>801645051</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -855,13 +855,17 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aplomar uno de los postes y desmontar el que esta en desuso</t>
+        </is>
+      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -871,18 +875,18 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.44467</v>
+        <v>-58.464756</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.593784</v>
+        <v>-34.582693</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -894,27 +898,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2/21/2024</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>VEGA CNEL NICETO /ALT/ 4984</t>
+          <t>HERRERA 1998</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>780352873</t>
+          <t>809268244</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -929,11 +933,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Recambio de columna</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,18 +951,18 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.433253</v>
+        <v>-58.37456</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.591026</v>
+        <v>-34.649779</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -970,27 +974,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-103</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6/12/2024</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SALGUERO JERONIMO /ALT/ 2533</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>788206681</t>
+          <t>ICD30519785</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1000,16 +1004,16 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Altura correcta 2549</t>
+          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1018,23 +1022,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>-58.409971</v>
+        <v>-58.470919</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.58175</v>
+        <v>-34.665309</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1046,27 +1046,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-118</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/15/2024</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
+          <t>PINZON 1578</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>793333193</t>
+          <t>809195671</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1081,11 +1081,11 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Retirar columna vieja, nodo ya traspasado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1103,46 +1103,46 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.445523</v>
+        <v>-58.373428</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.558237</v>
+        <v>-34.63705</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-143</t>
+          <t>7054</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/7/2024</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
+          <t>HUMAHUACA 3918</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>797752816</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1155,9 +1155,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>picada</t>
+        </is>
+      </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1166,7 +1170,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1175,46 +1179,46 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.458864</v>
+        <v>-58.419694</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.561167</v>
+        <v>-34.602062</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-152</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>798984311</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1229,11 +1233,11 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>El poste esta pegado al arbol ver la foto adjunta</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1242,55 +1246,55 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.513363</v>
+        <v>-58.435017</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.605473</v>
+        <v>-34.622044</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-160</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MORAN PEDRO /ALT/ 3100</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>798984905</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1303,13 +1307,17 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
+        </is>
+      </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1319,50 +1327,50 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.498724</v>
+        <v>-58.460441</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.594329</v>
+        <v>-34.628243</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-193</t>
+          <t>6968</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>1/13/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WASHINGTON /ALT/ 3251</t>
+          <t>SANTA FE AV. 5154</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>799539971</t>
+          <t>777843837</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1377,11 +1385,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1399,46 +1407,46 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.478272</v>
+        <v>-58.432658</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.558899</v>
+        <v>-34.576446</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-201</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1007</t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>799540497</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1453,11 +1461,11 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1471,18 +1479,18 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.436377</v>
+        <v>-58.460818</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.565075</v>
+        <v>-34.618934</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1494,27 +1502,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-202</t>
+          <t>6942</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1030</t>
+          <t>3 DE FEBRERO 2169</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>799540503</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1529,11 +1537,11 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Recambio de columna - alt correcta 1010</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1547,50 +1555,50 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.436601</v>
+        <v>-58.452583</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.565035</v>
+        <v>-34.558668</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-216</t>
+          <t>6901</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5/2/2024</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
+          <t>PINO, Virrey del 2644</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>784655947</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1605,11 +1613,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1627,46 +1635,46 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.404652</v>
+        <v>-58.455073</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.58263</v>
+        <v>-34.56776</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-219</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LA PAMPA /ALT/ 2836</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>798953875</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1681,11 +1689,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1703,14 +1711,14 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.458282</v>
+        <v>-58.483145</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.56718</v>
+        <v>-34.557043</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1722,27 +1730,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-226</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUBA /ALT/ 2308</t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>800502281</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1757,15 +1765,15 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1779,46 +1787,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.456674</v>
+        <v>-58.375684</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.558757</v>
+        <v>-34.656092</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-228</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11/22/2024</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN /ALT/ 1272</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>800645527</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1833,11 +1841,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1855,14 +1863,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.426725</v>
+        <v>-58.468841</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.5945</v>
+        <v>-34.686635</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1874,27 +1882,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-254</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/7/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802367713</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1907,66 +1915,70 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+        </is>
+      </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.457158</v>
+        <v>-58.494864</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.605839</v>
+        <v>-34.678826</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6901</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PINO, Virrey del 2644</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1981,7 +1993,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1989,7 +2001,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2003,46 +2015,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.455073</v>
+        <v>-58.422229</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.56776</v>
+        <v>-34.573148</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>6481</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>DIAZ, CESAR, GRAL. 3520</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>808703875</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2057,11 +2069,11 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2070,7 +2082,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2079,46 +2091,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.391153</v>
+        <v>-58.486002</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.624022</v>
+        <v>-34.61821</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SOLER /ALT/ 4517</t>
+          <t>CASTAÑARES AV. 5656</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>803651203</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2133,11 +2145,11 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>columna de 114 con nodo y redes nuestra.</t>
+          <t>Faltan cargar las fotos del cierre</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2146,23 +2158,23 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.423405</v>
+        <v>-58.479921</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.588075</v>
+        <v>-34.673021</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2174,27 +2186,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2209,7 +2221,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2217,7 +2229,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2227,40 +2239,40 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.42486</v>
+        <v>-58.510247</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.577318</v>
+        <v>-34.645038</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2270,7 +2282,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2285,7 +2297,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2298,7 +2310,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2307,14 +2319,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.491074</v>
+        <v>-58.473089</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.575623</v>
+        <v>-34.625478</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2326,27 +2338,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2361,7 +2373,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2369,7 +2381,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2383,14 +2395,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.525125</v>
+        <v>-58.450113</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.604668</v>
+        <v>-34.574534</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2402,27 +2414,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2437,7 +2449,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2455,18 +2467,18 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.421964</v>
+        <v>-58.472311</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.586342</v>
+        <v>-34.654867</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2478,27 +2490,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-568</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>Ameghino 523</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>809208239</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2513,7 +2525,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Picada con pelgro de caida</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2521,7 +2533,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2535,14 +2547,14 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.498493</v>
+        <v>-58.488424</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.581262</v>
+        <v>-34.642002</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2554,27 +2566,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2589,7 +2601,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2597,7 +2609,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2611,14 +2623,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.460666</v>
+        <v>-58.525125</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.573823</v>
+        <v>-34.604668</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2630,27 +2642,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-549</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>14 de Julio 65</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>808749189</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2665,11 +2677,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2687,10 +2699,10 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.502447</v>
+        <v>-58.468496</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.561008</v>
+        <v>-34.591282</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2706,27 +2718,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2741,15 +2753,15 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2763,14 +2775,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.483947</v>
+        <v>-58.496608</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.583207</v>
+        <v>-34.666371</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2782,17 +2794,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2802,7 +2814,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2817,11 +2829,11 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2839,10 +2851,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.503673</v>
+        <v>-58.484729</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.586925</v>
+        <v>-34.574614</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2858,27 +2870,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2893,15 +2905,15 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2915,46 +2927,46 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.504455</v>
+        <v>-58.417348</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.579941</v>
+        <v>-34.595467</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2969,20 +2981,20 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2991,46 +3003,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.504568</v>
+        <v>-58.432241</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.590534</v>
+        <v>-34.56642</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3043,17 +3055,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3067,36 +3075,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.503195</v>
+        <v>-58.405761</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.581735</v>
+        <v>-34.582476</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3106,7 +3114,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3121,15 +3129,15 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3143,10 +3151,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.493164</v>
+        <v>-58.49147</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.55732</v>
+        <v>-34.55031</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3162,17 +3170,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3182,7 +3190,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3197,7 +3205,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3219,14 +3227,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.491934</v>
+        <v>-58.485056</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.569348</v>
+        <v>-34.555059</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3238,27 +3246,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3273,15 +3281,15 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3295,46 +3303,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.501418</v>
+        <v>-58.412302</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.574363</v>
+        <v>-34.59301</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3349,15 +3357,15 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3367,14 +3375,14 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.494584</v>
+        <v>-58.464177</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.554981</v>
+        <v>-34.558239</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3390,27 +3398,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3425,7 +3433,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3433,7 +3441,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3443,50 +3451,50 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.465608</v>
+        <v>-58.434761</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.538489</v>
+        <v>-34.598381</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3501,7 +3509,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3523,14 +3531,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.436788</v>
+        <v>-58.464144</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.604014</v>
+        <v>-34.541832</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3542,27 +3550,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3577,7 +3585,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3590,7 +3598,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3599,46 +3607,46 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.439461</v>
+        <v>-58.472267</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.605744</v>
+        <v>-34.551163</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3653,7 +3661,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3661,7 +3669,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3671,50 +3679,50 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.418424</v>
+        <v>-58.470837</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.604463</v>
+        <v>-34.545751</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7054</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HUMAHUACA 3918</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3729,7 +3737,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3751,46 +3759,46 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.419694</v>
+        <v>-58.451835</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.602062</v>
+        <v>-34.562646</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3805,7 +3813,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3827,10 +3835,10 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.481834</v>
+        <v>-58.46579</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.560796</v>
+        <v>-34.555012</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3846,27 +3854,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3881,7 +3889,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3889,7 +3897,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3903,46 +3911,46 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.473936</v>
+        <v>-58.387847</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.577346</v>
+        <v>-34.587043</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-393</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805676618</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3957,7 +3965,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3965,7 +3973,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3979,10 +3987,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.45789</v>
+        <v>-58.445186</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.565423</v>
+        <v>-34.567417</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4074,27 +4082,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 1775</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>805676615</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4109,7 +4117,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4117,7 +4125,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4131,10 +4139,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.440367</v>
+        <v>-58.45789</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.563551</v>
+        <v>-34.565423</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4150,27 +4158,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4185,7 +4193,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4193,7 +4201,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4207,10 +4215,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.445186</v>
+        <v>-58.473936</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.567417</v>
+        <v>-34.577346</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4226,27 +4234,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4261,7 +4269,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4269,7 +4277,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4283,46 +4291,46 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.387847</v>
+        <v>-58.481834</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.587043</v>
+        <v>-34.560796</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4337,7 +4345,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4345,7 +4353,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4359,46 +4367,46 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.46579</v>
+        <v>-58.418424</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.555012</v>
+        <v>-34.604463</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4413,7 +4421,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4421,7 +4429,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4435,46 +4443,46 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.451835</v>
+        <v>-58.439461</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.562646</v>
+        <v>-34.605744</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4489,7 +4497,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4497,7 +4505,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4507,18 +4515,18 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.470837</v>
+        <v>-58.436788</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.545751</v>
+        <v>-34.604014</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4530,27 +4538,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4565,7 +4573,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4578,19 +4586,19 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.472267</v>
+        <v>-58.465608</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.551163</v>
+        <v>-34.538489</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4606,27 +4614,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4641,15 +4649,15 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4663,10 +4671,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.464144</v>
+        <v>-58.494584</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.541832</v>
+        <v>-34.554981</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4682,27 +4690,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4717,15 +4725,15 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4739,46 +4747,46 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.434761</v>
+        <v>-58.501418</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.598381</v>
+        <v>-34.574363</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4793,11 +4801,11 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4811,18 +4819,18 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.464177</v>
+        <v>-58.491934</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.558239</v>
+        <v>-34.569348</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4834,27 +4842,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4869,15 +4877,15 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4891,36 +4899,36 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.412302</v>
+        <v>-58.493164</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.59301</v>
+        <v>-34.55732</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4930,7 +4938,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4945,7 +4953,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4953,7 +4961,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4967,14 +4975,14 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.485056</v>
+        <v>-58.503195</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.555059</v>
+        <v>-34.581735</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4986,27 +4994,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5021,11 +5029,11 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5034,7 +5042,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5043,10 +5051,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.469783</v>
+        <v>-58.504568</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.599214</v>
+        <v>-34.590534</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5062,27 +5070,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30261461 </t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5097,15 +5105,15 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5115,50 +5123,50 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.487144</v>
+        <v>-58.504455</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.669078</v>
+        <v>-34.579941</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6496</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Moldes 2327</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5173,11 +5181,11 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5191,18 +5199,18 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.461172</v>
+        <v>-58.503673</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.561608</v>
+        <v>-34.586925</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5214,27 +5222,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5249,15 +5257,15 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5271,14 +5279,14 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.49147</v>
+        <v>-58.483947</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.55031</v>
+        <v>-34.583207</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5290,27 +5298,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5323,9 +5331,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Cambiar columna de 114. - VIRARDI</t>
+        </is>
+      </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5343,46 +5355,46 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.405761</v>
+        <v>-58.502447</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.582476</v>
+        <v>-34.561008</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5397,7 +5409,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5419,46 +5431,46 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.432241</v>
+        <v>-58.460666</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.56642</v>
+        <v>-34.573823</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5473,7 +5485,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5481,7 +5493,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5495,46 +5507,46 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.417348</v>
+        <v>-58.498493</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.595467</v>
+        <v>-34.581262</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5549,7 +5561,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5567,18 +5579,18 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.472311</v>
+        <v>-58.421964</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.654867</v>
+        <v>-34.586342</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5590,27 +5602,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5625,7 +5637,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5638,7 +5650,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5647,14 +5659,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.450113</v>
+        <v>-58.491074</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.574534</v>
+        <v>-34.575623</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5666,27 +5678,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5701,7 +5713,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5719,50 +5731,50 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.484729</v>
+        <v>-58.42486</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.574614</v>
+        <v>-34.577318</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6942</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>2/21/2024</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 2169</t>
+          <t>VEGA CNEL NICETO /ALT/ 4984</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>780352873</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5777,11 +5789,11 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Recambio de columna</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5799,46 +5811,46 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.452583</v>
+        <v>-58.433253</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.558668</v>
+        <v>-34.591026</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>1/5/2024</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 5656</t>
+          <t>FIGUEROA ALCORTA PTE ,AV. /ALT/ 5600</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807965768</t>
+          <t>777580740</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5853,11 +5865,11 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Faltan cargar las fotos del cierre</t>
+          <t>Es F. ALCORTA 5600 (pasando Av de los ombues 100mts aprox.) Para cambiar es un poste con muchas rajaduras, en Figueroa Alcorta esq. Av de los Ombues</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5871,18 +5883,18 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.479921</v>
+        <v>-58.425911</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.673021</v>
+        <v>-34.56033</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -5894,27 +5906,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5929,68 +5941,68 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.510247</v>
+        <v>-58.423405</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.645038</v>
+        <v>-34.588075</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6003,11 +6015,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Cambiar columna corroída en base</t>
-        </is>
-      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
         <v>1</v>
       </c>
@@ -6018,7 +6026,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6027,14 +6035,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.483145</v>
+        <v>-58.457158</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.557043</v>
+        <v>-34.605839</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6046,27 +6054,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>-228</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>ALVAREZ JULIAN /ALT/ 1272</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>800645527</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6081,11 +6089,11 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6103,46 +6111,46 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.496608</v>
+        <v>-58.426725</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.666371</v>
+        <v>-34.5945</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>-226</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
+          <t>CUBA /ALT/ 2308</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>808533127</t>
+          <t>800502281</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6157,15 +6165,15 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6179,46 +6187,46 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.422229</v>
+        <v>-58.456674</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.573148</v>
+        <v>-34.558757</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6481</t>
+          <t>-219</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>DIAZ, CESAR, GRAL. 3520</t>
+          <t>LA PAMPA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>808703875</t>
+          <t>798953875</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6233,11 +6241,11 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6255,14 +6263,14 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.486002</v>
+        <v>-58.458282</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.61821</v>
+        <v>-34.56718</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6274,27 +6282,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>-216</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>5/2/2024</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>784655947</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6309,15 +6317,15 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6327,18 +6335,18 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.494864</v>
+        <v>-58.404652</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.678826</v>
+        <v>-34.58263</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6350,27 +6358,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>-202</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t>MIGUELETES /ALT/ 1030</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>799540503</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6385,11 +6393,11 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Recambio de columna - alt correcta 1010</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6403,50 +6411,50 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.473089</v>
+        <v>-58.436601</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.625478</v>
+        <v>-34.565035</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>-201</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>MIGUELETES /ALT/ 1007</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>799540497</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6461,11 +6469,11 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6479,18 +6487,18 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.468841</v>
+        <v>-58.436377</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.686635</v>
+        <v>-34.565075</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6502,27 +6510,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>-193</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>WASHINGTON /ALT/ 3251</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>799539971</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6537,15 +6545,15 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6559,46 +6567,46 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.375684</v>
+        <v>-58.478272</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.656092</v>
+        <v>-34.558899</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-549</t>
+          <t>-160</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>14 de Julio 65</t>
+          <t>MORAN PEDRO /ALT/ 3100</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808749189</t>
+          <t>798984905</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6611,13 +6619,9 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>picada</t>
-        </is>
-      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6631,14 +6635,14 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.468496</v>
+        <v>-58.498724</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.591282</v>
+        <v>-34.594329</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -6654,27 +6658,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>-152</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>798984311</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6689,11 +6693,11 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>El poste esta pegado al arbol ver la foto adjunta</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6707,50 +6711,50 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.460818</v>
+        <v>-58.513363</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.618934</v>
+        <v>-34.605473</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>-143</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>10/7/2024</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6740</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>809006419</t>
+          <t>797752816</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6763,22 +6767,18 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
-        </is>
-      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6787,46 +6787,46 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.460441</v>
+        <v>-58.458864</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.628243</v>
+        <v>-34.561167</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7072</t>
+          <t>-118</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/15/2024</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 4611</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>793333193</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6836,16 +6836,16 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
+          <t>Retirar columna vieja, nodo ya traspasado</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6857,48 +6857,52 @@
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M85" t="n">
-        <v>-58.470919</v>
+        <v>-58.445523</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.665309</v>
+        <v>-34.558237</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>-103</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>6/12/2024</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>SALGUERO JERONIMO /ALT/ 2533</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>788206681</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6913,11 +6917,11 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>Altura correcta 2549</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6926,23 +6930,23 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.435017</v>
+        <v>-58.409971</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.622044</v>
+        <v>-34.58175</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6954,27 +6958,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>1/15/2024</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>PINZON 1578</t>
+          <t>DARWIN /ALT/ 651</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>809195671</t>
+          <t>777863458</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6987,13 +6991,9 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7011,93 +7011,17 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.373428</v>
+        <v>-58.44467</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.63705</v>
+        <v>-34.593784</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>-568</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>8/26/2025</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Ameghino 523</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>809208239</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Picada con pelgro de caida</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>-58.488424</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-34.642002</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,27 +518,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>801645051</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>12/13/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Estomba 907</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30261461 </t>
+          <t>801645051</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -553,15 +553,15 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+          <t>Aplomar uno de los postes y desmontar el que esta en desuso</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -575,46 +575,46 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.487144</v>
+        <v>-58.464756</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.669078</v>
+        <v>-34.582693</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>801645141</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>12/13/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Fraga 1501</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>801645141</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -629,11 +629,11 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomar poste de 14 mts</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -647,18 +647,18 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.469783</v>
+        <v>-58.464984</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.599214</v>
+        <v>-34.582783</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -670,27 +670,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>1/5/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>FIGUEROA ALCORTA PTE ,AV. /ALT/ 5600</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>777580740</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>Es F. ALCORTA 5600 (pasando Av de los ombues 100mts aprox.) Para cambiar es un poste con muchas rajaduras, en Figueroa Alcorta esq. Av de los Ombues</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -718,23 +718,23 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.391153</v>
+        <v>-58.425911</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.624022</v>
+        <v>-34.56033</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -746,27 +746,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>801645141</t>
+          <t>6968</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12/13/2024</t>
+          <t>1/13/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fraga 1501</t>
+          <t>SANTA FE AV. 5154</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>801645141</t>
+          <t>777843837</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -781,15 +781,15 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aplomar poste de 14 mts</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -799,40 +799,40 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.464984</v>
+        <v>-58.432658</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.582783</v>
+        <v>-34.576446</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>801645051</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12/13/2024</t>
+          <t>1/15/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Estomba 907</t>
+          <t>DARWIN /ALT/ 651</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>801645051</t>
+          <t>777863458</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -855,17 +855,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Aplomar uno de los postes y desmontar el que esta en desuso</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -875,18 +871,18 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.464756</v>
+        <v>-58.44467</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.582693</v>
+        <v>-34.593784</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -898,27 +894,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>2/21/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HERRERA 1998</t>
+          <t>VEGA CNEL NICETO /ALT/ 4984</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>809268244</t>
+          <t>780352873</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -933,11 +929,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Recambio de columna</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -951,18 +947,18 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.37456</v>
+        <v>-58.433253</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.649779</v>
+        <v>-34.591026</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -974,27 +970,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7072</t>
+          <t>-103</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>6/12/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 4611</t>
+          <t>SALGUERO JERONIMO /ALT/ 2533</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ICD30519785</t>
+          <t>788206681</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1004,16 +1000,16 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
+          <t>Altura correcta 2549</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,19 +1018,23 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M8" t="n">
-        <v>-58.470919</v>
+        <v>-58.409971</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.665309</v>
+        <v>-34.58175</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1046,27 +1046,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>-118</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/15/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PINZON 1578</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>809195671</t>
+          <t>793333193</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1081,11 +1081,11 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Retirar columna vieja, nodo ya traspasado</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1103,46 +1103,46 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.373428</v>
+        <v>-58.445523</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.63705</v>
+        <v>-34.558237</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7054</t>
+          <t>-143</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>10/7/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HUMAHUACA 3918</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>797752816</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1155,13 +1155,9 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>picada</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1170,7 +1166,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1179,46 +1175,46 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.419694</v>
+        <v>-58.458864</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.602062</v>
+        <v>-34.561167</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>-152</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>798984311</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1233,11 +1229,11 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>El poste esta pegado al arbol ver la foto adjunta</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1246,55 +1242,55 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.435017</v>
+        <v>-58.513363</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.622044</v>
+        <v>-34.605473</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>-160</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6740</t>
+          <t>MORAN PEDRO /ALT/ 3100</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>809006419</t>
+          <t>798984905</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1307,17 +1303,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1327,50 +1319,50 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.460441</v>
+        <v>-58.498724</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.628243</v>
+        <v>-34.594329</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6968</t>
+          <t>-193</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/13/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SANTA FE AV. 5154</t>
+          <t>WASHINGTON /ALT/ 3251</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>777843837</t>
+          <t>799539971</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1385,11 +1377,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1407,46 +1399,46 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.432658</v>
+        <v>-58.478272</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.576446</v>
+        <v>-34.558899</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>-201</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>MIGUELETES /ALT/ 1007</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>799540497</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1461,11 +1453,11 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1479,18 +1471,18 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.460818</v>
+        <v>-58.436377</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.618934</v>
+        <v>-34.565075</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1502,27 +1494,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6942</t>
+          <t>-202</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 2169</t>
+          <t>MIGUELETES /ALT/ 1030</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>799540503</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1537,11 +1529,11 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Recambio de columna - alt correcta 1010</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1555,50 +1547,50 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.452583</v>
+        <v>-58.436601</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.558668</v>
+        <v>-34.565035</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6901</t>
+          <t>-216</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>5/2/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PINO, Virrey del 2644</t>
+          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>784655947</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1613,11 +1605,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1635,46 +1627,46 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.455073</v>
+        <v>-58.404652</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.56776</v>
+        <v>-34.58263</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>-219</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>LA PAMPA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>798953875</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1689,11 +1681,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1711,14 +1703,14 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.483145</v>
+        <v>-58.458282</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.557043</v>
+        <v>-34.56718</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1730,27 +1722,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>-226</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>CUBA /ALT/ 2308</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>800502281</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1765,15 +1757,15 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1787,46 +1779,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.375684</v>
+        <v>-58.456674</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.656092</v>
+        <v>-34.558757</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>-228</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>ALVAREZ JULIAN /ALT/ 1272</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>800645527</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1841,11 +1833,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1863,14 +1855,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.468841</v>
+        <v>-58.426725</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.686635</v>
+        <v>-34.5945</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1882,27 +1874,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1915,70 +1907,66 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.494864</v>
+        <v>-58.457158</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.678826</v>
+        <v>-34.605839</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>6901</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
+          <t>PINO, Virrey del 2644</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>808533127</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1993,7 +1981,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2001,7 +1989,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2015,46 +2003,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.422229</v>
+        <v>-58.455073</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.573148</v>
+        <v>-34.56776</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6481</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DIAZ, CESAR, GRAL. 3520</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>808703875</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2069,11 +2057,11 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2082,7 +2070,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2091,46 +2079,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.486002</v>
+        <v>-58.391153</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.61821</v>
+        <v>-34.624022</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 5656</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>807965768</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2145,11 +2133,11 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Faltan cargar las fotos del cierre</t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2158,23 +2146,23 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.479921</v>
+        <v>-58.423405</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.673021</v>
+        <v>-34.588075</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2186,27 +2174,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2221,7 +2209,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2229,7 +2217,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2239,40 +2227,40 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.510247</v>
+        <v>-58.42486</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.645038</v>
+        <v>-34.577318</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2282,7 +2270,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2297,7 +2285,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2310,7 +2298,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2319,14 +2307,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.473089</v>
+        <v>-58.491074</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.625478</v>
+        <v>-34.575623</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2338,27 +2326,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2373,7 +2361,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2381,7 +2369,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2395,14 +2383,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.450113</v>
+        <v>-58.525125</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.574534</v>
+        <v>-34.604668</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2414,27 +2402,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2449,7 +2437,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2467,18 +2455,18 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.472311</v>
+        <v>-58.421964</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.654867</v>
+        <v>-34.586342</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2490,27 +2478,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-568</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ameghino 523</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>809208239</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2525,7 +2513,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada con pelgro de caida</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2533,7 +2521,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2547,14 +2535,14 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.488424</v>
+        <v>-58.498493</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.642002</v>
+        <v>-34.581262</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2566,27 +2554,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2601,7 +2589,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2609,7 +2597,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2623,14 +2611,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.525125</v>
+        <v>-58.460666</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.604668</v>
+        <v>-34.573823</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2642,27 +2630,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-549</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14 de Julio 65</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>808749189</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2677,11 +2665,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2699,10 +2687,10 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.468496</v>
+        <v>-58.502447</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.591282</v>
+        <v>-34.561008</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2718,27 +2706,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2753,15 +2741,15 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2775,14 +2763,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.496608</v>
+        <v>-58.483947</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.666371</v>
+        <v>-34.583207</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2794,17 +2782,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2814,7 +2802,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2829,11 +2817,11 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2851,10 +2839,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.484729</v>
+        <v>-58.503673</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.574614</v>
+        <v>-34.586925</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2870,27 +2858,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2905,15 +2893,15 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2927,46 +2915,46 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.417348</v>
+        <v>-58.504455</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.595467</v>
+        <v>-34.579941</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2981,20 +2969,20 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3003,46 +2991,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.432241</v>
+        <v>-58.504568</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.56642</v>
+        <v>-34.590534</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3055,13 +3043,17 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
+        </is>
+      </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3075,36 +3067,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.405761</v>
+        <v>-58.503195</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.582476</v>
+        <v>-34.581735</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3114,7 +3106,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3129,15 +3121,15 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3151,10 +3143,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.49147</v>
+        <v>-58.493164</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.55031</v>
+        <v>-34.55732</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3170,17 +3162,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3190,7 +3182,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3205,7 +3197,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3227,14 +3219,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.485056</v>
+        <v>-58.491934</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.555059</v>
+        <v>-34.569348</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3246,27 +3238,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3281,15 +3273,15 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3303,46 +3295,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.412302</v>
+        <v>-58.501418</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.59301</v>
+        <v>-34.574363</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3357,15 +3349,15 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3375,14 +3367,14 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.464177</v>
+        <v>-58.494584</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.558239</v>
+        <v>-34.554981</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3398,27 +3390,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3433,7 +3425,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3441,7 +3433,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3451,50 +3443,50 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.434761</v>
+        <v>-58.465608</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.598381</v>
+        <v>-34.538489</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3509,7 +3501,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3531,14 +3523,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.464144</v>
+        <v>-58.436788</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.541832</v>
+        <v>-34.604014</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3550,27 +3542,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3585,7 +3577,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3598,7 +3590,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3607,46 +3599,46 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.472267</v>
+        <v>-58.439461</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.551163</v>
+        <v>-34.605744</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3661,7 +3653,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3669,7 +3661,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3679,50 +3671,50 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.470837</v>
+        <v>-58.418424</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.545751</v>
+        <v>-34.604463</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>7054</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>HUMAHUACA 3918</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3737,7 +3729,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3759,46 +3751,46 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.451835</v>
+        <v>-58.419694</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.562646</v>
+        <v>-34.602062</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3813,7 +3805,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3835,10 +3827,10 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.46579</v>
+        <v>-58.481834</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.555012</v>
+        <v>-34.560796</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3854,27 +3846,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3889,7 +3881,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3897,7 +3889,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3911,46 +3903,46 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.387847</v>
+        <v>-58.473936</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.587043</v>
+        <v>-34.577346</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3965,7 +3957,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3973,7 +3965,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3987,10 +3979,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.445186</v>
+        <v>-58.45789</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.567417</v>
+        <v>-34.565423</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4082,27 +4074,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4117,7 +4109,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4125,7 +4117,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4139,46 +4131,46 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.45789</v>
+        <v>-58.387847</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.565423</v>
+        <v>-34.587043</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4193,7 +4185,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4215,14 +4207,14 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.473936</v>
+        <v>-58.46579</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.577346</v>
+        <v>-34.555012</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4234,27 +4226,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4269,7 +4261,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4277,7 +4269,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4291,14 +4283,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.481834</v>
+        <v>-58.451835</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.560796</v>
+        <v>-34.562646</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4310,27 +4302,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4345,7 +4337,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4353,7 +4345,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4363,50 +4355,50 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.418424</v>
+        <v>-58.470837</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.604463</v>
+        <v>-34.545751</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4421,7 +4413,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4434,7 +4426,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4443,46 +4435,46 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.439461</v>
+        <v>-58.472267</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.605744</v>
+        <v>-34.551163</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4497,7 +4489,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4519,14 +4511,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.436788</v>
+        <v>-58.464144</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.604014</v>
+        <v>-34.541832</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4538,27 +4530,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4573,7 +4565,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4581,7 +4573,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4591,50 +4583,50 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.465608</v>
+        <v>-58.434761</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.538489</v>
+        <v>-34.598381</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4649,15 +4641,15 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4667,14 +4659,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.494584</v>
+        <v>-58.464177</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.554981</v>
+        <v>-34.558239</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4690,27 +4682,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4725,15 +4717,15 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4747,36 +4739,36 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.501418</v>
+        <v>-58.412302</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.574363</v>
+        <v>-34.59301</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4786,7 +4778,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4801,7 +4793,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4823,14 +4815,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.491934</v>
+        <v>-58.485056</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.569348</v>
+        <v>-34.555059</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4842,27 +4834,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4877,11 +4869,11 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4899,14 +4891,14 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.493164</v>
+        <v>-58.469783</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.55732</v>
+        <v>-34.599214</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4918,27 +4910,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t xml:space="preserve">ICD30261461 </t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4953,15 +4945,15 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4971,40 +4963,40 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.503195</v>
+        <v>-58.487144</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.581735</v>
+        <v>-34.669078</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5014,7 +5006,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5029,20 +5021,20 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5051,14 +5043,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.504568</v>
+        <v>-58.49147</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.590534</v>
+        <v>-34.55031</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5070,27 +5062,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5103,17 +5095,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
-        </is>
-      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5127,46 +5115,46 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.504455</v>
+        <v>-58.405761</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.579941</v>
+        <v>-34.582476</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5181,11 +5169,11 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5199,50 +5187,50 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.503673</v>
+        <v>-58.432241</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.586925</v>
+        <v>-34.56642</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5257,15 +5245,15 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5279,46 +5267,46 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.483947</v>
+        <v>-58.417348</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.583207</v>
+        <v>-34.595467</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5333,11 +5321,11 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5351,40 +5339,40 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.502447</v>
+        <v>-58.472311</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.561008</v>
+        <v>-34.654867</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5394,7 +5382,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5409,7 +5397,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5431,10 +5419,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.460666</v>
+        <v>-58.450113</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.573823</v>
+        <v>-34.574534</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -5450,17 +5438,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5470,7 +5458,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5485,7 +5473,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5493,7 +5481,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5503,14 +5491,14 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.498493</v>
+        <v>-58.484729</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.581262</v>
+        <v>-34.574614</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5526,27 +5514,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>6942</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>3 DE FEBRERO 2169</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5583,46 +5571,46 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.421964</v>
+        <v>-58.452583</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.586342</v>
+        <v>-34.558668</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>CASTAÑARES AV. 5656</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5637,7 +5625,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Faltan cargar las fotos del cierre</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5650,55 +5638,55 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.491074</v>
+        <v>-58.479921</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.575623</v>
+        <v>-34.673021</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5713,7 +5701,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5721,7 +5709,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5731,50 +5719,50 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.42486</v>
+        <v>-58.510247</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.577318</v>
+        <v>-34.645038</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2/21/2024</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>VEGA CNEL NICETO /ALT/ 4984</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>780352873</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5789,11 +5777,11 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Recambio de columna</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5811,46 +5799,46 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.433253</v>
+        <v>-58.483145</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.591026</v>
+        <v>-34.557043</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1/5/2024</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>FIGUEROA ALCORTA PTE ,AV. /ALT/ 5600</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>777580740</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5865,11 +5853,11 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Es F. ALCORTA 5600 (pasando Av de los ombues 100mts aprox.) Para cambiar es un poste con muchas rajaduras, en Figueroa Alcorta esq. Av de los Ombues</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5883,40 +5871,40 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.425911</v>
+        <v>-58.496608</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.56033</v>
+        <v>-34.666371</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SOLER /ALT/ 4517</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -5926,7 +5914,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>803651203</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5941,20 +5929,20 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>columna de 114 con nodo y redes nuestra.</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5963,10 +5951,10 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.423405</v>
+        <v>-58.422229</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.588075</v>
+        <v>-34.573148</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -5982,27 +5970,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-254</t>
+          <t>6481</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1/7/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
+          <t>DIAZ, CESAR, GRAL. 3520</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>802367713</t>
+          <t>808703875</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6015,7 +6003,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
@@ -6026,7 +6018,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6035,14 +6027,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.457158</v>
+        <v>-58.486002</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.605839</v>
+        <v>-34.61821</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6054,27 +6046,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-228</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>11/22/2024</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN /ALT/ 1272</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>800645527</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6089,15 +6081,15 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6107,18 +6099,18 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.426725</v>
+        <v>-58.494864</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.5945</v>
+        <v>-34.678826</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6130,27 +6122,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-226</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUBA /ALT/ 2308</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>800502281</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6165,11 +6157,11 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6187,14 +6179,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.456674</v>
+        <v>-58.473089</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.558757</v>
+        <v>-34.625478</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6206,27 +6198,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-219</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>LA PAMPA /ALT/ 2836</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>798953875</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6241,11 +6233,11 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6263,46 +6255,46 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.458282</v>
+        <v>-58.468841</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.56718</v>
+        <v>-34.686635</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-216</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5/2/2024</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>784655947</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6317,15 +6309,15 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6339,14 +6331,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.404652</v>
+        <v>-58.375684</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.58263</v>
+        <v>-34.656092</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6358,27 +6350,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-202</t>
+          <t>-549</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1030</t>
+          <t>14 de Julio 65</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>799540503</t>
+          <t>808749189</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6393,11 +6385,11 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Recambio de columna - alt correcta 1010</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6411,50 +6403,50 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.436601</v>
+        <v>-58.468496</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.565035</v>
+        <v>-34.591282</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-201</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1007</t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>799540497</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6469,11 +6461,11 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6487,18 +6479,18 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.436377</v>
+        <v>-58.460818</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.565075</v>
+        <v>-34.618934</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6510,27 +6502,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-193</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>WASHINGTON /ALT/ 3251</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>799539971</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6545,15 +6537,15 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6567,46 +6559,46 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.478272</v>
+        <v>-58.460441</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.558899</v>
+        <v>-34.628243</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-160</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MORAN PEDRO /ALT/ 3100</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>798984905</t>
+          <t>ICD30519785</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6616,12 +6608,16 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
+        </is>
+      </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6630,55 +6626,51 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>-58.498724</v>
+        <v>-58.470919</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.594329</v>
+        <v>-34.665309</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-152</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>798984311</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6693,11 +6685,11 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>El poste esta pegado al arbol ver la foto adjunta</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6706,55 +6698,55 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.513363</v>
+        <v>-58.435017</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.605473</v>
+        <v>-34.622044</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-143</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>10/7/2024</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
+          <t>PINZON 1578</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>797752816</t>
+          <t>809195671</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6767,9 +6759,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6778,7 +6774,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6787,46 +6783,46 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.458864</v>
+        <v>-58.373428</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.561167</v>
+        <v>-34.63705</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-118</t>
+          <t>-568</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>8/15/2024</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
+          <t>Ameghino 523</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>793333193</t>
+          <t>809208239</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6841,11 +6837,11 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Retirar columna vieja, nodo ya traspasado</t>
+          <t>Picada con pelgro de caida</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6854,7 +6850,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6863,14 +6859,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.445523</v>
+        <v>-58.488424</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.558237</v>
+        <v>-34.642002</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6882,27 +6878,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-103</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>6/12/2024</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SALGUERO JERONIMO /ALT/ 2533</t>
+          <t>HERRERA 1998</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>788206681</t>
+          <t>809268244</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6917,11 +6913,11 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Altura correcta 2549</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6935,18 +6931,18 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.409971</v>
+        <v>-58.37456</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.58175</v>
+        <v>-34.649779</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6958,27 +6954,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1/15/2024</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>DARWIN /ALT/ 651</t>
+          <t>SAN ANTONIO 637</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>777863458</t>
+          <t>809270751</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6991,9 +6987,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7011,19 +7011,95 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.44467</v>
+        <v>-58.37805</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.593784</v>
+        <v>-34.649722</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>7090</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>8/28/2025</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SAN ANTONIO 625</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>809270753</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>-58.378104</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-34.649578</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7103,6 +7103,158 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>8/28/2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SUAREZ AV. 1966</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>809279022</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>-58.377974</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-34.641024</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>7096</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>8/28/2025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>VEDIA, AGUSTIN DE 2185</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>809279069</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>-58.435511</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-34.644702</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4150,7 +4150,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4207,14 +4207,14 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.46579</v>
+        <v>-58.451835</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.555012</v>
+        <v>-34.562646</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4226,7 +4226,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4236,17 +4236,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4279,18 +4279,18 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.451835</v>
+        <v>-58.470837</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.562646</v>
+        <v>-34.545751</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4302,7 +4302,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4350,19 +4350,19 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.470837</v>
+        <v>-58.472267</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.545751</v>
+        <v>-34.551163</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4378,27 +4378,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4421,12 +4421,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.472267</v>
+        <v>-58.464144</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.551163</v>
+        <v>-34.541832</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4464,17 +4464,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4511,26 +4511,26 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.464144</v>
+        <v>-58.434761</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.541832</v>
+        <v>-34.598381</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4540,17 +4540,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4583,30 +4583,30 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.434761</v>
+        <v>-58.464177</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.598381</v>
+        <v>-34.558239</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4616,17 +4616,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4659,50 +4659,50 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.464177</v>
+        <v>-58.412302</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.558239</v>
+        <v>-34.59301</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4717,11 +4717,11 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4739,46 +4739,46 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.412302</v>
+        <v>-58.485056</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.59301</v>
+        <v>-34.555059</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4793,15 +4793,15 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4815,14 +4815,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.485056</v>
+        <v>-58.469783</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.555059</v>
+        <v>-34.599214</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4834,27 +4834,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t xml:space="preserve">ICD30261461 </t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4887,50 +4887,50 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.469783</v>
+        <v>-58.487144</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.599214</v>
+        <v>-34.669078</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30261461 </t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4963,50 +4963,50 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.487144</v>
+        <v>-58.49147</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.669078</v>
+        <v>-34.55031</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5019,11 +5019,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
         <v>1</v>
       </c>
@@ -5043,36 +5039,36 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.49147</v>
+        <v>-58.405761</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.55031</v>
+        <v>-34.582476</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5082,7 +5078,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5095,7 +5091,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
@@ -5115,14 +5115,14 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.405761</v>
+        <v>-58.432241</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.582476</v>
+        <v>-34.56642</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5134,7 +5134,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.432241</v>
+        <v>-58.417348</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.56642</v>
+        <v>-34.595467</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5210,27 +5210,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5263,18 +5263,18 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.417348</v>
+        <v>-58.472311</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.595467</v>
+        <v>-34.654867</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5286,7 +5286,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5296,17 +5296,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5339,30 +5339,30 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.472311</v>
+        <v>-58.450113</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.654867</v>
+        <v>-34.574534</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5372,17 +5372,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5415,18 +5415,18 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.450113</v>
+        <v>-58.484729</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.574534</v>
+        <v>-34.574614</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5438,27 +5438,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6942</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>3 DE FEBRERO 2169</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5491,18 +5491,18 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.484729</v>
+        <v>-58.452583</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.574614</v>
+        <v>-34.558668</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5514,27 +5514,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6942</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 2169</t>
+          <t>CASTAÑARES AV. 5656</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Faltan cargar las fotos del cierre</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5567,50 +5567,50 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.452583</v>
+        <v>-58.479921</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.558668</v>
+        <v>-34.673021</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 5656</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807965768</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Faltan cargar las fotos del cierre</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5643,50 +5643,50 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.479921</v>
+        <v>-58.510247</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.673021</v>
+        <v>-34.645038</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5719,18 +5719,18 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.510247</v>
+        <v>-58.483145</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.645038</v>
+        <v>-34.557043</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5742,27 +5742,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5799,14 +5799,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.483145</v>
+        <v>-58.496608</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.557043</v>
+        <v>-34.666371</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5818,27 +5818,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5875,46 +5875,46 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.496608</v>
+        <v>-58.422229</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.666371</v>
+        <v>-34.573148</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>6481</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
+          <t>DIAZ, CESAR, GRAL. 3520</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>808533127</t>
+          <t>808703875</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5951,26 +5951,26 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.422229</v>
+        <v>-58.486002</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.573148</v>
+        <v>-34.61821</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6481</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5980,17 +5980,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>DIAZ, CESAR, GRAL. 3520</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>808703875</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6023,50 +6023,50 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.486002</v>
+        <v>-58.494864</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.61821</v>
+        <v>-34.678826</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6099,50 +6099,50 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.494864</v>
+        <v>-58.473089</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.678826</v>
+        <v>-34.625478</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6179,26 +6179,26 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.473089</v>
+        <v>-58.468841</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.625478</v>
+        <v>-34.686635</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6208,17 +6208,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6255,14 +6255,14 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.468841</v>
+        <v>-58.375684</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.686635</v>
+        <v>-34.656092</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6274,27 +6274,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>-549</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>14 de Julio 65</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>808749189</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6331,46 +6331,46 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.375684</v>
+        <v>-58.468496</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.656092</v>
+        <v>-34.591282</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-549</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>14 de Julio 65</t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>808749189</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6407,36 +6407,36 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.468496</v>
+        <v>-58.460818</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.591282</v>
+        <v>-34.618934</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.460818</v>
+        <v>-58.460441</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.618934</v>
+        <v>-34.628243</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6502,27 +6502,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6740</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>809006419</t>
+          <t>ICD30519785</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6532,12 +6532,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
+          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6545,24 +6545,20 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>-58.460441</v>
+        <v>-58.470919</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.628243</v>
+        <v>-34.665309</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -6578,27 +6574,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7072</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 4611</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ICD30519785</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6608,12 +6604,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6626,15 +6622,19 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M82" t="n">
-        <v>-58.470919</v>
+        <v>-58.435017</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.665309</v>
+        <v>-34.622044</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6660,17 +6660,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>PINZON 1578</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>809195671</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6698,23 +6698,23 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.435017</v>
+        <v>-58.373428</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.622044</v>
+        <v>-34.63705</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6726,7 +6726,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>-568</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6736,17 +6736,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PINZON 1578</t>
+          <t>Ameghino 523</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>809195671</t>
+          <t>809208239</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada con pelgro de caida</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6783,46 +6783,46 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.373428</v>
+        <v>-58.488424</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.63705</v>
+        <v>-34.642002</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-568</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ameghino 523</t>
+          <t>HERRERA 1998</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>809208239</t>
+          <t>809268244</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Picada con pelgro de caida</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6855,40 +6855,40 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.488424</v>
+        <v>-58.37456</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.642002</v>
+        <v>-34.649779</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>HERRERA 1998</t>
+          <t>SAN ANTONIO 637</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>809268244</t>
+          <t>809270751</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6931,14 +6931,14 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.37456</v>
+        <v>-58.37805</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.649779</v>
+        <v>-34.649722</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -6954,17 +6954,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7089</t>
+          <t>7090</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 637</t>
+          <t>SAN ANTONIO 625</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>809270751</t>
+          <t>809270753</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7011,10 +7011,10 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.37805</v>
+        <v>-58.378104</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.649722</v>
+        <v>-34.649578</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>7090</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 625</t>
+          <t>SUAREZ AV. 1966</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>809270753</t>
+          <t>809279022</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7087,10 +7087,10 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.378104</v>
+        <v>-58.377974</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.649578</v>
+        <v>-34.641024</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -7116,17 +7116,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SUAREZ AV. 1966</t>
+          <t>VEDIA, AGUSTIN DE 2185</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>809279022</t>
+          <t>809279069</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7163,93 +7163,17 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.377974</v>
+        <v>-58.435511</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.641024</v>
+        <v>-34.644702</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>7096</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>8/28/2025</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>VEDIA, AGUSTIN DE 2185</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>809279069</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>-58.435511</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-34.644702</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1946,7 +1946,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6901</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1956,17 +1956,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PINO, Virrey del 2644</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1981,11 +1981,11 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2003,46 +2003,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.455073</v>
+        <v>-58.391153</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.56776</v>
+        <v>-34.624022</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2079,14 +2079,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.391153</v>
+        <v>-58.423405</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.624022</v>
+        <v>-34.588075</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2098,17 +2098,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SOLER /ALT/ 4517</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>803651203</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2133,11 +2133,11 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>columna de 114 con nodo y redes nuestra.</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2146,19 +2146,19 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.423405</v>
+        <v>-58.42486</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.588075</v>
+        <v>-34.577318</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2174,27 +2174,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2222,35 +2222,35 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.42486</v>
+        <v>-58.491074</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.577318</v>
+        <v>-34.575623</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2260,17 +2260,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2293,12 +2293,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2307,14 +2307,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.491074</v>
+        <v>-58.525125</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.575623</v>
+        <v>-34.604668</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2326,27 +2326,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2383,26 +2383,26 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.525125</v>
+        <v>-58.421964</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.604668</v>
+        <v>-34.586342</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2412,17 +2412,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2459,26 +2459,26 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.421964</v>
+        <v>-58.498493</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.586342</v>
+        <v>-34.581262</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2488,17 +2488,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2535,14 +2535,14 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.498493</v>
+        <v>-58.460666</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.581262</v>
+        <v>-34.573823</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2554,27 +2554,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2589,11 +2589,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2611,14 +2611,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.460666</v>
+        <v>-58.502447</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.573823</v>
+        <v>-34.561008</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2630,7 +2630,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2640,17 +2640,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2687,10 +2687,10 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.502447</v>
+        <v>-58.483947</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.561008</v>
+        <v>-34.583207</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2716,17 +2716,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2759,14 +2759,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.483947</v>
+        <v>-58.503673</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.583207</v>
+        <v>-34.586925</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2835,14 +2835,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.503673</v>
+        <v>-58.504455</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.586925</v>
+        <v>-34.579941</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2915,10 +2915,10 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.504455</v>
+        <v>-58.504568</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.579941</v>
+        <v>-34.590534</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2991,10 +2991,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.504568</v>
+        <v>-58.503195</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.590534</v>
+        <v>-34.581735</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3067,14 +3067,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.503195</v>
+        <v>-58.493164</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.581735</v>
+        <v>-34.55732</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3086,7 +3086,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3143,14 +3143,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.493164</v>
+        <v>-58.491934</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.55732</v>
+        <v>-34.569348</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3162,7 +3162,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3219,10 +3219,10 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.491934</v>
+        <v>-58.501418</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.569348</v>
+        <v>-34.574363</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3295,14 +3295,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.501418</v>
+        <v>-58.494584</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.574363</v>
+        <v>-34.554981</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3314,27 +3314,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3349,11 +3349,11 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3367,14 +3367,14 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.494584</v>
+        <v>-58.465608</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.554981</v>
+        <v>-34.538489</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3390,27 +3390,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3443,18 +3443,18 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.465608</v>
+        <v>-58.436788</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.538489</v>
+        <v>-34.604014</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3466,7 +3466,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3476,17 +3476,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3523,26 +3523,26 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.436788</v>
+        <v>-58.439461</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.604014</v>
+        <v>-34.605744</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3552,17 +3552,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.439461</v>
+        <v>-58.418424</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.605744</v>
+        <v>-34.604463</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>7054</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>HUMAHUACA 3918</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3675,10 +3675,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.418424</v>
+        <v>-58.419694</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.604463</v>
+        <v>-34.602062</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3694,27 +3694,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7054</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HUMAHUACA 3918</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3751,26 +3751,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.419694</v>
+        <v>-58.481834</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.602062</v>
+        <v>-34.560796</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3780,17 +3780,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3827,14 +3827,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.481834</v>
+        <v>-58.473936</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.560796</v>
+        <v>-34.577346</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3846,7 +3846,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3856,17 +3856,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.473936</v>
+        <v>-58.45789</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.577346</v>
+        <v>-34.565423</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.45789</v>
+        <v>-58.458217</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.565423</v>
+        <v>-34.565043</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3998,27 +3998,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4041,12 +4041,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4055,46 +4055,46 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.458217</v>
+        <v>-58.387847</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.565043</v>
+        <v>-34.587043</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4131,26 +4131,26 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.387847</v>
+        <v>-58.451835</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.587043</v>
+        <v>-34.562646</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4160,17 +4160,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4203,18 +4203,18 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.451835</v>
+        <v>-58.470837</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.562646</v>
+        <v>-34.545751</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4226,7 +4226,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4274,19 +4274,19 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.470837</v>
+        <v>-58.472267</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.545751</v>
+        <v>-34.551163</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4302,27 +4302,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4345,12 +4345,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4359,10 +4359,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.472267</v>
+        <v>-58.464144</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.551163</v>
+        <v>-34.541832</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4388,17 +4388,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4435,26 +4435,26 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.464144</v>
+        <v>-58.434761</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.541832</v>
+        <v>-34.598381</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4464,17 +4464,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4507,30 +4507,30 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.434761</v>
+        <v>-58.464177</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.598381</v>
+        <v>-34.558239</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4540,17 +4540,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4583,50 +4583,50 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.464177</v>
+        <v>-58.412302</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.558239</v>
+        <v>-34.59301</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4641,11 +4641,11 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4663,46 +4663,46 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.412302</v>
+        <v>-58.485056</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.59301</v>
+        <v>-34.555059</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4717,15 +4717,15 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4739,14 +4739,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.485056</v>
+        <v>-58.469783</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.555059</v>
+        <v>-34.599214</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4758,27 +4758,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t xml:space="preserve">ICD30261461 </t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4811,50 +4811,50 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.469783</v>
+        <v>-58.487144</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.599214</v>
+        <v>-34.669078</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30261461 </t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4887,50 +4887,50 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.487144</v>
+        <v>-58.49147</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.669078</v>
+        <v>-34.55031</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4943,11 +4943,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
         <v>1</v>
       </c>
@@ -4967,36 +4963,36 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.49147</v>
+        <v>-58.405761</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.55031</v>
+        <v>-34.582476</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5006,7 +5002,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5019,7 +5015,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
@@ -5039,14 +5039,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.405761</v>
+        <v>-58.432241</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.582476</v>
+        <v>-34.56642</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5058,7 +5058,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5115,10 +5115,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.432241</v>
+        <v>-58.417348</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.56642</v>
+        <v>-34.595467</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5134,27 +5134,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5187,18 +5187,18 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.417348</v>
+        <v>-58.472311</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.595467</v>
+        <v>-34.654867</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5210,7 +5210,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5220,17 +5220,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5263,30 +5263,30 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.472311</v>
+        <v>-58.450113</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.654867</v>
+        <v>-34.574534</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5296,17 +5296,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5339,18 +5339,18 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.450113</v>
+        <v>-58.484729</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.574534</v>
+        <v>-34.574614</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5362,27 +5362,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6942</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>3 DE FEBRERO 2169</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5415,18 +5415,18 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.484729</v>
+        <v>-58.452583</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.574614</v>
+        <v>-34.558668</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5438,27 +5438,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6942</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 2169</t>
+          <t>CASTAÑARES AV. 5656</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Faltan cargar las fotos del cierre</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5491,50 +5491,50 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.452583</v>
+        <v>-58.479921</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.558668</v>
+        <v>-34.673021</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 5656</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807965768</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Faltan cargar las fotos del cierre</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5567,50 +5567,50 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.479921</v>
+        <v>-58.510247</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.673021</v>
+        <v>-34.645038</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5643,18 +5643,18 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.510247</v>
+        <v>-58.483145</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.645038</v>
+        <v>-34.557043</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5666,27 +5666,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5723,14 +5723,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.483145</v>
+        <v>-58.496608</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.557043</v>
+        <v>-34.666371</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5742,27 +5742,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5799,46 +5799,46 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.496608</v>
+        <v>-58.422229</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.666371</v>
+        <v>-34.573148</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>6481</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
+          <t>DIAZ, CESAR, GRAL. 3520</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>808533127</t>
+          <t>808703875</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5875,26 +5875,26 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.422229</v>
+        <v>-58.486002</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.573148</v>
+        <v>-34.61821</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6481</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5904,17 +5904,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DIAZ, CESAR, GRAL. 3520</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>808703875</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5947,50 +5947,50 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.486002</v>
+        <v>-58.494864</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.61821</v>
+        <v>-34.678826</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6023,50 +6023,50 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.494864</v>
+        <v>-58.473089</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.678826</v>
+        <v>-34.625478</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6103,26 +6103,26 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.473089</v>
+        <v>-58.468841</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.625478</v>
+        <v>-34.686635</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6132,17 +6132,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6179,14 +6179,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.468841</v>
+        <v>-58.375684</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.686635</v>
+        <v>-34.656092</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6198,27 +6198,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>-549</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>14 de Julio 65</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>808749189</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6255,46 +6255,46 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.375684</v>
+        <v>-58.468496</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.656092</v>
+        <v>-34.591282</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-549</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>14 de Julio 65</t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>808749189</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6331,36 +6331,36 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.468496</v>
+        <v>-58.460818</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.591282</v>
+        <v>-34.618934</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6407,10 +6407,10 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.460818</v>
+        <v>-58.460441</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.618934</v>
+        <v>-34.628243</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -6426,27 +6426,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6740</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>809006419</t>
+          <t>ICD30519785</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6456,12 +6456,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
+          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6469,24 +6469,20 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>-58.460441</v>
+        <v>-58.470919</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.628243</v>
+        <v>-34.665309</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6502,27 +6498,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7072</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 4611</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ICD30519785</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6532,12 +6528,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6550,15 +6546,19 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M81" t="n">
-        <v>-58.470919</v>
+        <v>-58.435017</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.665309</v>
+        <v>-34.622044</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6584,17 +6584,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>PINZON 1578</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>809195671</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6622,23 +6622,23 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.435017</v>
+        <v>-58.373428</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.622044</v>
+        <v>-34.63705</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6650,7 +6650,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>-568</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6660,17 +6660,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PINZON 1578</t>
+          <t>Ameghino 523</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>809195671</t>
+          <t>809208239</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada con pelgro de caida</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6707,46 +6707,46 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.373428</v>
+        <v>-58.488424</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.63705</v>
+        <v>-34.642002</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-568</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Ameghino 523</t>
+          <t>HERRERA 1998</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>809208239</t>
+          <t>809268244</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Picada con pelgro de caida</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6779,40 +6779,40 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.488424</v>
+        <v>-58.37456</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.642002</v>
+        <v>-34.649779</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HERRERA 1998</t>
+          <t>SAN ANTONIO 637</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -6822,7 +6822,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>809268244</t>
+          <t>809270751</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6855,14 +6855,14 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.37456</v>
+        <v>-58.37805</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.649779</v>
+        <v>-34.649722</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -6878,17 +6878,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7089</t>
+          <t>7090</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 637</t>
+          <t>SAN ANTONIO 625</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>809270751</t>
+          <t>809270753</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6935,10 +6935,10 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.37805</v>
+        <v>-58.378104</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.649722</v>
+        <v>-34.649578</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7090</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 625</t>
+          <t>SUAREZ AV. 1966</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>809270753</t>
+          <t>809279022</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7011,10 +7011,10 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.378104</v>
+        <v>-58.377974</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.649578</v>
+        <v>-34.641024</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -7040,17 +7040,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SUAREZ AV. 1966</t>
+          <t>VEDIA, AGUSTIN DE 2185</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>809279022</t>
+          <t>809279069</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7087,93 +7087,17 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.377974</v>
+        <v>-58.435511</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.641024</v>
+        <v>-34.644702</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>7096</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>8/28/2025</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>VEDIA, AGUSTIN DE 2185</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>809279069</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>-58.435511</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-34.644702</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3846,7 +3846,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.45789</v>
+        <v>-58.458217</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.565423</v>
+        <v>-34.565043</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3922,27 +3922,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3965,12 +3965,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3979,46 +3979,46 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.458217</v>
+        <v>-58.387847</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.565043</v>
+        <v>-34.587043</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4055,26 +4055,26 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.387847</v>
+        <v>-58.451835</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.587043</v>
+        <v>-34.562646</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4084,17 +4084,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4127,18 +4127,18 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.451835</v>
+        <v>-58.470837</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.562646</v>
+        <v>-34.545751</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4150,7 +4150,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4198,19 +4198,19 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.470837</v>
+        <v>-58.472267</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.545751</v>
+        <v>-34.551163</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4226,27 +4226,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4269,12 +4269,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4283,10 +4283,10 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.472267</v>
+        <v>-58.464144</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.551163</v>
+        <v>-34.541832</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4312,17 +4312,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4359,26 +4359,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.464144</v>
+        <v>-58.434761</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.541832</v>
+        <v>-34.598381</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4388,17 +4388,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4431,30 +4431,30 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.434761</v>
+        <v>-58.464177</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.598381</v>
+        <v>-34.558239</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4464,17 +4464,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4507,50 +4507,50 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.464177</v>
+        <v>-58.412302</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.558239</v>
+        <v>-34.59301</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4565,11 +4565,11 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4587,46 +4587,46 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.412302</v>
+        <v>-58.485056</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.59301</v>
+        <v>-34.555059</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4641,15 +4641,15 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4663,14 +4663,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.485056</v>
+        <v>-58.469783</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.555059</v>
+        <v>-34.599214</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4682,27 +4682,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t xml:space="preserve">ICD30261461 </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4735,50 +4735,50 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.469783</v>
+        <v>-58.487144</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.599214</v>
+        <v>-34.669078</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30261461 </t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4811,50 +4811,50 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.487144</v>
+        <v>-58.49147</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.669078</v>
+        <v>-34.55031</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4867,11 +4867,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
         <v>1</v>
       </c>
@@ -4891,36 +4887,36 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.49147</v>
+        <v>-58.405761</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.55031</v>
+        <v>-34.582476</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4930,7 +4926,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4943,7 +4939,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
@@ -4963,14 +4963,14 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.405761</v>
+        <v>-58.432241</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.582476</v>
+        <v>-34.56642</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4982,7 +4982,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5039,10 +5039,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.432241</v>
+        <v>-58.417348</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.56642</v>
+        <v>-34.595467</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5058,27 +5058,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5111,18 +5111,18 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.417348</v>
+        <v>-58.472311</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.595467</v>
+        <v>-34.654867</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5134,7 +5134,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5144,17 +5144,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5187,30 +5187,30 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.472311</v>
+        <v>-58.450113</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.654867</v>
+        <v>-34.574534</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5220,17 +5220,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5263,18 +5263,18 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.450113</v>
+        <v>-58.484729</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.574534</v>
+        <v>-34.574614</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5286,27 +5286,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6942</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>3 DE FEBRERO 2169</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5339,18 +5339,18 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.484729</v>
+        <v>-58.452583</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.574614</v>
+        <v>-34.558668</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5362,27 +5362,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6942</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 2169</t>
+          <t>CASTAÑARES AV. 5656</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Faltan cargar las fotos del cierre</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5415,50 +5415,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.452583</v>
+        <v>-58.479921</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.558668</v>
+        <v>-34.673021</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 5656</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807965768</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Faltan cargar las fotos del cierre</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5491,50 +5491,50 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.479921</v>
+        <v>-58.510247</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.673021</v>
+        <v>-34.645038</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5567,18 +5567,18 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.510247</v>
+        <v>-58.483145</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.645038</v>
+        <v>-34.557043</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5590,27 +5590,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5647,14 +5647,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.483145</v>
+        <v>-58.496608</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.557043</v>
+        <v>-34.666371</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5666,27 +5666,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5723,46 +5723,46 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.496608</v>
+        <v>-58.422229</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.666371</v>
+        <v>-34.573148</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>808533127</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5795,18 +5795,18 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.422229</v>
+        <v>-58.494864</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.573148</v>
+        <v>-34.678826</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5818,27 +5818,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6481</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DIAZ, CESAR, GRAL. 3520</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>808703875</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5875,10 +5875,10 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.486002</v>
+        <v>-58.473089</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.61821</v>
+        <v>-34.625478</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5894,17 +5894,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -5914,7 +5914,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5947,14 +5947,14 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.494864</v>
+        <v>-58.468841</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.678826</v>
+        <v>-34.686635</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -5970,27 +5970,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6027,46 +6027,46 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.473089</v>
+        <v>-58.375684</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.625478</v>
+        <v>-34.656092</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>-549</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>14 de Julio 65</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>808749189</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6103,46 +6103,46 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.468841</v>
+        <v>-58.468496</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.686635</v>
+        <v>-34.591282</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6179,14 +6179,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.375684</v>
+        <v>-58.460818</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.656092</v>
+        <v>-34.618934</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6198,27 +6198,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-549</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>14 de Julio 65</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>808749189</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6255,46 +6255,46 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.468496</v>
+        <v>-58.460441</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.591282</v>
+        <v>-34.628243</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>ICD30519785</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6304,12 +6304,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6322,19 +6322,15 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>-58.460818</v>
+        <v>-58.470919</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.618934</v>
+        <v>-34.665309</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -6350,27 +6346,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6740</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>809006419</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6385,7 +6381,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6393,24 +6389,24 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.460441</v>
+        <v>-58.435017</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.628243</v>
+        <v>-34.622044</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -6426,27 +6422,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7072</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 4611</t>
+          <t>PINZON 1578</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ICD30519785</t>
+          <t>809195671</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6456,12 +6452,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6474,19 +6470,23 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M80" t="n">
-        <v>-58.470919</v>
+        <v>-58.373428</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.665309</v>
+        <v>-34.63705</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6498,7 +6498,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>-568</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6508,17 +6508,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>Ameghino 523</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>809208239</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>Picada con pelgro de caida</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6546,45 +6546,45 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.435017</v>
+        <v>-58.488424</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.622044</v>
+        <v>-34.642002</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PINZON 1578</t>
+          <t>HERRERA 1998</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>809195671</t>
+          <t>809268244</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6627,14 +6627,14 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.373428</v>
+        <v>-58.37456</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.63705</v>
+        <v>-34.649779</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -6650,27 +6650,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-568</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ameghino 523</t>
+          <t>SAN ANTONIO 637</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>809208239</t>
+          <t>809270751</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada con pelgro de caida</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6707,26 +6707,26 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.488424</v>
+        <v>-58.37805</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.642002</v>
+        <v>-34.649722</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>7090</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HERRERA 1998</t>
+          <t>SAN ANTONIO 625</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>809268244</t>
+          <t>809270753</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6779,14 +6779,14 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.37456</v>
+        <v>-58.378104</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.649779</v>
+        <v>-34.649578</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -6802,17 +6802,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7089</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 637</t>
+          <t>SUAREZ AV. 1966</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -6822,7 +6822,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>809270751</t>
+          <t>809279022</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.37805</v>
+        <v>-58.377974</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.649722</v>
+        <v>-34.641024</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7090</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6888,17 +6888,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 625</t>
+          <t>VEDIA, AGUSTIN DE 2185</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>809270753</t>
+          <t>809279069</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6935,14 +6935,14 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.378104</v>
+        <v>-58.435511</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.649578</v>
+        <v>-34.644702</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6954,27 +6954,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>7106</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>9/1/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SUAREZ AV. 1966</t>
+          <t>MARTI, JOSE 627</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>809279022</t>
+          <t>809371835</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7011,93 +7011,17 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.377974</v>
+        <v>-58.469159</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.641024</v>
+        <v>-34.638898</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>7096</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>8/28/2025</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>VEDIA, AGUSTIN DE 2185</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>809279069</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>-58.435511</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-34.644702</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6346,7 +6346,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6356,17 +6356,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>PINZON 1578</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>809195671</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6394,23 +6394,23 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.435017</v>
+        <v>-58.373428</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.622044</v>
+        <v>-34.63705</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6422,7 +6422,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>-568</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6432,17 +6432,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PINZON 1578</t>
+          <t>Ameghino 523</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>809195671</t>
+          <t>809208239</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada con pelgro de caida</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6479,46 +6479,46 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.373428</v>
+        <v>-58.488424</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.63705</v>
+        <v>-34.642002</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-568</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ameghino 523</t>
+          <t>HERRERA 1998</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>809208239</t>
+          <t>809268244</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada con pelgro de caida</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6551,40 +6551,40 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.488424</v>
+        <v>-58.37456</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.642002</v>
+        <v>-34.649779</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>HERRERA 1998</t>
+          <t>SAN ANTONIO 637</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>809268244</t>
+          <t>809270751</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6627,14 +6627,14 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.37456</v>
+        <v>-58.37805</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.649779</v>
+        <v>-34.649722</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -6650,17 +6650,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7089</t>
+          <t>7090</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 637</t>
+          <t>SAN ANTONIO 625</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>809270751</t>
+          <t>809270753</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6707,10 +6707,10 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.37805</v>
+        <v>-58.378104</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.649722</v>
+        <v>-34.649578</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7090</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 625</t>
+          <t>SUAREZ AV. 1966</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>809270753</t>
+          <t>809279022</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6783,10 +6783,10 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.378104</v>
+        <v>-58.377974</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.649578</v>
+        <v>-34.641024</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6812,17 +6812,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SUAREZ AV. 1966</t>
+          <t>VEDIA, AGUSTIN DE 2185</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>809279022</t>
+          <t>809279069</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6859,14 +6859,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.377974</v>
+        <v>-58.435511</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.641024</v>
+        <v>-34.644702</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6878,17 +6878,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7096</t>
+          <t>7106</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>9/1/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>VEDIA, AGUSTIN DE 2185</t>
+          <t>MARTI, JOSE 627</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>809279069</t>
+          <t>809371835</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6913,7 +6913,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6935,10 +6935,10 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.435511</v>
+        <v>-58.469159</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.644702</v>
+        <v>-34.638898</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -6946,82 +6946,6 @@
         </is>
       </c>
       <c r="P86" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>7106</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>9/1/2025</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>MARTI, JOSE 627</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>809371835</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>-58.469159</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-34.638898</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,6 +6951,82 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>9/2/2025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>GOMEZ, VALENTIN 3648</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>809406164</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>-58.416416</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-34.604812</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1342,7 +1342,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-193</t>
+          <t>-201</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1352,17 +1352,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WASHINGTON /ALT/ 3251</t>
+          <t>MIGUELETES /ALT/ 1007</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>799539971</t>
+          <t>799540497</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
+          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1395,30 +1395,30 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.478272</v>
+        <v>-58.436377</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.558899</v>
+        <v>-34.565075</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-201</t>
+          <t>-202</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1007</t>
+          <t>MIGUELETES /ALT/ 1030</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>799540497</t>
+          <t>799540503</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
+          <t>Recambio de columna - alt correcta 1010</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.436377</v>
+        <v>-58.436601</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.565075</v>
+        <v>-34.565035</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1494,17 +1494,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-202</t>
+          <t>-216</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>5/2/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1030</t>
+          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>799540503</t>
+          <t>784655947</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Recambio de columna - alt correcta 1010</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1547,18 +1547,18 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.436601</v>
+        <v>-58.404652</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.565035</v>
+        <v>-34.58263</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1570,27 +1570,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-216</t>
+          <t>-219</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5/2/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
+          <t>LA PAMPA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>784655947</t>
+          <t>798953875</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1627,46 +1627,46 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.404652</v>
+        <v>-58.458282</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.58263</v>
+        <v>-34.56718</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-219</t>
+          <t>-228</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LA PAMPA /ALT/ 2836</t>
+          <t>ALVAREZ JULIAN /ALT/ 1272</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>798953875</t>
+          <t>800645527</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1703,46 +1703,46 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.458282</v>
+        <v>-58.426725</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.56718</v>
+        <v>-34.5945</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-226</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUBA /ALT/ 2308</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>800502281</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1755,13 +1755,9 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1770,7 +1766,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1779,14 +1775,14 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.456674</v>
+        <v>-58.457158</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.558757</v>
+        <v>-34.605839</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1798,27 +1794,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-228</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11/22/2024</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN /ALT/ 1272</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>800645527</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1833,7 +1829,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1846,7 +1842,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1855,14 +1851,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.426725</v>
+        <v>-58.391153</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.5945</v>
+        <v>-34.624022</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1874,27 +1870,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-254</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/7/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802367713</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1907,9 +1903,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>columna de 114 con nodo y redes nuestra.</t>
+        </is>
+      </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1927,46 +1927,46 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.457158</v>
+        <v>-58.423405</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.605839</v>
+        <v>-34.588075</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1981,11 +1981,11 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1994,23 +1994,23 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.391153</v>
+        <v>-58.42486</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.624022</v>
+        <v>-34.577318</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2022,27 +2022,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SOLER /ALT/ 4517</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>803651203</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2057,11 +2057,11 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>columna de 114 con nodo y redes nuestra.</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2079,46 +2079,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.423405</v>
+        <v>-58.491074</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.588075</v>
+        <v>-34.575623</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2151,50 +2151,50 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.42486</v>
+        <v>-58.525125</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.577318</v>
+        <v>-34.604668</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2231,46 +2231,46 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.491074</v>
+        <v>-58.421964</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.575623</v>
+        <v>-34.586342</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2307,14 +2307,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.525125</v>
+        <v>-58.498493</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.604668</v>
+        <v>-34.581262</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2326,7 +2326,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2336,17 +2336,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2383,36 +2383,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.421964</v>
+        <v>-58.460666</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.586342</v>
+        <v>-34.573823</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2437,15 +2437,15 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2459,10 +2459,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.498493</v>
+        <v>-58.502447</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.581262</v>
+        <v>-34.561008</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2478,27 +2478,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2513,15 +2513,15 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2535,14 +2535,14 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.460666</v>
+        <v>-58.483947</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.573823</v>
+        <v>-34.583207</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2554,7 +2554,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2607,14 +2607,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.502447</v>
+        <v>-58.503673</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.561008</v>
+        <v>-34.586925</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2640,17 +2640,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2687,10 +2687,10 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.483947</v>
+        <v>-58.504455</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.583207</v>
+        <v>-34.579941</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2749,24 +2749,24 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.503673</v>
+        <v>-58.504568</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.586925</v>
+        <v>-34.590534</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.504455</v>
+        <v>-58.503195</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.579941</v>
+        <v>-34.581735</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2915,14 +2915,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.504568</v>
+        <v>-58.493164</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.590534</v>
+        <v>-34.55732</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2934,7 +2934,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2991,10 +2991,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.503195</v>
+        <v>-58.491934</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.581735</v>
+        <v>-34.569348</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3067,14 +3067,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.493164</v>
+        <v>-58.501418</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.55732</v>
+        <v>-34.574363</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3086,7 +3086,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3143,14 +3143,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.491934</v>
+        <v>-58.494584</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.569348</v>
+        <v>-34.554981</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3162,27 +3162,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3197,11 +3197,11 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3215,18 +3215,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.501418</v>
+        <v>-58.465608</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.574363</v>
+        <v>-34.538489</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3238,27 +3238,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3273,15 +3273,15 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3295,14 +3295,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.494584</v>
+        <v>-58.436788</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.554981</v>
+        <v>-34.604014</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3314,27 +3314,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3367,30 +3367,30 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.465608</v>
+        <v>-58.439461</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.538489</v>
+        <v>-34.605744</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3400,17 +3400,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3447,26 +3447,26 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.436788</v>
+        <v>-58.418424</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.604014</v>
+        <v>-34.604463</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>7054</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3476,17 +3476,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>HUMAHUACA 3918</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.439461</v>
+        <v>-58.419694</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.605744</v>
+        <v>-34.602062</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3542,27 +3542,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3599,46 +3599,46 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.418424</v>
+        <v>-58.481834</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.604463</v>
+        <v>-34.560796</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7054</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HUMAHUACA 3918</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3675,26 +3675,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.419694</v>
+        <v>-58.473936</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.602062</v>
+        <v>-34.577346</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3704,17 +3704,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3751,14 +3751,14 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.481834</v>
+        <v>-58.458217</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.560796</v>
+        <v>-34.565043</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3770,27 +3770,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3827,36 +3827,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.473936</v>
+        <v>-58.387847</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.577346</v>
+        <v>-34.587043</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.458217</v>
+        <v>-58.451835</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.565043</v>
+        <v>-34.562646</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3922,27 +3922,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3975,30 +3975,30 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.387847</v>
+        <v>-58.470837</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.587043</v>
+        <v>-34.545751</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4008,17 +4008,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4041,12 +4041,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4055,14 +4055,14 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.451835</v>
+        <v>-58.472267</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.562646</v>
+        <v>-34.551163</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4074,27 +4074,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4127,14 +4127,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.470837</v>
+        <v>-58.464144</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.545751</v>
+        <v>-34.541832</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4150,27 +4150,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4193,12 +4193,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4207,26 +4207,26 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.472267</v>
+        <v>-58.434761</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.551163</v>
+        <v>-34.598381</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4279,14 +4279,14 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.464144</v>
+        <v>-58.464177</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.541832</v>
+        <v>-34.558239</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4312,17 +4312,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4359,14 +4359,14 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.434761</v>
+        <v>-58.412302</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.598381</v>
+        <v>-34.59301</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4378,27 +4378,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4413,11 +4413,11 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4431,14 +4431,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.464177</v>
+        <v>-58.485056</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.558239</v>
+        <v>-34.555059</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -4454,27 +4454,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4511,46 +4511,46 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.412302</v>
+        <v>-58.469783</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.59301</v>
+        <v>-34.599214</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t xml:space="preserve">ICD30261461 </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4565,15 +4565,15 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4583,50 +4583,50 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.485056</v>
+        <v>-58.487144</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.555059</v>
+        <v>-34.669078</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4663,14 +4663,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.469783</v>
+        <v>-58.49147</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.599214</v>
+        <v>-34.55031</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4682,27 +4682,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30261461 </t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4715,17 +4715,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4735,18 +4731,18 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.487144</v>
+        <v>-58.405761</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.669078</v>
+        <v>-34.582476</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4758,27 +4754,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4793,7 +4789,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4815,36 +4811,36 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.49147</v>
+        <v>-58.432241</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.55031</v>
+        <v>-34.56642</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4854,7 +4850,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4867,7 +4863,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+        </is>
+      </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
@@ -4887,14 +4887,14 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.405761</v>
+        <v>-58.417348</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.582476</v>
+        <v>-34.595467</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4906,27 +4906,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4959,18 +4959,18 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.432241</v>
+        <v>-58.472311</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.56642</v>
+        <v>-34.654867</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4982,27 +4982,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5039,26 +5039,26 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.417348</v>
+        <v>-58.450113</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.595467</v>
+        <v>-34.574534</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5068,17 +5068,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5111,50 +5111,50 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.472311</v>
+        <v>-58.484729</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.654867</v>
+        <v>-34.574614</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>CASTAÑARES AV. 5656</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Faltan cargar las fotos del cierre</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5187,50 +5187,50 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.450113</v>
+        <v>-58.479921</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.574534</v>
+        <v>-34.673021</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5267,14 +5267,14 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.484729</v>
+        <v>-58.510247</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.574614</v>
+        <v>-34.645038</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5286,27 +5286,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6942</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 2169</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5343,10 +5343,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.452583</v>
+        <v>-58.483145</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.558668</v>
+        <v>-34.557043</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5362,27 +5362,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 5656</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807965768</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Faltan cargar las fotos del cierre</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5415,50 +5415,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.479921</v>
+        <v>-58.496608</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.673021</v>
+        <v>-34.666371</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5491,50 +5491,50 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.510247</v>
+        <v>-58.422229</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.645038</v>
+        <v>-34.573148</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5567,50 +5567,50 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.483145</v>
+        <v>-58.494864</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.557043</v>
+        <v>-34.678826</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.496608</v>
+        <v>-58.473089</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.666371</v>
+        <v>-34.625478</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5666,27 +5666,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>808533127</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5723,14 +5723,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.422229</v>
+        <v>-58.468841</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.573148</v>
+        <v>-34.686635</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5742,27 +5742,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5795,18 +5795,18 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.494864</v>
+        <v>-58.375684</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.678826</v>
+        <v>-34.656092</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5818,27 +5818,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>-549</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t>14 de Julio 65</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>808749189</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5875,14 +5875,14 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.473089</v>
+        <v>-58.468496</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.625478</v>
+        <v>-34.591282</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -5894,27 +5894,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5951,10 +5951,10 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.468841</v>
+        <v>-58.460818</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.686635</v>
+        <v>-34.618934</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -5970,27 +5970,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6027,14 +6027,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.375684</v>
+        <v>-58.460441</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.656092</v>
+        <v>-34.628243</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6046,27 +6046,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-549</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>14 de Julio 65</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>808749189</t>
+          <t>ICD30519785</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6076,12 +6076,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6094,55 +6094,51 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>-58.468496</v>
+        <v>-58.470919</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.591282</v>
+        <v>-34.665309</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>PINZON 1578</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>809195671</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6179,14 +6175,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.460818</v>
+        <v>-58.373428</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.618934</v>
+        <v>-34.63705</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6198,27 +6194,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>-568</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6740</t>
+          <t>Ameghino 523</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>809006419</t>
+          <t>809208239</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6233,7 +6229,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
+          <t>Picada con pelgro de caida</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6241,7 +6237,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6255,46 +6251,46 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.460441</v>
+        <v>-58.488424</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.628243</v>
+        <v>-34.642002</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7072</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 4611</t>
+          <t>HERRERA 1998</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ICD30519785</t>
+          <t>809268244</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6304,12 +6300,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6322,19 +6318,23 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M78" t="n">
-        <v>-58.470919</v>
+        <v>-58.37456</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.665309</v>
+        <v>-34.649779</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6346,17 +6346,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PINZON 1578</t>
+          <t>SAN ANTONIO 637</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>809195671</t>
+          <t>809270751</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6403,10 +6403,10 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.373428</v>
+        <v>-58.37805</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.63705</v>
+        <v>-34.649722</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -6422,27 +6422,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-568</t>
+          <t>7090</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ameghino 523</t>
+          <t>SAN ANTONIO 625</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>809208239</t>
+          <t>809270753</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Picada con pelgro de caida</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6479,26 +6479,26 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.488424</v>
+        <v>-58.378104</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.642002</v>
+        <v>-34.649578</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HERRERA 1998</t>
+          <t>SUAREZ AV. 1966</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>809268244</t>
+          <t>809279022</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6551,14 +6551,14 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.37456</v>
+        <v>-58.377974</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.649779</v>
+        <v>-34.641024</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -6574,27 +6574,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7089</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 637</t>
+          <t>VEDIA, AGUSTIN DE 2185</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>809270751</t>
+          <t>809279069</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6631,14 +6631,14 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.37805</v>
+        <v>-58.435511</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.649722</v>
+        <v>-34.644702</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6650,27 +6650,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7090</t>
+          <t>7106</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>9/1/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 625</t>
+          <t>MARTI, JOSE 627</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>809270753</t>
+          <t>809371835</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6707,14 +6707,14 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.378104</v>
+        <v>-58.469159</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.649578</v>
+        <v>-34.638898</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6726,27 +6726,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>9/2/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SUAREZ AV. 1966</t>
+          <t>GOMEZ, VALENTIN 3648</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>809279022</t>
+          <t>809406164</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6783,245 +6783,17 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.377974</v>
+        <v>-58.416416</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.641024</v>
+        <v>-34.604812</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>7096</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>8/28/2025</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>VEDIA, AGUSTIN DE 2185</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>809279069</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>-58.435511</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-34.644702</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>7106</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>9/1/2025</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>MARTI, JOSE 627</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>809371835</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>-58.469159</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-34.638898</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>4088</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>9/2/2025</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>GOMEZ, VALENTIN 3648</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>809406164</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>-58.416416</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-34.604812</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1946,27 +1946,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>7141</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>3/18/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>CALVO, CARLOS AV. 4007</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>804161220</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1999,18 +1999,18 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.42486</v>
+        <v>-58.422037</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.577318</v>
+        <v>-34.624729</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2022,27 +2022,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2070,35 +2070,35 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.491074</v>
+        <v>-58.42486</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.575623</v>
+        <v>-34.577318</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2108,17 +2108,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2155,14 +2155,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.525125</v>
+        <v>-58.491074</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.604668</v>
+        <v>-34.575623</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2174,27 +2174,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2231,26 +2231,26 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.421964</v>
+        <v>-58.525125</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.586342</v>
+        <v>-34.604668</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2260,17 +2260,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2307,26 +2307,26 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.498493</v>
+        <v>-58.421964</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.581262</v>
+        <v>-34.586342</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2336,17 +2336,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2383,14 +2383,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.460666</v>
+        <v>-58.498493</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.573823</v>
+        <v>-34.581262</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2763,10 +2763,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.504568</v>
+        <v>-58.503195</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.590534</v>
+        <v>-34.581735</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2839,14 +2839,14 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.503195</v>
+        <v>-58.493164</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.581735</v>
+        <v>-34.55732</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2858,7 +2858,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2915,14 +2915,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.493164</v>
+        <v>-58.491934</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.55732</v>
+        <v>-34.569348</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2934,7 +2934,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2991,10 +2991,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.491934</v>
+        <v>-58.501418</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.569348</v>
+        <v>-34.574363</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3067,14 +3067,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.501418</v>
+        <v>-58.494584</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.574363</v>
+        <v>-34.554981</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3086,27 +3086,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3121,11 +3121,11 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3139,14 +3139,14 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.494584</v>
+        <v>-58.465608</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.554981</v>
+        <v>-34.538489</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3162,27 +3162,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3215,18 +3215,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.465608</v>
+        <v>-58.436788</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.538489</v>
+        <v>-34.604014</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3238,7 +3238,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3248,17 +3248,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3295,26 +3295,26 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.436788</v>
+        <v>-58.439461</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.604014</v>
+        <v>-34.605744</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3324,17 +3324,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.439461</v>
+        <v>-58.418424</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.605744</v>
+        <v>-34.604463</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>7054</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>HUMAHUACA 3918</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3447,10 +3447,10 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.418424</v>
+        <v>-58.419694</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.604463</v>
+        <v>-34.602062</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3466,27 +3466,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7054</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HUMAHUACA 3918</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3523,46 +3523,46 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.419694</v>
+        <v>-58.473936</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.602062</v>
+        <v>-34.577346</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3599,46 +3599,46 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.481834</v>
+        <v>-58.387847</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.560796</v>
+        <v>-34.587043</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3675,10 +3675,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.473936</v>
+        <v>-58.451835</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.577346</v>
+        <v>-34.562646</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3694,27 +3694,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3742,23 +3742,23 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.458217</v>
+        <v>-58.470837</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.565043</v>
+        <v>-34.545751</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3770,27 +3770,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3827,36 +3827,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.387847</v>
+        <v>-58.472267</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.587043</v>
+        <v>-34.551163</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3903,14 +3903,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.451835</v>
+        <v>-58.464144</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.562646</v>
+        <v>-34.541832</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3922,27 +3922,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3975,50 +3975,50 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.470837</v>
+        <v>-58.434761</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.545751</v>
+        <v>-34.598381</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4041,24 +4041,24 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.472267</v>
+        <v>-58.464177</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.551163</v>
+        <v>-34.558239</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4084,17 +4084,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4131,46 +4131,46 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.464144</v>
+        <v>-58.412302</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.541832</v>
+        <v>-34.59301</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4185,11 +4185,11 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4207,46 +4207,46 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.434761</v>
+        <v>-58.485056</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.598381</v>
+        <v>-34.555059</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4279,18 +4279,18 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.464177</v>
+        <v>-58.469783</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.558239</v>
+        <v>-34.599214</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4302,27 +4302,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t xml:space="preserve">ICD30261461 </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4355,18 +4355,18 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.412302</v>
+        <v>-58.487144</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.59301</v>
+        <v>-34.669078</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4378,27 +4378,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4411,13 +4411,9 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Columna de retención (columna más ancha</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4435,46 +4431,46 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.485056</v>
+        <v>-58.405761</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.555059</v>
+        <v>-34.582476</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4489,7 +4485,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4497,7 +4493,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4511,46 +4507,46 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.469783</v>
+        <v>-58.432241</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.599214</v>
+        <v>-34.56642</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30261461 </t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4565,7 +4561,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4573,7 +4569,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4583,18 +4579,18 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.487144</v>
+        <v>-58.417348</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.669078</v>
+        <v>-34.595467</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4606,27 +4602,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4641,7 +4637,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4659,50 +4655,50 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.49147</v>
+        <v>-58.472311</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.55031</v>
+        <v>-34.654867</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4715,7 +4711,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+        </is>
+      </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
@@ -4731,50 +4731,50 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.405761</v>
+        <v>-58.484729</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.582476</v>
+        <v>-34.574614</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>CASTAÑARES AV. 5656</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Faltan cargar las fotos del cierre</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4807,18 +4807,18 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.432241</v>
+        <v>-58.479921</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.56642</v>
+        <v>-34.673021</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4830,27 +4830,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4883,50 +4883,50 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.417348</v>
+        <v>-58.510247</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.595467</v>
+        <v>-34.645038</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4959,50 +4959,50 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.472311</v>
+        <v>-58.483145</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.654867</v>
+        <v>-34.557043</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5039,14 +5039,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.450113</v>
+        <v>-58.496608</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.574534</v>
+        <v>-34.666371</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5058,27 +5058,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5111,40 +5111,40 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.484729</v>
+        <v>-58.422229</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.574614</v>
+        <v>-34.573148</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 5656</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807965768</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Faltan cargar las fotos del cierre</t>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5187,14 +5187,14 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.479921</v>
+        <v>-58.494864</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.673021</v>
+        <v>-34.678826</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5210,27 +5210,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5263,14 +5263,14 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.510247</v>
+        <v>-58.473089</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.645038</v>
+        <v>-34.625478</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5286,27 +5286,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5343,46 +5343,46 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.483145</v>
+        <v>-58.468841</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.557043</v>
+        <v>-34.686635</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5419,46 +5419,46 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.496608</v>
+        <v>-58.375684</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.666371</v>
+        <v>-34.656092</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>808533127</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5495,14 +5495,14 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.422229</v>
+        <v>-58.460818</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.573148</v>
+        <v>-34.618934</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5514,27 +5514,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5567,14 +5567,14 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.494864</v>
+        <v>-58.460441</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.678826</v>
+        <v>-34.628243</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5590,27 +5590,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>ICD30519785</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5620,12 +5620,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5638,55 +5638,51 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>-58.473089</v>
+        <v>-58.470919</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.625478</v>
+        <v>-34.665309</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>PINZON 1578</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>809195671</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5723,14 +5719,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.468841</v>
+        <v>-58.373428</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.686635</v>
+        <v>-34.63705</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5742,27 +5738,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>-568</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>Ameghino 523</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>809208239</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5777,7 +5773,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada con pelgro de caida</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5785,7 +5781,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5799,46 +5795,46 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.375684</v>
+        <v>-58.488424</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.656092</v>
+        <v>-34.642002</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-549</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14 de Julio 65</t>
+          <t>HERRERA 1998</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>808749189</t>
+          <t>809268244</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5853,7 +5849,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5871,50 +5867,50 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.468496</v>
+        <v>-58.37456</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.591282</v>
+        <v>-34.649779</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>SAN ANTONIO 637</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>809270751</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5929,7 +5925,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5951,14 +5947,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.460818</v>
+        <v>-58.37805</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.618934</v>
+        <v>-34.649722</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -5970,27 +5966,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>7090</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6740</t>
+          <t>SAN ANTONIO 625</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>809006419</t>
+          <t>809270753</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6005,7 +6001,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6013,7 +6009,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6027,14 +6023,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.460441</v>
+        <v>-58.378104</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.628243</v>
+        <v>-34.649578</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6046,27 +6042,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7072</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 4611</t>
+          <t>SUAREZ AV. 1966</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ICD30519785</t>
+          <t>809279022</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6076,12 +6072,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6094,19 +6090,23 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M75" t="n">
-        <v>-58.470919</v>
+        <v>-58.377974</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.665309</v>
+        <v>-34.641024</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6118,27 +6118,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PINZON 1578</t>
+          <t>VEDIA, AGUSTIN DE 2185</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>809195671</t>
+          <t>809279069</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6175,14 +6175,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.373428</v>
+        <v>-58.435511</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.63705</v>
+        <v>-34.644702</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6194,27 +6194,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-568</t>
+          <t>7106</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>9/1/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Ameghino 523</t>
+          <t>MARTI, JOSE 627</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>809208239</t>
+          <t>809371835</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada con pelgro de caida</t>
+          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6251,46 +6251,46 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.488424</v>
+        <v>-58.469159</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.642002</v>
+        <v>-34.638898</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>9/2/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>HERRERA 1998</t>
+          <t>GOMEZ, VALENTIN 3648</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>809268244</t>
+          <t>809406164</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6323,477 +6323,21 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.37456</v>
+        <v>-58.416416</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.649779</v>
+        <v>-34.604812</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>7089</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>8/27/2025</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>SAN ANTONIO 637</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>809270751</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>-58.37805</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-34.649722</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>7090</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>8/28/2025</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>SAN ANTONIO 625</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>809270753</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>-58.378104</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-34.649578</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>7091</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>8/28/2025</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>SUAREZ AV. 1966</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>809279022</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>-58.377974</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-34.641024</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>7096</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>8/28/2025</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>VEDIA, AGUSTIN DE 2185</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>809279069</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>-58.435511</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-34.644702</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>7106</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>9/1/2025</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>MARTI, JOSE 627</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>809371835</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>-58.469159</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-34.638898</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>4088</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>9/2/2025</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>GOMEZ, VALENTIN 3648</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>809406164</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>-58.416416</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-34.604812</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6343,6 +6343,78 @@
         </is>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>-581</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>9/4/2025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Praga 1380</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>809432814</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>-58.481608</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-34.587837</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3542,27 +3542,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>AZARA 15</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3599,14 +3599,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.387847</v>
+        <v>-58.372751</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.587043</v>
+        <v>-34.631917</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3618,27 +3618,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3675,26 +3675,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.451835</v>
+        <v>-58.387847</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.562646</v>
+        <v>-34.587043</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3704,17 +3704,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3747,18 +3747,18 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.470837</v>
+        <v>-58.451835</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.545751</v>
+        <v>-34.562646</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3770,7 +3770,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3818,19 +3818,19 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.472267</v>
+        <v>-58.470837</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.551163</v>
+        <v>-34.545751</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3846,27 +3846,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.464144</v>
+        <v>-58.472267</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.541832</v>
+        <v>-34.551163</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3932,17 +3932,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3979,26 +3979,26 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.434761</v>
+        <v>-58.464144</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.598381</v>
+        <v>-34.541832</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4008,17 +4008,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4051,30 +4051,30 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.464177</v>
+        <v>-58.434761</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.558239</v>
+        <v>-34.598381</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4084,17 +4084,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4127,50 +4127,50 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.412302</v>
+        <v>-58.464177</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.59301</v>
+        <v>-34.558239</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4185,11 +4185,11 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4207,46 +4207,46 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.485056</v>
+        <v>-58.412302</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.555059</v>
+        <v>-34.59301</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4261,15 +4261,15 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4283,14 +4283,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.469783</v>
+        <v>-58.485056</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.599214</v>
+        <v>-34.555059</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4302,27 +4302,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30261461 </t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4355,50 +4355,50 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.487144</v>
+        <v>-58.469783</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.669078</v>
+        <v>-34.599214</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t xml:space="preserve">ICD30261461 </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4411,13 +4411,17 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+        </is>
+      </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4427,18 +4431,18 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.405761</v>
+        <v>-58.487144</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.582476</v>
+        <v>-34.669078</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4450,17 +4454,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4470,7 +4474,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4483,11 +4487,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
         <v>1</v>
       </c>
@@ -4507,14 +4507,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.432241</v>
+        <v>-58.405761</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.56642</v>
+        <v>-34.582476</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4526,7 +4526,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.417348</v>
+        <v>-58.432241</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.595467</v>
+        <v>-34.56642</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4602,27 +4602,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4655,18 +4655,18 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.472311</v>
+        <v>-58.417348</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.654867</v>
+        <v>-34.595467</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4678,7 +4678,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4688,17 +4688,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4731,50 +4731,50 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.484729</v>
+        <v>-58.472311</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.574614</v>
+        <v>-34.654867</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 5656</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807965768</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Faltan cargar las fotos del cierre</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4807,50 +4807,50 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.479921</v>
+        <v>-58.484729</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.673021</v>
+        <v>-34.574614</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>CASTAÑARES AV. 5656</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Faltan cargar las fotos del cierre</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4883,40 +4883,40 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.510247</v>
+        <v>-58.479921</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.645038</v>
+        <v>-34.673021</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>6580</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>Ciudad de la Paz 3742</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4926,7 +4926,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808240230</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4963,10 +4963,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.483145</v>
+        <v>-58.470347</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.557043</v>
+        <v>-34.547965</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4982,27 +4982,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>6486</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>BILBAO, FRANCISCO 2442</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808243829</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5039,46 +5039,46 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.496608</v>
+        <v>-58.460522</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.666371</v>
+        <v>-34.635514</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>808533127</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5111,50 +5111,50 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.422229</v>
+        <v>-58.510247</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.573148</v>
+        <v>-34.645038</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>6695</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t>OLAZABAL AV. 4417</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>808373646</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5187,40 +5187,40 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.494864</v>
+        <v>-58.478941</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.678826</v>
+        <v>-34.57242</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5267,14 +5267,14 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.473089</v>
+        <v>-58.483145</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.625478</v>
+        <v>-34.557043</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5286,27 +5286,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5343,36 +5343,36 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.468841</v>
+        <v>-58.496608</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.686635</v>
+        <v>-34.666371</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>6478</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>7/24/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>JUJUY AV. 1647</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>808509387</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.375684</v>
+        <v>-58.401083</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.656092</v>
+        <v>-34.629397</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -5438,27 +5438,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5495,14 +5495,14 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.460818</v>
+        <v>-58.422229</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.618934</v>
+        <v>-34.573148</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5514,27 +5514,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6740</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>809006419</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5567,14 +5567,14 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.460441</v>
+        <v>-58.494864</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.628243</v>
+        <v>-34.678826</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5590,27 +5590,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7072</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 4611</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ICD30519785</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5620,12 +5620,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5638,51 +5638,55 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M69" t="n">
-        <v>-58.470919</v>
+        <v>-58.473089</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.665309</v>
+        <v>-34.625478</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PINZON 1578</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>809195671</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5719,14 +5723,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.373428</v>
+        <v>-58.468841</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.63705</v>
+        <v>-34.686635</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5738,27 +5742,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-568</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ameghino 523</t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>809208239</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5773,7 +5777,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Picada con pelgro de caida</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5781,7 +5785,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5795,46 +5799,46 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.488424</v>
+        <v>-58.375684</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.642002</v>
+        <v>-34.656092</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HERRERA 1998</t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>809268244</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5849,7 +5853,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5867,18 +5871,18 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.37456</v>
+        <v>-58.460818</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.649779</v>
+        <v>-34.618934</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -5890,27 +5894,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7089</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 637</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>809270751</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5925,7 +5929,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5933,7 +5937,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5947,14 +5951,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.37805</v>
+        <v>-58.460441</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.649722</v>
+        <v>-34.628243</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -5966,27 +5970,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7090</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 625</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>809270753</t>
+          <t>ICD30519785</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5996,12 +6000,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6014,23 +6018,19 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>-58.378104</v>
+        <v>-58.470919</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.649578</v>
+        <v>-34.665309</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6042,17 +6042,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SUAREZ AV. 1966</t>
+          <t>PINZON 1578</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>809279022</t>
+          <t>809195671</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6099,10 +6099,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.377974</v>
+        <v>-58.373428</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.641024</v>
+        <v>-34.63705</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -6118,27 +6118,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7096</t>
+          <t>-568</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>VEDIA, AGUSTIN DE 2185</t>
+          <t>Ameghino 523</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>809279069</t>
+          <t>809208239</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada con pelgro de caida</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6175,46 +6175,46 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.435511</v>
+        <v>-58.488424</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.644702</v>
+        <v>-34.642002</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7106</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>9/1/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MARTI, JOSE 627</t>
+          <t>HERRERA 1998</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>809371835</t>
+          <t>809268244</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6247,18 +6247,18 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.469159</v>
+        <v>-58.37456</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.638898</v>
+        <v>-34.649779</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6270,27 +6270,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>4088</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9/2/2025</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>GOMEZ, VALENTIN 3648</t>
+          <t>SAN ANTONIO 637</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>809406164</t>
+          <t>809270751</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6327,14 +6327,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.416416</v>
+        <v>-58.37805</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.604812</v>
+        <v>-34.649722</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6346,70 +6346,450 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>7090</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>8/28/2025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SAN ANTONIO 625</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>809270753</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>-58.378104</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-34.649578</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>8/28/2025</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SUAREZ AV. 1966</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>809279022</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>-58.377974</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-34.641024</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>7096</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>8/28/2025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>VEDIA, AGUSTIN DE 2185</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>809279069</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>-58.435511</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-34.644702</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>7106</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>9/1/2025</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MARTI, JOSE 627</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>809371835</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>-58.469159</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-34.638898</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>9/2/2025</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>GOMEZ, VALENTIN 3648</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>809406164</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>-58.416416</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-34.604812</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>-581</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>9/4/2025</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Praga 1380</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>809432814</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>Cambiar</t>
         </is>
       </c>
-      <c r="I79" t="n">
+      <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="M84" t="n">
         <v>-58.481608</v>
       </c>
-      <c r="N79" t="n">
+      <c r="N84" t="n">
         <v>-34.587837</v>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>Paternal</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="P84" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -3390,27 +3390,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7054</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HUMAHUACA 3918</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3447,46 +3447,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.419694</v>
+        <v>-58.473936</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.602062</v>
+        <v>-34.577346</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>AZARA 15</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3523,46 +3523,46 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.473936</v>
+        <v>-58.372751</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.577346</v>
+        <v>-34.631917</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6180</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/4/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AZARA 15</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>805655333</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3599,14 +3599,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.372751</v>
+        <v>-58.387847</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.631917</v>
+        <v>-34.587043</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3618,27 +3618,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3675,26 +3675,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.387847</v>
+        <v>-58.451835</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.587043</v>
+        <v>-34.562646</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3704,17 +3704,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3747,18 +3747,18 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.451835</v>
+        <v>-58.470837</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.562646</v>
+        <v>-34.545751</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3770,7 +3770,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3818,19 +3818,19 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.470837</v>
+        <v>-58.472267</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.545751</v>
+        <v>-34.551163</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3846,27 +3846,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.472267</v>
+        <v>-58.464144</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.551163</v>
+        <v>-34.541832</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3932,17 +3932,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3979,26 +3979,26 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.464144</v>
+        <v>-58.434761</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.541832</v>
+        <v>-34.598381</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4008,17 +4008,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4051,30 +4051,30 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.434761</v>
+        <v>-58.464177</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.598381</v>
+        <v>-34.558239</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4084,17 +4084,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4127,50 +4127,50 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.464177</v>
+        <v>-58.412302</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.558239</v>
+        <v>-34.59301</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4185,11 +4185,11 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4207,46 +4207,46 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.412302</v>
+        <v>-58.485056</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.59301</v>
+        <v>-34.555059</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4261,15 +4261,15 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4283,14 +4283,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.485056</v>
+        <v>-58.469783</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.555059</v>
+        <v>-34.599214</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4302,27 +4302,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t xml:space="preserve">ICD30261461 </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4355,50 +4355,50 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.469783</v>
+        <v>-58.487144</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.599214</v>
+        <v>-34.669078</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30261461 </t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4411,17 +4411,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4431,18 +4427,18 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.487144</v>
+        <v>-58.405761</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.669078</v>
+        <v>-34.582476</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4454,17 +4450,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4474,7 +4470,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4487,7 +4483,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
@@ -4507,14 +4507,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.405761</v>
+        <v>-58.432241</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.582476</v>
+        <v>-34.56642</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4526,7 +4526,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.432241</v>
+        <v>-58.417348</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.56642</v>
+        <v>-34.595467</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4602,27 +4602,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4655,18 +4655,18 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.417348</v>
+        <v>-58.472311</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.595467</v>
+        <v>-34.654867</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4678,7 +4678,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4688,17 +4688,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4731,40 +4731,40 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.472311</v>
+        <v>-58.484729</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.654867</v>
+        <v>-34.574614</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6580</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>Ciudad de la Paz 3742</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>808240230</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4807,18 +4807,18 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.484729</v>
+        <v>-58.470347</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.574614</v>
+        <v>-34.547965</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4830,27 +4830,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>6486</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 5656</t>
+          <t>BILBAO, FRANCISCO 2442</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807965768</t>
+          <t>808243829</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Faltan cargar las fotos del cierre</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4883,14 +4883,14 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.479921</v>
+        <v>-58.460522</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.673021</v>
+        <v>-34.635514</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6580</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4916,17 +4916,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 3742</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>808240230</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4959,18 +4959,18 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.470347</v>
+        <v>-58.510247</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.547965</v>
+        <v>-34.645038</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4982,27 +4982,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6486</t>
+          <t>6695</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2442</t>
+          <t>OLAZABAL AV. 4417</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>808243829</t>
+          <t>808373646</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5039,46 +5039,46 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.460522</v>
+        <v>-58.478941</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.635514</v>
+        <v>-34.57242</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5111,18 +5111,18 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.510247</v>
+        <v>-58.483145</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.645038</v>
+        <v>-34.557043</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5134,27 +5134,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6695</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>OLAZABAL AV. 4417</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>808373646</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5191,14 +5191,14 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.478941</v>
+        <v>-58.496608</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.57242</v>
+        <v>-34.666371</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5210,27 +5210,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>6478</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/24/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>JUJUY AV. 1647</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808509387</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5267,46 +5267,46 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.483145</v>
+        <v>-58.401083</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.557043</v>
+        <v>-34.629397</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5343,46 +5343,46 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.496608</v>
+        <v>-58.422229</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.666371</v>
+        <v>-34.573148</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6478</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7/24/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>JUJUY AV. 1647</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>808509387</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5415,18 +5415,18 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.401083</v>
+        <v>-58.494864</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.629397</v>
+        <v>-34.678826</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5438,27 +5438,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>808533127</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5495,36 +5495,36 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.422229</v>
+        <v>-58.473089</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.573148</v>
+        <v>-34.625478</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5534,7 +5534,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5567,14 +5567,14 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.494864</v>
+        <v>-58.468841</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.678826</v>
+        <v>-34.686635</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5590,27 +5590,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.473089</v>
+        <v>-58.375684</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.625478</v>
+        <v>-34.656092</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.468841</v>
+        <v>-58.460818</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.686635</v>
+        <v>-34.618934</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5742,27 +5742,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5799,14 +5799,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.375684</v>
+        <v>-58.460441</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.656092</v>
+        <v>-34.628243</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5818,27 +5818,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>ICD30519785</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5848,12 +5848,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5866,19 +5866,15 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>-58.460818</v>
+        <v>-58.470919</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.618934</v>
+        <v>-34.665309</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5894,27 +5890,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6740</t>
+          <t>PINZON 1578</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>809006419</t>
+          <t>809195671</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5929,7 +5925,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5937,7 +5933,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5951,14 +5947,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.460441</v>
+        <v>-58.373428</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.628243</v>
+        <v>-34.63705</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -5970,27 +5966,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7072</t>
+          <t>-568</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 4611</t>
+          <t>Ameghino 523</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ICD30519785</t>
+          <t>809208239</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6000,12 +5996,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
+          <t>Picada con pelgro de caida</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6018,41 +6014,45 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M74" t="n">
-        <v>-58.470919</v>
+        <v>-58.488424</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.665309</v>
+        <v>-34.642002</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PINZON 1578</t>
+          <t>HERRERA 1998</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>809195671</t>
+          <t>809268244</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6095,14 +6095,14 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.373428</v>
+        <v>-58.37456</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.63705</v>
+        <v>-34.649779</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -6118,27 +6118,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-568</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ameghino 523</t>
+          <t>SAN ANTONIO 637</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>809208239</t>
+          <t>809270751</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada con pelgro de caida</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6175,26 +6175,26 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.488424</v>
+        <v>-58.37805</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.642002</v>
+        <v>-34.649722</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>7090</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>HERRERA 1998</t>
+          <t>SAN ANTONIO 625</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>809268244</t>
+          <t>809270753</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6247,14 +6247,14 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.37456</v>
+        <v>-58.378104</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.649779</v>
+        <v>-34.649578</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -6270,17 +6270,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7089</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 637</t>
+          <t>SUAREZ AV. 1966</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>809270751</t>
+          <t>809279022</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6327,10 +6327,10 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.37805</v>
+        <v>-58.377974</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.649722</v>
+        <v>-34.641024</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7090</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6356,17 +6356,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 625</t>
+          <t>VEDIA, AGUSTIN DE 2185</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>809270753</t>
+          <t>809279069</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6403,14 +6403,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.378104</v>
+        <v>-58.435511</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.649578</v>
+        <v>-34.644702</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6422,27 +6422,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>7106</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>9/1/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SUAREZ AV. 1966</t>
+          <t>MARTI, JOSE 627</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>809279022</t>
+          <t>809371835</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6479,14 +6479,14 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.377974</v>
+        <v>-58.469159</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.641024</v>
+        <v>-34.638898</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6498,27 +6498,23 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7096</t>
+          <t>-581</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>9/4/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>VEDIA, AGUSTIN DE 2185</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>Praga 1380</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>809279069</t>
+          <t>809432814</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6537,7 +6533,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6555,241 +6551,17 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.435511</v>
+        <v>-58.481608</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.644702</v>
+        <v>-34.587837</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>7106</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>9/1/2025</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>MARTI, JOSE 627</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>809371835</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>-58.469159</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-34.638898</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>4088</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>9/2/2025</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>GOMEZ, VALENTIN 3648</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>809406164</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>-58.416416</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-34.604812</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>-581</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>9/4/2025</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Praga 1380</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>809432814</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>-58.481608</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-34.587837</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1946,27 +1946,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7141</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/18/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 4007</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804161220</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2003,46 +2003,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.422037</v>
+        <v>-58.496255</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.624729</v>
+        <v>-34.650599</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>7141</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>3/18/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>CALVO, CARLOS AV. 4007</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>804161220</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2075,18 +2075,18 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.42486</v>
+        <v>-58.422037</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.577318</v>
+        <v>-34.624729</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2098,27 +2098,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2146,35 +2146,35 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.491074</v>
+        <v>-58.42486</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.575623</v>
+        <v>-34.577318</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2184,17 +2184,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2217,12 +2217,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2231,14 +2231,14 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.525125</v>
+        <v>-58.491074</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.604668</v>
+        <v>-34.575623</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2250,27 +2250,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2307,26 +2307,26 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.421964</v>
+        <v>-58.525125</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.586342</v>
+        <v>-34.604668</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2336,17 +2336,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2383,36 +2383,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.498493</v>
+        <v>-58.421964</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.581262</v>
+        <v>-34.586342</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2437,15 +2437,15 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2459,10 +2459,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.502447</v>
+        <v>-58.498493</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.561008</v>
+        <v>-34.581262</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2488,17 +2488,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.483947</v>
+        <v>-58.502447</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.583207</v>
+        <v>-34.561008</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2564,17 +2564,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2607,14 +2607,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.503673</v>
+        <v>-58.483947</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.586925</v>
+        <v>-34.583207</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2683,14 +2683,14 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.504455</v>
+        <v>-58.503673</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.579941</v>
+        <v>-34.586925</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2763,10 +2763,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.503195</v>
+        <v>-58.504455</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.581735</v>
+        <v>-34.579941</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2839,14 +2839,14 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.493164</v>
+        <v>-58.503195</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.55732</v>
+        <v>-34.581735</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2858,7 +2858,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2915,14 +2915,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.491934</v>
+        <v>-58.493164</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.569348</v>
+        <v>-34.55732</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2934,7 +2934,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2991,10 +2991,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.501418</v>
+        <v>-58.491934</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.574363</v>
+        <v>-34.569348</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3067,14 +3067,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.494584</v>
+        <v>-58.501418</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.554981</v>
+        <v>-34.574363</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3086,27 +3086,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3121,11 +3121,11 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3139,14 +3139,14 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.465608</v>
+        <v>-58.494584</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.538489</v>
+        <v>-34.554981</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3162,27 +3162,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3215,18 +3215,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.436788</v>
+        <v>-58.465608</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.604014</v>
+        <v>-34.538489</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3238,7 +3238,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3248,17 +3248,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3295,26 +3295,26 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.439461</v>
+        <v>-58.436788</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.605744</v>
+        <v>-34.604014</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3324,17 +3324,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.418424</v>
+        <v>-58.439461</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.604463</v>
+        <v>-34.605744</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3390,27 +3390,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3447,46 +3447,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.473936</v>
+        <v>-58.418424</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.577346</v>
+        <v>-34.604463</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6180</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/4/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AZARA 15</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805655333</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3523,46 +3523,46 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.372751</v>
+        <v>-58.473936</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.631917</v>
+        <v>-34.577346</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>AZARA 15</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3599,14 +3599,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.387847</v>
+        <v>-58.372751</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.587043</v>
+        <v>-34.631917</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3618,27 +3618,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3675,26 +3675,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.451835</v>
+        <v>-58.387847</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.562646</v>
+        <v>-34.587043</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3704,17 +3704,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3747,18 +3747,18 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.470837</v>
+        <v>-58.451835</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.545751</v>
+        <v>-34.562646</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3770,7 +3770,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3818,19 +3818,19 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.472267</v>
+        <v>-58.470837</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.551163</v>
+        <v>-34.545751</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3846,27 +3846,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.464144</v>
+        <v>-58.472267</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.541832</v>
+        <v>-34.551163</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3932,17 +3932,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3979,26 +3979,26 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.434761</v>
+        <v>-58.464144</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.598381</v>
+        <v>-34.541832</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4008,17 +4008,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4051,30 +4051,30 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.464177</v>
+        <v>-58.434761</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.558239</v>
+        <v>-34.598381</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4084,17 +4084,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4127,50 +4127,50 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.412302</v>
+        <v>-58.464177</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.59301</v>
+        <v>-34.558239</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4185,11 +4185,11 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4207,19 +4207,19 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.485056</v>
+        <v>-58.412302</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.555059</v>
+        <v>-34.59301</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
@@ -5058,27 +5058,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5115,14 +5115,14 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.483145</v>
+        <v>-58.496608</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.557043</v>
+        <v>-34.666371</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5134,27 +5134,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>6478</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/24/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>JUJUY AV. 1647</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808509387</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5191,46 +5191,46 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.496608</v>
+        <v>-58.401083</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.666371</v>
+        <v>-34.629397</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6478</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7/24/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>JUJUY AV. 1647</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>808509387</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5267,14 +5267,14 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.401083</v>
+        <v>-58.422229</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.629397</v>
+        <v>-34.573148</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5286,27 +5286,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>808533127</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5339,18 +5339,18 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.422229</v>
+        <v>-58.494864</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.573148</v>
+        <v>-34.678826</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5362,27 +5362,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5415,50 +5415,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.494864</v>
+        <v>-58.473089</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.678826</v>
+        <v>-34.625478</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5495,26 +5495,26 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.473089</v>
+        <v>-58.468841</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.625478</v>
+        <v>-34.686635</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5524,17 +5524,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5571,14 +5571,14 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.468841</v>
+        <v>-58.375684</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.686635</v>
+        <v>-34.656092</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5590,27 +5590,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5647,14 +5647,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.375684</v>
+        <v>-58.460818</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.656092</v>
+        <v>-34.618934</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5666,17 +5666,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.460818</v>
+        <v>-58.460441</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.618934</v>
+        <v>-34.628243</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5742,27 +5742,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6740</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>809006419</t>
+          <t>ICD30519785</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
+          <t xml:space="preserve">Ya se traspaso nodo retirar columna ICD30462144 fue la cocacion </t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5785,24 +5785,20 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>-58.460441</v>
+        <v>-58.470919</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.628243</v>
+        <v>-34.665309</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -5818,27 +5814,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7072</t>
+          <t>7149</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 4611</t>
+          <t>QUITO 3666</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ICD30519785</t>
+          <t>809168441</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5848,12 +5844,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5866,19 +5862,23 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M72" t="n">
-        <v>-58.470919</v>
+        <v>-58.41791</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.665309</v>
+        <v>-34.616706</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -5966,7 +5966,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-568</t>
+          <t>7162</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ameghino 523</t>
+          <t>AMEGHINO, FLORENTINO, DR. 525</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -6042,27 +6042,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>7157</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HERRERA 1998</t>
+          <t>CALVO, CARLOS 1750</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>809268244</t>
+          <t>809257762</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6095,14 +6095,14 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.37456</v>
+        <v>-58.390806</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.649779</v>
+        <v>-34.620213</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -6118,17 +6118,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7089</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 637</t>
+          <t>HERRERA 1998</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>809270751</t>
+          <t>809268244</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6171,14 +6171,14 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.37805</v>
+        <v>-58.37456</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.649722</v>
+        <v>-34.649779</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -6194,17 +6194,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7090</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 625</t>
+          <t>SAN ANTONIO 637</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>809270753</t>
+          <t>809270751</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6251,10 +6251,10 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.378104</v>
+        <v>-58.37805</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.649578</v>
+        <v>-34.649722</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>7090</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SUAREZ AV. 1966</t>
+          <t>SAN ANTONIO 625</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>809279022</t>
+          <t>809270753</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6327,10 +6327,10 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.377974</v>
+        <v>-58.378104</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.641024</v>
+        <v>-34.649578</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7096</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6356,17 +6356,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>VEDIA, AGUSTIN DE 2185</t>
+          <t>SUAREZ AV. 1966</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>809279069</t>
+          <t>809279022</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6403,14 +6403,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.435511</v>
+        <v>-58.377974</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.644702</v>
+        <v>-34.641024</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6422,17 +6422,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7106</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>9/1/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MARTI, JOSE 627</t>
+          <t>VEDIA, AGUSTIN DE 2185</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>809371835</t>
+          <t>809279069</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6479,10 +6479,10 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.469159</v>
+        <v>-58.435511</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.638898</v>
+        <v>-34.644702</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6562,6 +6562,158 @@
         </is>
       </c>
       <c r="P81" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>7166</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>9/5/2025</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>BRIN, MINISTRO 1259</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>809492876</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>-58.355919</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-34.634597</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>7169</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>9/5/2025</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SAN NICOLAS 5045</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>809492980</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Poste quebrado</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>-58.515637</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-34.589993</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6719,6 +6719,158 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>-583</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>9/8/2025</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Av Eva Perón 1145</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>809504290</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>-58.441547</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-34.630481</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>-584</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>9/8/2025</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>General Gregorio Aráoz de Lamadrid 865</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>809504300</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Columna colgando</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>-58.364566</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-34.639404</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,27 +518,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>801645051</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12/13/2024</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Estomba 907</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>801645051</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aplomar uno de los postes y desmontar el que esta en desuso</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -561,60 +561,60 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.464756</v>
+        <v>-58.391153</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.582693</v>
+        <v>-34.624022</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>801645141</t>
+          <t>7184</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12/13/2024</t>
+          <t>9/8/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fraga 1501</t>
+          <t>VALLEJOS 2221</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>801645141</t>
+          <t>809526160</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -629,15 +629,15 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aplomar poste de 14 mts</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -647,18 +647,18 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.464984</v>
+        <v>-58.493225</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.582783</v>
+        <v>-34.583095</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -670,27 +670,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>7177</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1/5/2024</t>
+          <t>9/8/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FIGUEROA ALCORTA PTE ,AV. /ALT/ 5600</t>
+          <t>LUGONES 2830</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>777580740</t>
+          <t>809526156</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -705,11 +705,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Es F. ALCORTA 5600 (pasando Av de los ombues 100mts aprox.) Para cambiar es un poste con muchas rajaduras, en Figueroa Alcorta esq. Av de los Ombues</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -723,50 +723,50 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.425911</v>
+        <v>-58.482786</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.56033</v>
+        <v>-34.56748</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6968</t>
+          <t>7174</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1/13/2024</t>
+          <t>9/8/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SANTA FE AV. 5154</t>
+          <t>FERNANDEZ BLANCO 2320</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>777843837</t>
+          <t>809526154</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -803,46 +803,46 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.432658</v>
+        <v>-58.481983</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.576446</v>
+        <v>-34.573931</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>7171</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1/15/2024</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DARWIN /ALT/ 651</t>
+          <t>OLAZABAL AV. 5531</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>777863458</t>
+          <t>809268253</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -855,9 +855,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -875,10 +879,10 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.44467</v>
+        <v>-58.491028</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.593784</v>
+        <v>-34.579381</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -894,27 +898,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>7169</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2/21/2024</t>
+          <t>9/5/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>VEGA CNEL NICETO /ALT/ 4984</t>
+          <t>SAN NICOLAS 5045</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>780352873</t>
+          <t>809492980</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -929,11 +933,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Recambio de columna</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,50 +951,50 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.433253</v>
+        <v>-58.515637</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.591026</v>
+        <v>-34.589993</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-103</t>
+          <t>7166</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6/12/2024</t>
+          <t>9/5/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SALGUERO JERONIMO /ALT/ 2533</t>
+          <t>BRIN, MINISTRO 1259</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>788206681</t>
+          <t>809492876</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1005,11 +1009,11 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Altura correcta 2549</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1027,14 +1031,14 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.409971</v>
+        <v>-58.355919</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.58175</v>
+        <v>-34.634597</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1046,27 +1050,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-118</t>
+          <t>7157</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/15/2024</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
+          <t>CALVO, CARLOS 1750</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>793333193</t>
+          <t>809257762</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1081,11 +1085,11 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Retirar columna vieja, nodo ya traspasado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1094,7 +1098,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1103,46 +1107,46 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.445523</v>
+        <v>-58.390806</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.558237</v>
+        <v>-34.620213</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-143</t>
+          <t>7149</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/7/2024</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
+          <t>QUITO 3666</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>797752816</t>
+          <t>809168441</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1152,12 +1156,16 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1166,7 +1174,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1175,46 +1183,46 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.458864</v>
+        <v>-58.41791</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.561167</v>
+        <v>-34.616706</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-152</t>
+          <t>7141</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>3/18/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
+          <t>CALVO, CARLOS AV. 4007</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>798984311</t>
+          <t>804161220</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1229,11 +1237,11 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>El poste esta pegado al arbol ver la foto adjunta</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1247,50 +1255,50 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.513363</v>
+        <v>-58.422037</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.605473</v>
+        <v>-34.624729</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-160</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MORAN PEDRO /ALT/ 3100</t>
+          <t>VEDIA, AGUSTIN DE 2185</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>798984905</t>
+          <t>809279069</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1303,9 +1311,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1319,50 +1331,50 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.498724</v>
+        <v>-58.435511</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.594329</v>
+        <v>-34.644702</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-201</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1007</t>
+          <t>SUAREZ AV. 1966</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>799540497</t>
+          <t>809279022</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1377,11 +1389,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1395,18 +1407,18 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.436377</v>
+        <v>-58.377974</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.565075</v>
+        <v>-34.641024</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1418,27 +1430,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-202</t>
+          <t>7090</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1030</t>
+          <t>SAN ANTONIO 625</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>799540503</t>
+          <t>809270753</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1453,11 +1465,11 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Recambio de columna - alt correcta 1010</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1471,18 +1483,18 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.436601</v>
+        <v>-58.378104</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.565035</v>
+        <v>-34.649578</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1494,27 +1506,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-216</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5/2/2024</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
+          <t>SAN ANTONIO 637</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>784655947</t>
+          <t>809270751</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1533,7 +1545,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1551,14 +1563,14 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.404652</v>
+        <v>-58.37805</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.58263</v>
+        <v>-34.649722</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1570,27 +1582,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-219</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LA PAMPA /ALT/ 2836</t>
+          <t>HERRERA 1998</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>798953875</t>
+          <t>809268244</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1605,11 +1617,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1623,50 +1635,50 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.458282</v>
+        <v>-58.37456</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.56718</v>
+        <v>-34.649779</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-228</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/22/2024</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN /ALT/ 1272</t>
+          <t>PINZON 1578</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>800645527</t>
+          <t>809195671</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1681,11 +1693,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1703,14 +1715,14 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.426725</v>
+        <v>-58.373428</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.5945</v>
+        <v>-34.63705</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1722,27 +1734,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-254</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1/7/2025</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>802367713</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1755,18 +1767,22 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
+        </is>
+      </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1775,46 +1791,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.457158</v>
+        <v>-58.460441</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.605839</v>
+        <v>-34.628243</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>6968</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>1/13/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>SANTA FE AV. 5154</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>777843837</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1824,16 +1840,16 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1842,7 +1858,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1851,14 +1867,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.391153</v>
+        <v>-58.432658</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.624022</v>
+        <v>-34.576446</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1870,27 +1886,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SOLER /ALT/ 4517</t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>803651203</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1905,11 +1921,11 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>columna de 114 con nodo y redes nuestra.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1918,7 +1934,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1927,14 +1943,14 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.423405</v>
+        <v>-58.460818</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.588075</v>
+        <v>-34.618934</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1946,27 +1962,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>6695</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>OLAZABAL AV. 4417</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>808373646</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1981,7 +1997,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2003,14 +2019,14 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.496255</v>
+        <v>-58.478941</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.650599</v>
+        <v>-34.57242</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2022,27 +2038,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7141</t>
+          <t>6580</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/18/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 4007</t>
+          <t>Ciudad de la Paz 3742</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804161220</t>
+          <t>808240230</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2079,46 +2095,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.422037</v>
+        <v>-58.470347</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.624729</v>
+        <v>-34.547965</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2133,7 +2149,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2141,7 +2157,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2151,18 +2167,18 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.42486</v>
+        <v>-58.375684</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.577318</v>
+        <v>-34.656092</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2174,27 +2190,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2209,7 +2225,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2222,7 +2238,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2231,46 +2247,46 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.491074</v>
+        <v>-58.468841</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.575623</v>
+        <v>-34.686635</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2285,7 +2301,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2293,7 +2309,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2303,40 +2319,40 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.525125</v>
+        <v>-58.494864</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.604668</v>
+        <v>-34.678826</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2346,7 +2362,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2361,7 +2377,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2369,7 +2385,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2383,10 +2399,10 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.421964</v>
+        <v>-58.422229</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.586342</v>
+        <v>-34.573148</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2402,27 +2418,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>6478</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>7/24/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>JUJUY AV. 1647</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>808509387</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2437,7 +2453,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2445,7 +2461,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2459,46 +2475,46 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.498493</v>
+        <v>-58.401083</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.581262</v>
+        <v>-34.629397</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2513,15 +2529,15 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2531,18 +2547,18 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.502447</v>
+        <v>-58.510247</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.561008</v>
+        <v>-34.645038</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2554,27 +2570,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2589,15 +2605,15 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2611,14 +2627,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.483947</v>
+        <v>-58.473089</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.583207</v>
+        <v>-34.625478</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2630,27 +2646,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2665,11 +2681,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2683,50 +2699,50 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.503673</v>
+        <v>-58.472311</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.586925</v>
+        <v>-34.654867</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>AZARA 15</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2741,15 +2757,15 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2763,46 +2779,46 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.504455</v>
+        <v>-58.372751</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.579941</v>
+        <v>-34.631917</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2817,15 +2833,15 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2839,14 +2855,14 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.503195</v>
+        <v>-58.496255</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.581735</v>
+        <v>-34.650599</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2858,27 +2874,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-584</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>9/8/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>General Gregorio Aráoz de Lamadrid 865</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>809504300</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2893,15 +2909,15 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Columna colgando</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2915,46 +2931,46 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.493164</v>
+        <v>-58.364566</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.55732</v>
+        <v>-34.639404</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-583</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>9/8/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>Av Eva Perón 1145</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>809504290</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2969,11 +2985,11 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2991,46 +3007,42 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.491934</v>
+        <v>-58.441547</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.569348</v>
+        <v>-34.630481</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-581</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>9/4/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+          <t>Praga 1380</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>809432814</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3045,7 +3057,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3053,7 +3065,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3067,10 +3079,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.501418</v>
+        <v>-58.481608</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.574363</v>
+        <v>-34.587837</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3086,7 +3098,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3096,17 +3108,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3121,11 +3133,11 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3143,14 +3155,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.494584</v>
+        <v>-58.525125</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.554981</v>
+        <v>-34.604668</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3162,27 +3174,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3197,7 +3209,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3205,7 +3217,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3215,18 +3227,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.465608</v>
+        <v>-58.496608</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.538489</v>
+        <v>-34.666371</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3238,27 +3250,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3273,7 +3285,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3291,14 +3303,14 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.436788</v>
+        <v>-58.484729</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.604014</v>
+        <v>-34.574614</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3314,27 +3326,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3349,7 +3361,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3357,7 +3369,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3371,14 +3383,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.439461</v>
+        <v>-58.417348</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.605744</v>
+        <v>-34.595467</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3390,27 +3402,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3447,14 +3459,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.418424</v>
+        <v>-58.432241</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.604463</v>
+        <v>-34.56642</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3466,27 +3478,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3499,17 +3511,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3523,46 +3531,46 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.473936</v>
+        <v>-58.405761</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.577346</v>
+        <v>-34.582476</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6180</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/4/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AZARA 15</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>805655333</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3577,7 +3585,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3599,14 +3607,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.372751</v>
+        <v>-58.412302</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.631917</v>
+        <v>-34.59301</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3618,27 +3626,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3653,7 +3661,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3671,50 +3679,50 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.387847</v>
+        <v>-58.464177</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.587043</v>
+        <v>-34.558239</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3729,7 +3737,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3751,46 +3759,46 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.451835</v>
+        <v>-58.434761</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.562646</v>
+        <v>-34.598381</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3805,7 +3813,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3813,7 +3821,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3823,14 +3831,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.470837</v>
+        <v>-58.464144</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.545751</v>
+        <v>-34.541832</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3846,27 +3854,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>12/21/2024</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>MERCEDES 254</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>801901755</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3881,7 +3889,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Colocar R200 para pedir traspaso de equipo</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3889,12 +3897,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3903,14 +3911,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.472267</v>
+        <v>-58.484232</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.551163</v>
+        <v>-34.631431</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3922,27 +3930,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3957,7 +3965,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3965,12 +3973,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3979,10 +3987,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.464144</v>
+        <v>-58.472267</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.541832</v>
+        <v>-34.551163</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3998,27 +4006,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4033,7 +4041,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4041,7 +4049,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4051,40 +4059,40 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.434761</v>
+        <v>-58.470837</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.598381</v>
+        <v>-34.545751</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4094,7 +4102,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4104,12 +4112,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4122,23 +4130,23 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.464177</v>
+        <v>-58.451835</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.558239</v>
+        <v>-34.562646</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4150,17 +4158,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4170,7 +4178,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4185,7 +4193,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4207,14 +4215,14 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.412302</v>
+        <v>-58.387847</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.59301</v>
+        <v>-34.587043</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4226,27 +4234,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4261,7 +4269,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4283,14 +4291,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.469783</v>
+        <v>-58.473936</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.599214</v>
+        <v>-34.577346</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4302,27 +4310,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30261461 </t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4337,7 +4345,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4345,7 +4353,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4355,18 +4363,18 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.487144</v>
+        <v>-58.418424</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.669078</v>
+        <v>-34.604463</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4378,27 +4386,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4411,13 +4419,17 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+        </is>
+      </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4431,14 +4443,14 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.405761</v>
+        <v>-58.439461</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.582476</v>
+        <v>-34.605744</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4450,27 +4462,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4485,7 +4497,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4507,46 +4519,46 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.432241</v>
+        <v>-58.436788</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.56642</v>
+        <v>-34.604014</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4561,7 +4573,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4569,7 +4581,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4579,50 +4591,50 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.417348</v>
+        <v>-58.465608</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.595467</v>
+        <v>-34.538489</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4637,15 +4649,15 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4655,40 +4667,40 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.472311</v>
+        <v>-58.494584</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.654867</v>
+        <v>-34.554981</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4698,7 +4710,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4713,15 +4725,15 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4731,14 +4743,14 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.484729</v>
+        <v>-58.501418</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.574614</v>
+        <v>-34.574363</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -4754,17 +4766,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6580</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 3742</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4774,7 +4786,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>808240230</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4789,11 +4801,11 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4811,14 +4823,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.470347</v>
+        <v>-58.491934</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.547965</v>
+        <v>-34.569348</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4830,27 +4842,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6486</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2442</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>808243829</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4865,15 +4877,15 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4887,46 +4899,46 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.460522</v>
+        <v>-58.493164</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.635514</v>
+        <v>-34.55732</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4941,11 +4953,11 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4959,18 +4971,18 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.510247</v>
+        <v>-58.503195</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.645038</v>
+        <v>-34.581735</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4982,17 +4994,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6695</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>OLAZABAL AV. 4417</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5002,7 +5014,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>808373646</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5017,15 +5029,15 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5039,14 +5051,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.478941</v>
+        <v>-58.504455</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.57242</v>
+        <v>-34.579941</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5058,27 +5070,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5093,11 +5105,11 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5111,18 +5123,18 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.496608</v>
+        <v>-58.503673</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.666371</v>
+        <v>-34.586925</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5134,27 +5146,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6478</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7/24/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>JUJUY AV. 1647</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>808509387</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5169,15 +5181,15 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5191,46 +5203,46 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.401083</v>
+        <v>-58.483947</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.629397</v>
+        <v>-34.583207</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>808533127</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5245,15 +5257,15 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5267,46 +5279,46 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.422229</v>
+        <v>-58.502447</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.573148</v>
+        <v>-34.561008</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5321,7 +5333,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5329,7 +5341,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5339,50 +5351,50 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.494864</v>
+        <v>-58.498493</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.678826</v>
+        <v>-34.581262</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5397,7 +5409,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5419,46 +5431,46 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.473089</v>
+        <v>-58.421964</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.625478</v>
+        <v>-34.586342</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5473,7 +5485,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5486,7 +5498,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5495,46 +5507,46 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.468841</v>
+        <v>-58.491074</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.686635</v>
+        <v>-34.575623</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5549,7 +5561,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5557,7 +5569,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5567,18 +5579,18 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.375684</v>
+        <v>-58.42486</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.656092</v>
+        <v>-34.577318</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5590,27 +5602,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>2/21/2024</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>VEGA CNEL NICETO /ALT/ 4984</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>780352873</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5625,11 +5637,11 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Recambio de columna</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5647,14 +5659,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.460818</v>
+        <v>-58.433253</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.618934</v>
+        <v>-34.591026</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5666,27 +5678,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>1/5/2024</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6740</t>
+          <t>FIGUEROA ALCORTA PTE ,AV. /ALT/ 5600</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>809006419</t>
+          <t>777580740</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5701,15 +5713,15 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
+          <t>Es F. ALCORTA 5600 (pasando Av de los ombues 100mts aprox.) Para cambiar es un poste con muchas rajaduras, en Figueroa Alcorta esq. Av de los Ombues</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5719,18 +5731,18 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.460441</v>
+        <v>-58.425911</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.628243</v>
+        <v>-34.56033</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5742,27 +5754,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7072</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 4611</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ICD30519785</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5777,11 +5789,11 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ya se traspaso nodo retirar columna ICD30462144 fue la cocacion </t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5790,19 +5802,23 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
+          <t>Nodo/Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M71" t="n">
-        <v>-58.470919</v>
+        <v>-58.423405</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.665309</v>
+        <v>-34.588075</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5814,27 +5830,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7149</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>QUITO 3666</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>809168441</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5847,11 +5863,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
         <v>1</v>
       </c>
@@ -5862,7 +5874,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5871,46 +5883,46 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.41791</v>
+        <v>-58.457158</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.616706</v>
+        <v>-34.605839</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>-228</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PINZON 1578</t>
+          <t>ALVAREZ JULIAN /ALT/ 1272</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>809195671</t>
+          <t>800645527</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5925,11 +5937,11 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5947,14 +5959,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.373428</v>
+        <v>-58.426725</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.63705</v>
+        <v>-34.5945</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -5966,27 +5978,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7162</t>
+          <t>-219</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>AMEGHINO, FLORENTINO, DR. 525</t>
+          <t>LA PAMPA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>809208239</t>
+          <t>798953875</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6001,11 +6013,11 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Picada con pelgro de caida</t>
+          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6023,14 +6035,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.488424</v>
+        <v>-58.458282</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.642002</v>
+        <v>-34.56718</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6042,27 +6054,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7157</t>
+          <t>-216</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>5/2/2024</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1750</t>
+          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>809257762</t>
+          <t>784655947</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6077,11 +6089,11 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6099,14 +6111,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.390806</v>
+        <v>-58.404652</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.620213</v>
+        <v>-34.58263</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6118,27 +6130,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>-202</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>HERRERA 1998</t>
+          <t>MIGUELETES /ALT/ 1030</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>809268244</t>
+          <t>799540503</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6153,11 +6165,11 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Recambio de columna - alt correcta 1010</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6175,14 +6187,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.37456</v>
+        <v>-58.436601</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.649779</v>
+        <v>-34.565035</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6194,27 +6206,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7089</t>
+          <t>-201</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 637</t>
+          <t>MIGUELETES /ALT/ 1007</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>809270751</t>
+          <t>799540497</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6229,11 +6241,11 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6247,18 +6259,18 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.37805</v>
+        <v>-58.436377</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.649722</v>
+        <v>-34.565075</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6270,27 +6282,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7090</t>
+          <t>-160</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 625</t>
+          <t>MORAN PEDRO /ALT/ 3100</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>809270753</t>
+          <t>798984905</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6303,13 +6315,9 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6323,50 +6331,50 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.378104</v>
+        <v>-58.498724</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.649578</v>
+        <v>-34.594329</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>-152</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SUAREZ AV. 1966</t>
+          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>809279022</t>
+          <t>798984311</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6381,11 +6389,11 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>El poste esta pegado al arbol ver la foto adjunta</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6399,50 +6407,50 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.377974</v>
+        <v>-58.513363</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.641024</v>
+        <v>-34.605473</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7096</t>
+          <t>-143</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>10/7/2024</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>VEDIA, AGUSTIN DE 2185</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>809279069</t>
+          <t>797752816</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6452,16 +6460,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6470,7 +6474,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6479,42 +6483,46 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.435511</v>
+        <v>-58.458864</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.644702</v>
+        <v>-34.561167</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-581</t>
+          <t>-118</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>9/4/2025</t>
+          <t>8/15/2024</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Praga 1380</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>809432814</t>
+          <t>793333193</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6529,7 +6537,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Retirar columna vieja, nodo ya traspasado</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6542,7 +6550,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6551,14 +6559,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.481608</v>
+        <v>-58.445523</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.587837</v>
+        <v>-34.558237</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6570,27 +6578,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7166</t>
+          <t>-103</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>9/5/2025</t>
+          <t>6/12/2024</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BRIN, MINISTRO 1259</t>
+          <t>SALGUERO JERONIMO /ALT/ 2533</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>809492876</t>
+          <t>788206681</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6605,11 +6613,11 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Altura correcta 2549</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6627,14 +6635,14 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.355919</v>
+        <v>-58.409971</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.634597</v>
+        <v>-34.58175</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6646,27 +6654,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7169</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>9/5/2025</t>
+          <t>1/15/2024</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SAN NICOLAS 5045</t>
+          <t>DARWIN /ALT/ 651</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>809492980</t>
+          <t>777863458</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6679,13 +6687,9 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Poste quebrado</t>
-        </is>
-      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6699,14 +6703,14 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.515637</v>
+        <v>-58.44467</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.589993</v>
+        <v>-34.593784</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -6716,158 +6720,6 @@
       <c r="P83" t="inlineStr">
         <is>
           <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>-583</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>9/8/2025</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Av Eva Perón 1145</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>809504290</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>-58.441547</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-34.630481</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>-584</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>9/8/2025</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>General Gregorio Aráoz de Lamadrid 865</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>809504300</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Columna colgando</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>-58.364566</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-34.639404</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -518,27 +518,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>1/5/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>FIGUEROA ALCORTA PTE ,AV. /ALT/ 5600</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>777580740</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>Es F. ALCORTA 5600 (pasando Av de los ombues 100mts aprox.) Para cambiar es un poste con muchas rajaduras, en Figueroa Alcorta esq. Av de los Ombues</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -566,23 +566,23 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.391153</v>
+        <v>-58.425911</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.624022</v>
+        <v>-34.56033</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -594,27 +594,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7184</t>
+          <t>6968</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9/8/2025</t>
+          <t>1/13/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>VALLEJOS 2221</t>
+          <t>SANTA FE AV. 5154</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>809526160</t>
+          <t>777843837</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -651,46 +651,46 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.493225</v>
+        <v>-58.432658</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.583095</v>
+        <v>-34.576446</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7177</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9/8/2025</t>
+          <t>1/15/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUGONES 2830</t>
+          <t>DARWIN /ALT/ 651</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>809526156</t>
+          <t>777863458</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -703,13 +703,9 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -727,14 +723,14 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.482786</v>
+        <v>-58.44467</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.56748</v>
+        <v>-34.593784</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -746,27 +742,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7174</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9/8/2025</t>
+          <t>2/21/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FERNANDEZ BLANCO 2320</t>
+          <t>VEGA CNEL NICETO /ALT/ 4984</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>809526154</t>
+          <t>780352873</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -781,11 +777,11 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Recambio de columna</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -803,46 +799,46 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.481983</v>
+        <v>-58.433253</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.573931</v>
+        <v>-34.591026</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7171</t>
+          <t>-103</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>6/12/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OLAZABAL AV. 5531</t>
+          <t>SALGUERO JERONIMO /ALT/ 2533</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>809268253</t>
+          <t>788206681</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -857,11 +853,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Altura correcta 2549</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -879,46 +875,46 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.491028</v>
+        <v>-58.409971</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.579381</v>
+        <v>-34.58175</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7169</t>
+          <t>-118</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/5/2025</t>
+          <t>8/15/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SAN NICOLAS 5045</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>809492980</t>
+          <t>793333193</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -933,11 +929,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Retirar columna vieja, nodo ya traspasado</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -946,23 +942,23 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.515637</v>
+        <v>-58.445523</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.589993</v>
+        <v>-34.558237</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -974,27 +970,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7166</t>
+          <t>-143</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9/5/2025</t>
+          <t>10/7/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BRIN, MINISTRO 1259</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>809492876</t>
+          <t>797752816</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1004,16 +1000,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,7 +1014,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1031,46 +1023,46 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.355919</v>
+        <v>-58.458864</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.634597</v>
+        <v>-34.561167</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7157</t>
+          <t>-152</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1750</t>
+          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>809257762</t>
+          <t>798984311</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1085,11 +1077,11 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>El poste esta pegado al arbol ver la foto adjunta</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1103,50 +1095,50 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.390806</v>
+        <v>-58.513363</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.620213</v>
+        <v>-34.605473</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7149</t>
+          <t>-160</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>QUITO 3666</t>
+          <t>MORAN PEDRO /ALT/ 3100</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>809168441</t>
+          <t>798984905</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1159,13 +1151,9 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1179,50 +1167,50 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.41791</v>
+        <v>-58.498724</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.616706</v>
+        <v>-34.594329</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7141</t>
+          <t>-201</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3/18/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 4007</t>
+          <t>MIGUELETES /ALT/ 1007</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>804161220</t>
+          <t>799540497</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1237,11 +1225,11 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1255,18 +1243,18 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.422037</v>
+        <v>-58.436377</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.624729</v>
+        <v>-34.565075</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1278,27 +1266,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7096</t>
+          <t>-202</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>VEDIA, AGUSTIN DE 2185</t>
+          <t>MIGUELETES /ALT/ 1030</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>809279069</t>
+          <t>799540503</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1313,11 +1301,11 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Recambio de columna - alt correcta 1010</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1331,18 +1319,18 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.435511</v>
+        <v>-58.436601</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.644702</v>
+        <v>-34.565035</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1354,27 +1342,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>-216</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>5/2/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SUAREZ AV. 1966</t>
+          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>809279022</t>
+          <t>784655947</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1393,7 +1381,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1411,14 +1399,14 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.377974</v>
+        <v>-58.404652</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.641024</v>
+        <v>-34.58263</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1430,27 +1418,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7090</t>
+          <t>-219</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 625</t>
+          <t>LA PAMPA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>809270753</t>
+          <t>798953875</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1465,11 +1453,11 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1487,46 +1475,46 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.378104</v>
+        <v>-58.458282</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.649578</v>
+        <v>-34.56718</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7089</t>
+          <t>-228</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 637</t>
+          <t>ALVAREZ JULIAN /ALT/ 1272</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>809270751</t>
+          <t>800645527</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1545,7 +1533,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1563,14 +1551,14 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.37805</v>
+        <v>-58.426725</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.649722</v>
+        <v>-34.5945</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1582,27 +1570,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>12/21/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HERRERA 1998</t>
+          <t>MERCEDES 254</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>809268244</t>
+          <t>801901755</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1617,7 +1605,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar R200 para pedir traspaso de equipo</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1630,55 +1618,55 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.37456</v>
+        <v>-58.484232</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.649779</v>
+        <v>-34.631431</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PINZON 1578</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>809195671</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1691,11 +1679,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>1</v>
       </c>
@@ -1706,7 +1690,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1715,46 +1699,46 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.373428</v>
+        <v>-58.457158</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.63705</v>
+        <v>-34.605839</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6740</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>809006419</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1764,25 +1748,25 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1791,14 +1775,14 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.460441</v>
+        <v>-58.391153</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.628243</v>
+        <v>-34.624022</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1810,17 +1794,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6968</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1/13/2024</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SANTA FE AV. 5154</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1830,7 +1814,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>777843837</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1845,11 +1829,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1858,7 +1842,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1867,10 +1851,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.432658</v>
+        <v>-58.423405</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.576446</v>
+        <v>-34.588075</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1886,27 +1870,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1921,7 +1905,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1943,46 +1927,46 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.460818</v>
+        <v>-58.496255</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.618934</v>
+        <v>-34.650599</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6695</t>
+          <t>7141</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>3/18/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>OLAZABAL AV. 4417</t>
+          <t>CALVO, CARLOS AV. 4007</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>808373646</t>
+          <t>804161220</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2019,46 +2003,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.478941</v>
+        <v>-58.422037</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.57242</v>
+        <v>-34.624729</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6580</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 3742</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>808240230</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2073,7 +2057,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2091,50 +2075,50 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.470347</v>
+        <v>-58.42486</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.547965</v>
+        <v>-34.577318</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2149,7 +2133,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2157,12 +2141,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2171,46 +2155,46 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.375684</v>
+        <v>-58.491074</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.656092</v>
+        <v>-34.575623</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2225,7 +2209,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2233,7 +2217,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2247,46 +2231,46 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.468841</v>
+        <v>-58.525125</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.686635</v>
+        <v>-34.604668</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2301,7 +2285,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2309,7 +2293,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2319,18 +2303,18 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.494864</v>
+        <v>-58.421964</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.678826</v>
+        <v>-34.586342</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2342,27 +2326,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>808533127</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2377,7 +2361,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2399,46 +2383,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.422229</v>
+        <v>-58.498493</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.573148</v>
+        <v>-34.581262</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6478</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7/24/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>JUJUY AV. 1647</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>808509387</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2453,11 +2437,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2475,46 +2459,46 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.401083</v>
+        <v>-58.502447</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.629397</v>
+        <v>-34.561008</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2529,11 +2513,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2547,18 +2531,18 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.510247</v>
+        <v>-58.483947</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.645038</v>
+        <v>-34.583207</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2570,17 +2554,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2590,7 +2574,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2605,11 +2589,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2623,18 +2607,18 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.473089</v>
+        <v>-58.503673</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.625478</v>
+        <v>-34.586925</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2646,27 +2630,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2681,15 +2665,15 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2699,50 +2683,50 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.472311</v>
+        <v>-58.504455</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.654867</v>
+        <v>-34.579941</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6180</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/4/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AZARA 15</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805655333</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2757,15 +2741,15 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2779,46 +2763,46 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.372751</v>
+        <v>-58.503195</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.631917</v>
+        <v>-34.581735</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2833,15 +2817,15 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2855,14 +2839,14 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.496255</v>
+        <v>-58.493164</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.650599</v>
+        <v>-34.55732</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2874,27 +2858,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-584</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>General Gregorio Aráoz de Lamadrid 865</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>809504300</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2909,11 +2893,11 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna colgando</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2931,46 +2915,46 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.364566</v>
+        <v>-58.491934</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.639404</v>
+        <v>-34.569348</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-583</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Av Eva Perón 1145</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>809504290</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2985,15 +2969,15 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3007,42 +2991,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.441547</v>
+        <v>-58.501418</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.630481</v>
+        <v>-34.574363</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-581</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9/4/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Praga 1380</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>809432814</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3057,7 +3045,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3065,7 +3053,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3079,14 +3067,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.481608</v>
+        <v>-58.494584</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.587837</v>
+        <v>-34.554981</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3098,27 +3086,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3133,7 +3121,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3151,18 +3139,18 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.525125</v>
+        <v>-58.465608</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.604668</v>
+        <v>-34.538489</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3174,27 +3162,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3209,7 +3197,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3231,14 +3219,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.496608</v>
+        <v>-58.436788</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.666371</v>
+        <v>-34.604014</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3250,27 +3238,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3285,7 +3273,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3293,7 +3281,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3303,50 +3291,50 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.484729</v>
+        <v>-58.439461</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.574614</v>
+        <v>-34.605744</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3361,7 +3349,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3383,14 +3371,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.417348</v>
+        <v>-58.418424</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.595467</v>
+        <v>-34.604463</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3402,27 +3390,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3437,7 +3425,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3445,7 +3433,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3459,46 +3447,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.432241</v>
+        <v>-58.473936</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.56642</v>
+        <v>-34.577346</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>AZARA 15</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3511,7 +3499,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
@@ -3531,14 +3523,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.405761</v>
+        <v>-58.372751</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.582476</v>
+        <v>-34.631917</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3550,17 +3542,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3570,7 +3562,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3585,7 +3577,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3607,14 +3599,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.412302</v>
+        <v>-58.387847</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.59301</v>
+        <v>-34.587043</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3626,17 +3618,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3646,7 +3638,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3656,12 +3648,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la